--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D67EF-2BDC-46C2-A8C9-C1CE5D635006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B6C5A-7D5D-4C08-829C-83CEC108FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="pubfinder_list_NLA_ok" sheetId="2" r:id="rId1"/>
@@ -1979,9 +1979,6 @@
     <t>Kirchenplatz 3</t>
   </si>
   <si>
-    <t>+4991231641101</t>
-  </si>
-  <si>
     <t>reservierung@anuschlini.de</t>
   </si>
   <si>
@@ -1989,6 +1986,9 @@
   </si>
   <si>
     <t>Strasse</t>
+  </si>
+  <si>
+    <t>+4991231641126</t>
   </si>
 </sst>
 </file>
@@ -2515,34 +2515,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
   <dimension ref="A1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2613,7 +2613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>227</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>261</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>281</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>287</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>304</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>309</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>316</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>324</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>333</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>343</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>352</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>631</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>382</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>389</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>395</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>402</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>406</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>410</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>416</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>640</v>
       </c>
@@ -7242,13 +7242,13 @@
         <v>418</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="I67" t="s">
         <v>29</v>
@@ -7296,7 +7296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>422</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>427</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>434</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>439</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>443</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>447</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>453</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>458</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>463</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>470</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>473</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>476</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>480</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>486</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>491</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>498</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>504</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>517</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>525</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>536</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>542</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>548</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>554</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>561</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>566</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>570</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>576</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>580</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>587</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>596</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>601</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>607</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>613</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>618</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>624</v>
       </c>
@@ -9944,7 +9944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B6C5A-7D5D-4C08-829C-83CEC108FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB3BE44-7B57-40D6-B041-782012B3A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA_ok!$A$1:$W$104</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA_ok!$A$1:$W$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="653">
   <si>
     <t>Name</t>
   </si>
@@ -1989,6 +1989,24 @@
   </si>
   <si>
     <t>+4991231641126</t>
+  </si>
+  <si>
+    <t>Zu den Linden</t>
+  </si>
+  <si>
+    <t>Utzmannsbach 11</t>
+  </si>
+  <si>
+    <t>+499155 446</t>
+  </si>
+  <si>
+    <t>https://www.gasthaus-zu-den-linden.de/</t>
+  </si>
+  <si>
+    <t>info@gasthaus-zu-den-linden.de</t>
+  </si>
+  <si>
+    <t>10:00 - 15:00</t>
   </si>
 </sst>
 </file>
@@ -2165,8 +2183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W104" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W104" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W105" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W105" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="20"/>
@@ -2513,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W104"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="M70" workbookViewId="0">
+      <selection activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9570,28 +9588,28 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D100">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E100" t="s">
-        <v>603</v>
-      </c>
-      <c r="F100" t="s">
-        <v>604</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s">
-        <v>605</v>
+        <v>589</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="I100" t="s">
         <v>29</v>
@@ -9600,13 +9618,13 @@
         <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M100" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N100" t="s">
         <v>30</v>
@@ -9621,19 +9639,19 @@
         <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="S100" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T100" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U100" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V100" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W100" t="s">
         <v>27</v>
@@ -9641,13 +9659,13 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D101">
         <v>91247</v>
@@ -9656,28 +9674,28 @@
         <v>603</v>
       </c>
       <c r="F101" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G101" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I101" t="s">
         <v>29</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K101" t="s">
         <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N101" t="s">
         <v>30</v>
@@ -9689,22 +9707,22 @@
         <v>29</v>
       </c>
       <c r="Q101" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R101" t="s">
         <v>29</v>
       </c>
       <c r="S101" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T101" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U101" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V101" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
@@ -9712,13 +9730,13 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D102">
         <v>91247</v>
@@ -9727,25 +9745,25 @@
         <v>603</v>
       </c>
       <c r="F102" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G102" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H102" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I102" t="s">
         <v>29</v>
       </c>
       <c r="J102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K102" t="s">
         <v>29</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M102" t="s">
         <v>41</v>
@@ -9760,22 +9778,22 @@
         <v>29</v>
       </c>
       <c r="Q102" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R102" t="s">
         <v>29</v>
       </c>
       <c r="S102" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T102" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U102" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V102" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W102" t="s">
         <v>27</v>
@@ -9783,28 +9801,28 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D103">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E103" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G103" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H103" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I103" t="s">
         <v>29</v>
@@ -9816,7 +9834,7 @@
         <v>29</v>
       </c>
       <c r="L103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M103" t="s">
         <v>41</v>
@@ -9837,16 +9855,16 @@
         <v>29</v>
       </c>
       <c r="S103" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T103" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U103" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V103" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W103" t="s">
         <v>27</v>
@@ -9854,13 +9872,13 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D104">
         <v>91367</v>
@@ -9869,22 +9887,22 @@
         <v>620</v>
       </c>
       <c r="F104" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G104" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H104" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L104" t="s">
         <v>40</v>
@@ -9896,30 +9914,101 @@
         <v>30</v>
       </c>
       <c r="O104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P104" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>29</v>
+      </c>
+      <c r="R104" t="s">
+        <v>29</v>
+      </c>
+      <c r="S104" t="s">
+        <v>71</v>
+      </c>
+      <c r="T104" t="s">
+        <v>72</v>
+      </c>
+      <c r="U104" t="s">
+        <v>72</v>
+      </c>
+      <c r="V104" t="s">
+        <v>72</v>
+      </c>
+      <c r="W104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>624</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>625</v>
+      </c>
+      <c r="D105">
+        <v>91367</v>
+      </c>
+      <c r="E105" t="s">
+        <v>620</v>
+      </c>
+      <c r="F105" t="s">
+        <v>626</v>
+      </c>
+      <c r="G105" t="s">
+        <v>627</v>
+      </c>
+      <c r="H105" t="s">
+        <v>628</v>
+      </c>
+      <c r="I105" t="s">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" t="s">
+        <v>40</v>
+      </c>
+      <c r="M105" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" t="s">
+        <v>30</v>
+      </c>
+      <c r="O105" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" t="s">
         <v>629</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q105" t="s">
         <v>629</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R105" t="s">
         <v>629</v>
       </c>
-      <c r="S104" t="s">
+      <c r="S105" t="s">
         <v>629</v>
       </c>
-      <c r="T104" t="s">
+      <c r="T105" t="s">
         <v>629</v>
       </c>
-      <c r="U104" t="s">
+      <c r="U105" t="s">
         <v>630</v>
       </c>
-      <c r="V104" t="s">
-        <v>29</v>
-      </c>
-      <c r="W104" t="s">
+      <c r="V105" t="s">
+        <v>29</v>
+      </c>
+      <c r="W105" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9930,10 +10019,12 @@
     <hyperlink ref="H79" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
     <hyperlink ref="G67" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
     <hyperlink ref="H67" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
+    <hyperlink ref="H100" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
+    <hyperlink ref="G100" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB3BE44-7B57-40D6-B041-782012B3A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D727DF-A89C-4F54-9774-108CF2255C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="pubfinder_list_NLA_ok" sheetId="2" r:id="rId1"/>
+    <sheet name="pubfinder_list_NLA" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA_ok!$A$1:$W$105</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="658">
   <si>
     <t>Name</t>
   </si>
@@ -2007,6 +2007,21 @@
   </si>
   <si>
     <t>10:00 - 15:00</t>
+  </si>
+  <si>
+    <t>Afroditi</t>
+  </si>
+  <si>
+    <t>Samstagstr. 20</t>
+  </si>
+  <si>
+    <t>+4991239892860</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php/?id=100061930315399</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00 &amp; 17:00 - 21:00</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W105" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W105" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W106" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W106" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="20"/>
@@ -2531,36 +2546,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M70" workbookViewId="0">
-      <selection activeCell="V100" sqref="V100"/>
+    <sheetView tabSelected="1" topLeftCell="Q61" workbookViewId="0">
+      <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2702,7 +2717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2844,7 +2859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3057,7 +3072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3128,7 +3143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3270,7 +3285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3341,7 +3356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3412,7 +3427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -3483,7 +3498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -3554,7 +3569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3625,7 +3640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3767,7 +3782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -3838,7 +3853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -4051,7 +4066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -4193,7 +4208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -4264,7 +4279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -4335,7 +4350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -4406,7 +4421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -4477,7 +4492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -4548,7 +4563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -4619,7 +4634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -4690,7 +4705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -4761,7 +4776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>227</v>
       </c>
@@ -4832,7 +4847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -4903,7 +4918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -4974,7 +4989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>261</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -5329,7 +5344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>281</v>
       </c>
@@ -5400,7 +5415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>287</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -5613,7 +5628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>304</v>
       </c>
@@ -5684,7 +5699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>309</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>316</v>
       </c>
@@ -5826,7 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>324</v>
       </c>
@@ -5968,7 +5983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -6039,7 +6054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>333</v>
       </c>
@@ -6110,7 +6125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -6181,7 +6196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>343</v>
       </c>
@@ -6252,7 +6267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -6323,7 +6338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>352</v>
       </c>
@@ -6394,7 +6409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -6465,7 +6480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -6536,7 +6551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -6607,7 +6622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>631</v>
       </c>
@@ -6675,7 +6690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -6746,7 +6761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>382</v>
       </c>
@@ -6817,7 +6832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>389</v>
       </c>
@@ -6888,7 +6903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>395</v>
       </c>
@@ -6959,7 +6974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>402</v>
       </c>
@@ -7030,7 +7045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>406</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>410</v>
       </c>
@@ -7172,15 +7187,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>416</v>
+        <v>653</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
+        <v>654</v>
       </c>
       <c r="D66">
         <v>91207</v>
@@ -7188,17 +7203,17 @@
       <c r="E66" t="s">
         <v>418</v>
       </c>
-      <c r="F66" t="s">
-        <v>419</v>
+      <c r="F66" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
-      <c r="H66" t="s">
-        <v>420</v>
+      <c r="H66" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
         <v>39</v>
@@ -7219,39 +7234,39 @@
         <v>29</v>
       </c>
       <c r="P66" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="Q66" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="T66" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="U66" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="V66" t="s">
-        <v>29</v>
+        <v>657</v>
       </c>
       <c r="W66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>640</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s">
-        <v>641</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>642</v>
+        <v>417</v>
       </c>
       <c r="D67">
         <v>91207</v>
@@ -7259,17 +7274,17 @@
       <c r="E67" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>644</v>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>420</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J67" t="s">
         <v>39</v>
@@ -7284,45 +7299,45 @@
         <v>41</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P67" t="s">
-        <v>29</v>
+        <v>421</v>
       </c>
       <c r="Q67" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="R67" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="S67" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="T67" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="U67" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="V67" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="W67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>640</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>641</v>
       </c>
       <c r="C68" t="s">
-        <v>423</v>
+        <v>642</v>
       </c>
       <c r="D68">
         <v>91207</v>
@@ -7330,23 +7345,23 @@
       <c r="E68" t="s">
         <v>418</v>
       </c>
-      <c r="F68" t="s">
-        <v>424</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s">
-        <v>425</v>
+      <c r="F68" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="I68" t="s">
         <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L68" t="s">
         <v>40</v>
@@ -7364,36 +7379,36 @@
         <v>29</v>
       </c>
       <c r="Q68" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="R68" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="S68" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="T68" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="U68" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="V68" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="W68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D69">
         <v>91207</v>
@@ -7402,13 +7417,13 @@
         <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G69" t="s">
-        <v>430</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I69" t="s">
         <v>29</v>
@@ -7417,7 +7432,7 @@
         <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L69" t="s">
         <v>40</v>
@@ -7438,33 +7453,33 @@
         <v>29</v>
       </c>
       <c r="R69" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="S69" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="T69" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="U69" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="V69" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="W69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D70">
         <v>91207</v>
@@ -7473,13 +7488,13 @@
         <v>418</v>
       </c>
       <c r="F70" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G70" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H70" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I70" t="s">
         <v>29</v>
@@ -7488,10 +7503,10 @@
         <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M70" t="s">
         <v>41</v>
@@ -7509,33 +7524,33 @@
         <v>29</v>
       </c>
       <c r="R70" t="s">
-        <v>29</v>
+        <v>432</v>
       </c>
       <c r="S70" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="T70" t="s">
-        <v>71</v>
+        <v>432</v>
       </c>
       <c r="U70" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="V70" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="W70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D71">
         <v>91207</v>
@@ -7544,25 +7559,25 @@
         <v>418</v>
       </c>
       <c r="F71" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>437</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>438</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L71" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M71" t="s">
         <v>41</v>
@@ -7574,39 +7589,39 @@
         <v>31</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R71" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="S71" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="T71" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="U71" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="V71" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="W71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D72">
         <v>91207</v>
@@ -7615,16 +7630,16 @@
         <v>418</v>
       </c>
       <c r="F72" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>446</v>
+        <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J72" t="s">
         <v>39</v>
@@ -7642,42 +7657,42 @@
         <v>30</v>
       </c>
       <c r="O72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P72" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="Q72" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="R72" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="S72" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="T72" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="U72" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="V72" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="W72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D73">
         <v>91207</v>
@@ -7686,19 +7701,19 @@
         <v>418</v>
       </c>
       <c r="F73" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G73" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K73" t="s">
         <v>47</v>
@@ -7713,42 +7728,42 @@
         <v>30</v>
       </c>
       <c r="O73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P73" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="Q73" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="R73" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="S73" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="T73" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="U73" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V73" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W73" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D74">
         <v>91207</v>
@@ -7757,16 +7772,16 @@
         <v>418</v>
       </c>
       <c r="F74" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G74" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H74" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s">
         <v>29</v>
@@ -7787,39 +7802,39 @@
         <v>31</v>
       </c>
       <c r="P74" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="Q74" t="s">
         <v>29</v>
       </c>
       <c r="R74" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="S74" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="T74" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="U74" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="V74" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="W74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D75">
         <v>91207</v>
@@ -7828,13 +7843,13 @@
         <v>418</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G75" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H75" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I75" t="s">
         <v>29</v>
@@ -7864,33 +7879,33 @@
         <v>29</v>
       </c>
       <c r="R75" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="S75" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="T75" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="U75" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="V75" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="W75" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D76">
         <v>91207</v>
@@ -7899,19 +7914,19 @@
         <v>418</v>
       </c>
       <c r="F76" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H76" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K76" t="s">
         <v>47</v>
@@ -7932,36 +7947,36 @@
         <v>29</v>
       </c>
       <c r="Q76" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="R76" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="S76" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="T76" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="U76" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="V76" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="W76" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B77" t="s">
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D77">
         <v>91207</v>
@@ -7970,13 +7985,13 @@
         <v>418</v>
       </c>
       <c r="F77" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="H77" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -7997,42 +8012,42 @@
         <v>30</v>
       </c>
       <c r="O77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P77" t="s">
         <v>29</v>
       </c>
       <c r="Q77" t="s">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="R77" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="S77" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="T77" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="U77" t="s">
-        <v>253</v>
+        <v>469</v>
       </c>
       <c r="V77" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="W77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s">
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D78">
         <v>91207</v>
@@ -8047,7 +8062,7 @@
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -8068,42 +8083,42 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P78" t="s">
         <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="R78" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="S78" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="T78" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="U78" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V78" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W78" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s">
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8112,22 +8127,22 @@
         <v>418</v>
       </c>
       <c r="F79" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>639</v>
+      <c r="H79" t="s">
+        <v>475</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
         <v>39</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L79" t="s">
         <v>40</v>
@@ -8142,39 +8157,39 @@
         <v>31</v>
       </c>
       <c r="P79" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="R79" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="S79" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="T79" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="U79" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="V79" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8183,13 +8198,13 @@
         <v>418</v>
       </c>
       <c r="F80" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G80" t="s">
-        <v>483</v>
-      </c>
-      <c r="H80" t="s">
-        <v>484</v>
+        <v>27</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>639</v>
       </c>
       <c r="I80" t="s">
         <v>38</v>
@@ -8198,7 +8213,7 @@
         <v>39</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L80" t="s">
         <v>40</v>
@@ -8210,42 +8225,42 @@
         <v>30</v>
       </c>
       <c r="O80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="R80" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="S80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="V80" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="W80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D81">
         <v>91207</v>
@@ -8254,19 +8269,19 @@
         <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G81" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H81" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K81" t="s">
         <v>47</v>
@@ -8281,57 +8296,57 @@
         <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P81" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="Q81" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="U81" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="V81" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D82">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E82" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G82" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H82" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I82" t="s">
         <v>29</v>
@@ -8361,33 +8376,33 @@
         <v>29</v>
       </c>
       <c r="R82" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="U82" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="V82" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="W82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D83">
         <v>91227</v>
@@ -8396,16 +8411,16 @@
         <v>493</v>
       </c>
       <c r="F83" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G83" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H83" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J83" t="s">
         <v>29</v>
@@ -8426,39 +8441,39 @@
         <v>31</v>
       </c>
       <c r="P83" t="s">
-        <v>503</v>
+        <v>29</v>
       </c>
       <c r="Q83" t="s">
         <v>29</v>
       </c>
       <c r="R83" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="S83" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="T83" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="U83" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="V83" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D84">
         <v>91227</v>
@@ -8467,25 +8482,25 @@
         <v>493</v>
       </c>
       <c r="F84" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G84" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H84" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
         <v>47</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M84" t="s">
         <v>41</v>
@@ -8497,63 +8512,63 @@
         <v>31</v>
       </c>
       <c r="P84" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="Q84" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="R84" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S84" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="T84" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="U84" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="V84" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="W84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D85">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E85" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F85" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G85" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H85" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I85" t="s">
         <v>29</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L85" t="s">
         <v>29</v>
@@ -8571,51 +8586,51 @@
         <v>29</v>
       </c>
       <c r="Q85" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="R85" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="S85" t="s">
         <v>29</v>
       </c>
       <c r="T85" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="U85" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="V85" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="W85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D86">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E86" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F86" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G86" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H86" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I86" t="s">
         <v>29</v>
@@ -8633,7 +8648,7 @@
         <v>41</v>
       </c>
       <c r="N86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O86" t="s">
         <v>31</v>
@@ -8651,60 +8666,60 @@
         <v>29</v>
       </c>
       <c r="T86" t="s">
-        <v>523</v>
+        <v>56</v>
       </c>
       <c r="U86" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V86" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="W86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D87">
-        <v>91242</v>
+        <v>91233</v>
       </c>
       <c r="E87" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F87" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="H87" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I87" t="s">
         <v>29</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L87" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M87" t="s">
         <v>41</v>
       </c>
       <c r="N87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O87" t="s">
         <v>31</v>
@@ -8713,36 +8728,36 @@
         <v>29</v>
       </c>
       <c r="Q87" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R87" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S87" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T87" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="U87" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="V87" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="W87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D88">
         <v>91242</v>
@@ -8751,19 +8766,19 @@
         <v>527</v>
       </c>
       <c r="F88" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G88" t="s">
         <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K88" t="s">
         <v>47</v>
@@ -8781,63 +8796,63 @@
         <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="Q88" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R88" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="S88" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="T88" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="U88" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="V88" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="W88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D89">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E89" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F89" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G89" t="s">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I89" t="s">
         <v>38</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L89" t="s">
         <v>40</v>
@@ -8852,39 +8867,39 @@
         <v>31</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="Q89" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R89" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="S89" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="T89" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="U89" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="V89" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="W89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D90">
         <v>91287</v>
@@ -8893,28 +8908,28 @@
         <v>538</v>
       </c>
       <c r="F90" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="H90" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I90" t="s">
         <v>38</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L90" t="s">
         <v>40</v>
       </c>
       <c r="M90" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N90" t="s">
         <v>30</v>
@@ -8923,39 +8938,39 @@
         <v>31</v>
       </c>
       <c r="P90" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="Q90" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R90" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="S90" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="T90" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="U90" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="V90" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="W90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D91">
         <v>91287</v>
@@ -8964,19 +8979,19 @@
         <v>538</v>
       </c>
       <c r="F91" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G91" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K91" t="s">
         <v>47</v>
@@ -8985,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="M91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N91" t="s">
         <v>30</v>
@@ -8994,63 +9009,63 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q91" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R91" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="S91" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="T91" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="U91" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="V91" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D92">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E92" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G92" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H92" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I92" t="s">
         <v>29</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L92" t="s">
         <v>40</v>
@@ -9068,36 +9083,36 @@
         <v>29</v>
       </c>
       <c r="Q92" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R92" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S92" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="T92" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="U92" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="V92" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="W92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D93">
         <v>91224</v>
@@ -9106,25 +9121,25 @@
         <v>556</v>
       </c>
       <c r="F93" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G93" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
       <c r="H93" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I93" t="s">
         <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
         <v>29</v>
       </c>
       <c r="L93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M93" t="s">
         <v>41</v>
@@ -9139,36 +9154,36 @@
         <v>29</v>
       </c>
       <c r="Q93" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R93" t="s">
         <v>29</v>
       </c>
       <c r="S93" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T93" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="U93" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="V93" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="W93" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D94">
         <v>91224</v>
@@ -9177,13 +9192,13 @@
         <v>556</v>
       </c>
       <c r="F94" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G94" t="s">
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I94" t="s">
         <v>29</v>
@@ -9192,10 +9207,10 @@
         <v>39</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L94" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M94" t="s">
         <v>41</v>
@@ -9210,57 +9225,57 @@
         <v>29</v>
       </c>
       <c r="Q94" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="R94" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="S94" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="T94" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="U94" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="V94" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D95">
-        <v>90552</v>
+        <v>91224</v>
       </c>
       <c r="E95" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F95" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G95" t="s">
-        <v>574</v>
+        <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s">
         <v>47</v>
@@ -9281,36 +9296,36 @@
         <v>29</v>
       </c>
       <c r="Q95" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="R95" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="S95" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="T95" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="U95" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="V95" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="W95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D96">
         <v>90552</v>
@@ -9319,13 +9334,13 @@
         <v>572</v>
       </c>
       <c r="F96" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I96" t="s">
         <v>29</v>
@@ -9355,33 +9370,33 @@
         <v>29</v>
       </c>
       <c r="R96" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S96" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="T96" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="U96" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V96" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D97">
         <v>90552</v>
@@ -9390,22 +9405,22 @@
         <v>572</v>
       </c>
       <c r="F97" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G97" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L97" t="s">
         <v>40</v>
@@ -9420,63 +9435,63 @@
         <v>31</v>
       </c>
       <c r="P97" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q97" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S97" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="T97" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="U97" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="V97" t="s">
-        <v>586</v>
+        <v>42</v>
       </c>
       <c r="W97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D98">
-        <v>91245</v>
+        <v>90552</v>
       </c>
       <c r="E98" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F98" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G98" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H98" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I98" t="s">
         <v>38</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L98" t="s">
         <v>40</v>
@@ -9491,39 +9506,39 @@
         <v>31</v>
       </c>
       <c r="P98" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q98" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R98" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S98" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="T98" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="U98" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="V98" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="W98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D99">
         <v>91245</v>
@@ -9532,16 +9547,16 @@
         <v>589</v>
       </c>
       <c r="F99" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G99" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H99" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J99" t="s">
         <v>29</v>
@@ -9562,39 +9577,39 @@
         <v>31</v>
       </c>
       <c r="P99" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q99" t="s">
         <v>29</v>
       </c>
       <c r="R99" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S99" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="T99" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U99" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="V99" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D100">
         <v>91245</v>
@@ -9602,14 +9617,14 @@
       <c r="E100" t="s">
         <v>589</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>650</v>
+      <c r="F100" t="s">
+        <v>598</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>599</v>
       </c>
       <c r="I100" t="s">
         <v>29</v>
@@ -9639,48 +9654,48 @@
         <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>652</v>
+        <v>71</v>
       </c>
       <c r="S100" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="T100" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="U100" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="V100" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="W100" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D101">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E101" t="s">
-        <v>603</v>
-      </c>
-      <c r="F101" t="s">
-        <v>604</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s">
-        <v>605</v>
+        <v>589</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="I101" t="s">
         <v>29</v>
@@ -9689,13 +9704,13 @@
         <v>29</v>
       </c>
       <c r="K101" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N101" t="s">
         <v>30</v>
@@ -9710,33 +9725,33 @@
         <v>29</v>
       </c>
       <c r="R101" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="S101" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T101" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U101" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V101" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D102">
         <v>91247</v>
@@ -9745,28 +9760,28 @@
         <v>603</v>
       </c>
       <c r="F102" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G102" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I102" t="s">
         <v>29</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K102" t="s">
         <v>29</v>
       </c>
       <c r="L102" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M102" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N102" t="s">
         <v>30</v>
@@ -9778,36 +9793,36 @@
         <v>29</v>
       </c>
       <c r="Q102" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R102" t="s">
         <v>29</v>
       </c>
       <c r="S102" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T102" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U102" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V102" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W102" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D103">
         <v>91247</v>
@@ -9816,25 +9831,25 @@
         <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G103" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H103" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I103" t="s">
         <v>29</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K103" t="s">
         <v>29</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M103" t="s">
         <v>41</v>
@@ -9849,51 +9864,51 @@
         <v>29</v>
       </c>
       <c r="Q103" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R103" t="s">
         <v>29</v>
       </c>
       <c r="S103" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T103" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U103" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V103" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W103" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D104">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E104" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F104" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G104" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H104" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I104" t="s">
         <v>29</v>
@@ -9905,7 +9920,7 @@
         <v>29</v>
       </c>
       <c r="L104" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M104" t="s">
         <v>41</v>
@@ -9926,30 +9941,30 @@
         <v>29</v>
       </c>
       <c r="S104" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T104" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U104" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V104" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D105">
         <v>91367</v>
@@ -9958,22 +9973,22 @@
         <v>620</v>
       </c>
       <c r="F105" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G105" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H105" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L105" t="s">
         <v>40</v>
@@ -9985,30 +10000,101 @@
         <v>30</v>
       </c>
       <c r="O105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P105" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>29</v>
+      </c>
+      <c r="R105" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" t="s">
+        <v>71</v>
+      </c>
+      <c r="T105" t="s">
+        <v>72</v>
+      </c>
+      <c r="U105" t="s">
+        <v>72</v>
+      </c>
+      <c r="V105" t="s">
+        <v>72</v>
+      </c>
+      <c r="W105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>624</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>625</v>
+      </c>
+      <c r="D106">
+        <v>91367</v>
+      </c>
+      <c r="E106" t="s">
+        <v>620</v>
+      </c>
+      <c r="F106" t="s">
+        <v>626</v>
+      </c>
+      <c r="G106" t="s">
+        <v>627</v>
+      </c>
+      <c r="H106" t="s">
+        <v>628</v>
+      </c>
+      <c r="I106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" t="s">
+        <v>40</v>
+      </c>
+      <c r="M106" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" t="s">
+        <v>30</v>
+      </c>
+      <c r="O106" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" t="s">
         <v>629</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="Q106" t="s">
         <v>629</v>
       </c>
-      <c r="R105" t="s">
+      <c r="R106" t="s">
         <v>629</v>
       </c>
-      <c r="S105" t="s">
+      <c r="S106" t="s">
         <v>629</v>
       </c>
-      <c r="T105" t="s">
+      <c r="T106" t="s">
         <v>629</v>
       </c>
-      <c r="U105" t="s">
+      <c r="U106" t="s">
         <v>630</v>
       </c>
-      <c r="V105" t="s">
-        <v>29</v>
-      </c>
-      <c r="W105" t="s">
+      <c r="V106" t="s">
+        <v>29</v>
+      </c>
+      <c r="W106" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10016,15 +10102,16 @@
   <hyperlinks>
     <hyperlink ref="H58" r:id="rId1" xr:uid="{3518E2E3-45F1-448A-93F8-FA096D84A577}"/>
     <hyperlink ref="G58" r:id="rId2" xr:uid="{7220F707-B88F-4FDE-AEBA-ED4F716E05CE}"/>
-    <hyperlink ref="H79" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
-    <hyperlink ref="G67" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
-    <hyperlink ref="H67" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
-    <hyperlink ref="H100" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
-    <hyperlink ref="G100" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
+    <hyperlink ref="H80" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
+    <hyperlink ref="G68" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
+    <hyperlink ref="H68" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
+    <hyperlink ref="H101" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
+    <hyperlink ref="G101" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
+    <hyperlink ref="H66" r:id="rId8" xr:uid="{811F14D2-8625-407A-A363-4868792D85E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10035,7 +10122,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D727DF-A89C-4F54-9774-108CF2255C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE51C215-3498-43E1-9910-A40390319B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q61" workbookViewId="0">
-      <selection activeCell="Y86" sqref="Y86"/>
+    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7228,10 +7228,10 @@
         <v>41</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P66" t="s">
         <v>29</v>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE51C215-3498-43E1-9910-A40390319B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F7397-9C24-4531-A9A8-8DA728C0DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$106</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="665">
   <si>
     <t>Name</t>
   </si>
@@ -2022,6 +2022,27 @@
   </si>
   <si>
     <t>11:00 - 14:00 &amp; 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Altdorfer Str.14</t>
+  </si>
+  <si>
+    <t>cafe@hugo-lauf.de</t>
+  </si>
+  <si>
+    <t>+4991239980191</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hugo.gastronomie</t>
+  </si>
+  <si>
+    <t>09:00 - 17:00</t>
+  </si>
+  <si>
+    <t>09:00 - 00:00</t>
   </si>
 </sst>
 </file>
@@ -2071,12 +2092,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2198,8 +2222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W106" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W106" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W107" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="20"/>
@@ -2546,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W106"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="J49" workbookViewId="0">
+      <selection activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,13 +7710,13 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>658</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>444</v>
+        <v>659</v>
       </c>
       <c r="D73">
         <v>91207</v>
@@ -7700,17 +7724,17 @@
       <c r="E73" t="s">
         <v>418</v>
       </c>
-      <c r="F73" t="s">
-        <v>445</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s">
-        <v>446</v>
+      <c r="F73" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J73" t="s">
         <v>39</v>
@@ -7728,28 +7752,28 @@
         <v>30</v>
       </c>
       <c r="O73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P73" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="Q73" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="R73" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="S73" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="T73" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="U73" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="V73" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="W73" t="s">
         <v>27</v>
@@ -7757,13 +7781,13 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D74">
         <v>91207</v>
@@ -7772,19 +7796,19 @@
         <v>418</v>
       </c>
       <c r="F74" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G74" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K74" t="s">
         <v>47</v>
@@ -7799,28 +7823,28 @@
         <v>30</v>
       </c>
       <c r="O74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P74" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="Q74" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="R74" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="S74" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="T74" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="U74" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V74" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W74" t="s">
         <v>27</v>
@@ -7828,13 +7852,13 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D75">
         <v>91207</v>
@@ -7843,16 +7867,16 @@
         <v>418</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J75" t="s">
         <v>29</v>
@@ -7873,25 +7897,25 @@
         <v>31</v>
       </c>
       <c r="P75" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="Q75" t="s">
         <v>29</v>
       </c>
       <c r="R75" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="S75" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="T75" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="U75" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="V75" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="W75" t="s">
         <v>27</v>
@@ -7899,13 +7923,13 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D76">
         <v>91207</v>
@@ -7914,13 +7938,13 @@
         <v>418</v>
       </c>
       <c r="F76" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G76" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
@@ -7950,19 +7974,19 @@
         <v>29</v>
       </c>
       <c r="R76" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="S76" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="T76" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="U76" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="V76" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="W76" t="s">
         <v>27</v>
@@ -7970,13 +7994,13 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D77">
         <v>91207</v>
@@ -7985,19 +8009,19 @@
         <v>418</v>
       </c>
       <c r="F77" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G77" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H77" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K77" t="s">
         <v>47</v>
@@ -8018,22 +8042,22 @@
         <v>29</v>
       </c>
       <c r="Q77" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="R77" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="S77" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="T77" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="U77" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="V77" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="W77" t="s">
         <v>27</v>
@@ -8041,13 +8065,13 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s">
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D78">
         <v>91207</v>
@@ -8056,13 +8080,13 @@
         <v>418</v>
       </c>
       <c r="F78" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="H78" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -8083,28 +8107,28 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P78" t="s">
         <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="R78" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="S78" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="T78" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="U78" t="s">
-        <v>253</v>
+        <v>469</v>
       </c>
       <c r="V78" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="W78" t="s">
         <v>27</v>
@@ -8112,13 +8136,13 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s">
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8133,7 +8157,7 @@
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I79" t="s">
         <v>29</v>
@@ -8154,28 +8178,28 @@
         <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P79" t="s">
         <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="R79" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="S79" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="T79" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="U79" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>
@@ -8183,13 +8207,13 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8198,22 +8222,22 @@
         <v>418</v>
       </c>
       <c r="F80" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>639</v>
+      <c r="H80" t="s">
+        <v>475</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J80" t="s">
         <v>39</v>
       </c>
       <c r="K80" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L80" t="s">
         <v>40</v>
@@ -8228,25 +8252,25 @@
         <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="R80" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="S80" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="T80" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="U80" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="V80" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="W80" t="s">
         <v>27</v>
@@ -8254,13 +8278,13 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D81">
         <v>91207</v>
@@ -8269,13 +8293,13 @@
         <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G81" t="s">
-        <v>483</v>
-      </c>
-      <c r="H81" t="s">
-        <v>484</v>
+        <v>27</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>639</v>
       </c>
       <c r="I81" t="s">
         <v>38</v>
@@ -8284,7 +8308,7 @@
         <v>39</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L81" t="s">
         <v>40</v>
@@ -8296,28 +8320,28 @@
         <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="R81" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="S81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="V81" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="W81" t="s">
         <v>27</v>
@@ -8325,13 +8349,13 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D82">
         <v>91207</v>
@@ -8340,19 +8364,19 @@
         <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G82" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H82" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I82" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K82" t="s">
         <v>47</v>
@@ -8367,28 +8391,28 @@
         <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P82" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="Q82" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="U82" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="V82" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W82" t="s">
         <v>27</v>
@@ -8396,28 +8420,28 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D83">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E83" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="F83" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G83" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H83" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I83" t="s">
         <v>29</v>
@@ -8447,19 +8471,19 @@
         <v>29</v>
       </c>
       <c r="R83" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="U83" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="V83" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
@@ -8467,13 +8491,13 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D84">
         <v>91227</v>
@@ -8482,16 +8506,16 @@
         <v>493</v>
       </c>
       <c r="F84" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G84" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H84" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
         <v>29</v>
@@ -8512,25 +8536,25 @@
         <v>31</v>
       </c>
       <c r="P84" t="s">
-        <v>503</v>
+        <v>29</v>
       </c>
       <c r="Q84" t="s">
         <v>29</v>
       </c>
       <c r="R84" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="S84" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="T84" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="U84" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="V84" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="W84" t="s">
         <v>27</v>
@@ -8538,13 +8562,13 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D85">
         <v>91227</v>
@@ -8553,25 +8577,25 @@
         <v>493</v>
       </c>
       <c r="F85" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G85" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H85" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
         <v>47</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M85" t="s">
         <v>41</v>
@@ -8583,25 +8607,25 @@
         <v>31</v>
       </c>
       <c r="P85" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="Q85" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="R85" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S85" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="T85" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="U85" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="V85" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="W85" t="s">
         <v>27</v>
@@ -8609,37 +8633,37 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D86">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E86" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F86" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G86" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H86" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I86" t="s">
         <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -8657,22 +8681,22 @@
         <v>29</v>
       </c>
       <c r="Q86" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="R86" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="S86" t="s">
         <v>29</v>
       </c>
       <c r="T86" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="U86" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="V86" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="W86" t="s">
         <v>27</v>
@@ -8680,28 +8704,28 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B87" t="s">
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D87">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E87" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F87" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G87" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H87" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I87" t="s">
         <v>29</v>
@@ -8719,7 +8743,7 @@
         <v>41</v>
       </c>
       <c r="N87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O87" t="s">
         <v>31</v>
@@ -8737,13 +8761,13 @@
         <v>29</v>
       </c>
       <c r="T87" t="s">
-        <v>523</v>
+        <v>56</v>
       </c>
       <c r="U87" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V87" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="W87" t="s">
         <v>27</v>
@@ -8751,46 +8775,46 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D88">
-        <v>91242</v>
+        <v>91233</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F88" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="H88" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I88" t="s">
         <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M88" t="s">
         <v>41</v>
       </c>
       <c r="N88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O88" t="s">
         <v>31</v>
@@ -8799,22 +8823,22 @@
         <v>29</v>
       </c>
       <c r="Q88" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R88" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S88" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T88" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="U88" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="V88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="W88" t="s">
         <v>27</v>
@@ -8822,13 +8846,13 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D89">
         <v>91242</v>
@@ -8837,19 +8861,19 @@
         <v>527</v>
       </c>
       <c r="F89" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G89" t="s">
         <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K89" t="s">
         <v>47</v>
@@ -8867,25 +8891,25 @@
         <v>31</v>
       </c>
       <c r="P89" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R89" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="S89" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="T89" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="U89" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="V89" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="W89" t="s">
         <v>27</v>
@@ -8893,37 +8917,37 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D90">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E90" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F90" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G90" t="s">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I90" t="s">
         <v>38</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K90" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L90" t="s">
         <v>40</v>
@@ -8938,25 +8962,25 @@
         <v>31</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="Q90" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R90" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="S90" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="T90" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="U90" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="V90" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="W90" t="s">
         <v>27</v>
@@ -8964,13 +8988,13 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D91">
         <v>91287</v>
@@ -8979,28 +9003,28 @@
         <v>538</v>
       </c>
       <c r="F91" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="H91" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I91" t="s">
         <v>38</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L91" t="s">
         <v>40</v>
       </c>
       <c r="M91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N91" t="s">
         <v>30</v>
@@ -9009,25 +9033,25 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="Q91" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R91" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="S91" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="T91" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="U91" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="V91" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="W91" t="s">
         <v>27</v>
@@ -9035,13 +9059,13 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D92">
         <v>91287</v>
@@ -9050,19 +9074,19 @@
         <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G92" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K92" t="s">
         <v>47</v>
@@ -9071,7 +9095,7 @@
         <v>40</v>
       </c>
       <c r="M92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N92" t="s">
         <v>30</v>
@@ -9080,25 +9104,25 @@
         <v>31</v>
       </c>
       <c r="P92" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q92" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R92" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="S92" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="T92" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="U92" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="V92" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W92" t="s">
         <v>27</v>
@@ -9106,37 +9130,37 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D93">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E93" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F93" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G93" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H93" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I93" t="s">
         <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L93" t="s">
         <v>40</v>
@@ -9154,22 +9178,22 @@
         <v>29</v>
       </c>
       <c r="Q93" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R93" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S93" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="T93" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="U93" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="V93" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="W93" t="s">
         <v>27</v>
@@ -9177,13 +9201,13 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D94">
         <v>91224</v>
@@ -9192,25 +9216,25 @@
         <v>556</v>
       </c>
       <c r="F94" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
       <c r="H94" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I94" t="s">
         <v>29</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K94" t="s">
         <v>29</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M94" t="s">
         <v>41</v>
@@ -9225,22 +9249,22 @@
         <v>29</v>
       </c>
       <c r="Q94" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R94" t="s">
         <v>29</v>
       </c>
       <c r="S94" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T94" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="U94" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="V94" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
@@ -9248,13 +9272,13 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D95">
         <v>91224</v>
@@ -9263,13 +9287,13 @@
         <v>556</v>
       </c>
       <c r="F95" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -9278,10 +9302,10 @@
         <v>39</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L95" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
@@ -9296,22 +9320,22 @@
         <v>29</v>
       </c>
       <c r="Q95" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="R95" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="S95" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="T95" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="U95" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="V95" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="W95" t="s">
         <v>27</v>
@@ -9319,34 +9343,34 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D96">
-        <v>90552</v>
+        <v>91224</v>
       </c>
       <c r="E96" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F96" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G96" t="s">
-        <v>574</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I96" t="s">
         <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K96" t="s">
         <v>47</v>
@@ -9367,22 +9391,22 @@
         <v>29</v>
       </c>
       <c r="Q96" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="R96" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="S96" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="T96" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="U96" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="V96" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="W96" t="s">
         <v>27</v>
@@ -9390,13 +9414,13 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D97">
         <v>90552</v>
@@ -9405,13 +9429,13 @@
         <v>572</v>
       </c>
       <c r="F97" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I97" t="s">
         <v>29</v>
@@ -9441,19 +9465,19 @@
         <v>29</v>
       </c>
       <c r="R97" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S97" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="T97" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="U97" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V97" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W97" t="s">
         <v>27</v>
@@ -9461,13 +9485,13 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D98">
         <v>90552</v>
@@ -9476,22 +9500,22 @@
         <v>572</v>
       </c>
       <c r="F98" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G98" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L98" t="s">
         <v>40</v>
@@ -9506,25 +9530,25 @@
         <v>31</v>
       </c>
       <c r="P98" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q98" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R98" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S98" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="T98" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="U98" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="V98" t="s">
-        <v>586</v>
+        <v>42</v>
       </c>
       <c r="W98" t="s">
         <v>27</v>
@@ -9532,37 +9556,37 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D99">
-        <v>91245</v>
+        <v>90552</v>
       </c>
       <c r="E99" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F99" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G99" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H99" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I99" t="s">
         <v>38</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L99" t="s">
         <v>40</v>
@@ -9577,25 +9601,25 @@
         <v>31</v>
       </c>
       <c r="P99" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q99" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R99" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S99" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="T99" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="U99" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="V99" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="W99" t="s">
         <v>27</v>
@@ -9603,13 +9627,13 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D100">
         <v>91245</v>
@@ -9618,16 +9642,16 @@
         <v>589</v>
       </c>
       <c r="F100" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H100" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J100" t="s">
         <v>29</v>
@@ -9648,25 +9672,25 @@
         <v>31</v>
       </c>
       <c r="P100" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q100" t="s">
         <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S100" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="T100" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U100" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="V100" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W100" t="s">
         <v>27</v>
@@ -9674,13 +9698,13 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D101">
         <v>91245</v>
@@ -9688,14 +9712,14 @@
       <c r="E101" t="s">
         <v>589</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>650</v>
+      <c r="F101" t="s">
+        <v>598</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>599</v>
       </c>
       <c r="I101" t="s">
         <v>29</v>
@@ -9725,19 +9749,19 @@
         <v>29</v>
       </c>
       <c r="R101" t="s">
-        <v>652</v>
+        <v>71</v>
       </c>
       <c r="S101" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="T101" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="U101" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="V101" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
@@ -9745,28 +9769,28 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D102">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E102" t="s">
-        <v>603</v>
-      </c>
-      <c r="F102" t="s">
-        <v>604</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s">
-        <v>605</v>
+        <v>589</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="I102" t="s">
         <v>29</v>
@@ -9775,13 +9799,13 @@
         <v>29</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M102" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N102" t="s">
         <v>30</v>
@@ -9796,19 +9820,19 @@
         <v>29</v>
       </c>
       <c r="R102" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="S102" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T102" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U102" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V102" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W102" t="s">
         <v>27</v>
@@ -9816,13 +9840,13 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D103">
         <v>91247</v>
@@ -9831,28 +9855,28 @@
         <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G103" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H103" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I103" t="s">
         <v>29</v>
       </c>
       <c r="J103" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K103" t="s">
         <v>29</v>
       </c>
       <c r="L103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M103" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N103" t="s">
         <v>30</v>
@@ -9864,22 +9888,22 @@
         <v>29</v>
       </c>
       <c r="Q103" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R103" t="s">
         <v>29</v>
       </c>
       <c r="S103" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T103" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U103" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V103" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W103" t="s">
         <v>27</v>
@@ -9887,13 +9911,13 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D104">
         <v>91247</v>
@@ -9902,25 +9926,25 @@
         <v>603</v>
       </c>
       <c r="F104" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G104" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H104" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I104" t="s">
         <v>29</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K104" t="s">
         <v>29</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M104" t="s">
         <v>41</v>
@@ -9935,22 +9959,22 @@
         <v>29</v>
       </c>
       <c r="Q104" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R104" t="s">
         <v>29</v>
       </c>
       <c r="S104" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T104" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U104" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V104" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W104" t="s">
         <v>27</v>
@@ -9958,28 +9982,28 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D105">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E105" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F105" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G105" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H105" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I105" t="s">
         <v>29</v>
@@ -9991,7 +10015,7 @@
         <v>29</v>
       </c>
       <c r="L105" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M105" t="s">
         <v>41</v>
@@ -10012,16 +10036,16 @@
         <v>29</v>
       </c>
       <c r="S105" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T105" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U105" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V105" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W105" t="s">
         <v>27</v>
@@ -10029,13 +10053,13 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D106">
         <v>91367</v>
@@ -10044,22 +10068,22 @@
         <v>620</v>
       </c>
       <c r="F106" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G106" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H106" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L106" t="s">
         <v>40</v>
@@ -10071,30 +10095,101 @@
         <v>30</v>
       </c>
       <c r="O106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P106" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>29</v>
+      </c>
+      <c r="R106" t="s">
+        <v>29</v>
+      </c>
+      <c r="S106" t="s">
+        <v>71</v>
+      </c>
+      <c r="T106" t="s">
+        <v>72</v>
+      </c>
+      <c r="U106" t="s">
+        <v>72</v>
+      </c>
+      <c r="V106" t="s">
+        <v>72</v>
+      </c>
+      <c r="W106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>624</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107">
+        <v>91367</v>
+      </c>
+      <c r="E107" t="s">
+        <v>620</v>
+      </c>
+      <c r="F107" t="s">
+        <v>626</v>
+      </c>
+      <c r="G107" t="s">
+        <v>627</v>
+      </c>
+      <c r="H107" t="s">
+        <v>628</v>
+      </c>
+      <c r="I107" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" t="s">
+        <v>47</v>
+      </c>
+      <c r="L107" t="s">
+        <v>40</v>
+      </c>
+      <c r="M107" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" t="s">
+        <v>30</v>
+      </c>
+      <c r="O107" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" t="s">
         <v>629</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="Q107" t="s">
         <v>629</v>
       </c>
-      <c r="R106" t="s">
+      <c r="R107" t="s">
         <v>629</v>
       </c>
-      <c r="S106" t="s">
+      <c r="S107" t="s">
         <v>629</v>
       </c>
-      <c r="T106" t="s">
+      <c r="T107" t="s">
         <v>629</v>
       </c>
-      <c r="U106" t="s">
+      <c r="U107" t="s">
         <v>630</v>
       </c>
-      <c r="V106" t="s">
-        <v>29</v>
-      </c>
-      <c r="W106" t="s">
+      <c r="V107" t="s">
+        <v>29</v>
+      </c>
+      <c r="W107" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10102,16 +10197,18 @@
   <hyperlinks>
     <hyperlink ref="H58" r:id="rId1" xr:uid="{3518E2E3-45F1-448A-93F8-FA096D84A577}"/>
     <hyperlink ref="G58" r:id="rId2" xr:uid="{7220F707-B88F-4FDE-AEBA-ED4F716E05CE}"/>
-    <hyperlink ref="H80" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
+    <hyperlink ref="H81" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
     <hyperlink ref="G68" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
     <hyperlink ref="H68" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
-    <hyperlink ref="H101" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
-    <hyperlink ref="G101" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
+    <hyperlink ref="H102" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
+    <hyperlink ref="G102" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
     <hyperlink ref="H66" r:id="rId8" xr:uid="{811F14D2-8625-407A-A363-4868792D85E3}"/>
+    <hyperlink ref="G73" r:id="rId9" xr:uid="{91676D4A-98DC-43A6-8746-157BFB405308}"/>
+    <hyperlink ref="H73" r:id="rId10" xr:uid="{03594D0E-5B3F-4FCC-9030-CF67D477ED14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F7397-9C24-4531-A9A8-8DA728C0DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578AE34-1123-43CC-9D2B-5A4FF8251A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$107</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="672">
   <si>
     <t>Name</t>
   </si>
@@ -2043,6 +2043,27 @@
   </si>
   <si>
     <t>09:00 - 00:00</t>
+  </si>
+  <si>
+    <t>Schlosskeller</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Bergstr. 2</t>
+  </si>
+  <si>
+    <t>+499123966635</t>
+  </si>
+  <si>
+    <t>www.schlosskeller-lauf.de</t>
+  </si>
+  <si>
+    <t>18:00 - 01:00</t>
+  </si>
+  <si>
+    <t>18:00 - 03:00</t>
   </si>
 </sst>
 </file>
@@ -2222,8 +2243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W107" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W108" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W108" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="20"/>
@@ -2570,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J49" workbookViewId="0">
-      <selection activeCell="X69" sqref="X69"/>
+    <sheetView tabSelected="1" topLeftCell="I64" workbookViewId="0">
+      <selection activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8136,13 +8157,13 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>470</v>
+        <v>665</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>666</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>667</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8150,23 +8171,23 @@
       <c r="E79" t="s">
         <v>418</v>
       </c>
-      <c r="F79" t="s">
-        <v>445</v>
+      <c r="F79" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
-      <c r="H79" t="s">
-        <v>472</v>
+      <c r="H79" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="I79" t="s">
         <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L79" t="s">
         <v>40</v>
@@ -8178,28 +8199,28 @@
         <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P79" t="s">
         <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="R79" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="S79" t="s">
-        <v>232</v>
+        <v>670</v>
       </c>
       <c r="T79" t="s">
-        <v>232</v>
+        <v>671</v>
       </c>
       <c r="U79" t="s">
-        <v>253</v>
+        <v>671</v>
       </c>
       <c r="V79" t="s">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>
@@ -8207,13 +8228,13 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8228,7 +8249,7 @@
         <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I80" t="s">
         <v>29</v>
@@ -8249,28 +8270,28 @@
         <v>30</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P80" t="s">
         <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="R80" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="S80" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="T80" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="U80" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V80" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W80" t="s">
         <v>27</v>
@@ -8278,13 +8299,13 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s">
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D81">
         <v>91207</v>
@@ -8293,22 +8314,22 @@
         <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>639</v>
+      <c r="H81" t="s">
+        <v>475</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J81" t="s">
         <v>39</v>
       </c>
       <c r="K81" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L81" t="s">
         <v>40</v>
@@ -8323,25 +8344,25 @@
         <v>31</v>
       </c>
       <c r="P81" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="Q81" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="R81" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="S81" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="T81" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="W81" t="s">
         <v>27</v>
@@ -8349,13 +8370,13 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D82">
         <v>91207</v>
@@ -8364,13 +8385,13 @@
         <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G82" t="s">
-        <v>483</v>
-      </c>
-      <c r="H82" t="s">
-        <v>484</v>
+        <v>27</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>639</v>
       </c>
       <c r="I82" t="s">
         <v>38</v>
@@ -8379,7 +8400,7 @@
         <v>39</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L82" t="s">
         <v>40</v>
@@ -8391,28 +8412,28 @@
         <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="R82" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="S82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="V82" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="W82" t="s">
         <v>27</v>
@@ -8420,13 +8441,13 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D83">
         <v>91207</v>
@@ -8435,19 +8456,19 @@
         <v>418</v>
       </c>
       <c r="F83" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G83" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H83" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
         <v>47</v>
@@ -8462,28 +8483,28 @@
         <v>30</v>
       </c>
       <c r="O83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P83" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="Q83" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="U83" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="V83" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
@@ -8491,28 +8512,28 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D84">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E84" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="F84" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G84" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H84" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I84" t="s">
         <v>29</v>
@@ -8542,19 +8563,19 @@
         <v>29</v>
       </c>
       <c r="R84" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="U84" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="V84" t="s">
-        <v>497</v>
+        <v>57</v>
       </c>
       <c r="W84" t="s">
         <v>27</v>
@@ -8562,13 +8583,13 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D85">
         <v>91227</v>
@@ -8577,16 +8598,16 @@
         <v>493</v>
       </c>
       <c r="F85" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G85" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H85" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J85" t="s">
         <v>29</v>
@@ -8607,25 +8628,25 @@
         <v>31</v>
       </c>
       <c r="P85" t="s">
-        <v>503</v>
+        <v>29</v>
       </c>
       <c r="Q85" t="s">
         <v>29</v>
       </c>
       <c r="R85" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="S85" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="T85" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="U85" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="V85" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="W85" t="s">
         <v>27</v>
@@ -8633,13 +8654,13 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D86">
         <v>91227</v>
@@ -8648,25 +8669,25 @@
         <v>493</v>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G86" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H86" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K86" t="s">
         <v>47</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M86" t="s">
         <v>41</v>
@@ -8678,25 +8699,25 @@
         <v>31</v>
       </c>
       <c r="P86" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="Q86" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="R86" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S86" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="T86" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="U86" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="V86" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="W86" t="s">
         <v>27</v>
@@ -8704,37 +8725,37 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s">
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D87">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E87" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F87" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G87" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H87" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I87" t="s">
         <v>29</v>
       </c>
       <c r="J87" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K87" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
@@ -8752,22 +8773,22 @@
         <v>29</v>
       </c>
       <c r="Q87" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="R87" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="S87" t="s">
         <v>29</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="U87" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="V87" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="W87" t="s">
         <v>27</v>
@@ -8775,28 +8796,28 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D88">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E88" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F88" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G88" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H88" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I88" t="s">
         <v>29</v>
@@ -8814,7 +8835,7 @@
         <v>41</v>
       </c>
       <c r="N88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O88" t="s">
         <v>31</v>
@@ -8832,13 +8853,13 @@
         <v>29</v>
       </c>
       <c r="T88" t="s">
-        <v>523</v>
+        <v>56</v>
       </c>
       <c r="U88" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V88" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="W88" t="s">
         <v>27</v>
@@ -8846,46 +8867,46 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D89">
-        <v>91242</v>
+        <v>91233</v>
       </c>
       <c r="E89" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F89" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="H89" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I89" t="s">
         <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M89" t="s">
         <v>41</v>
       </c>
       <c r="N89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O89" t="s">
         <v>31</v>
@@ -8894,22 +8915,22 @@
         <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R89" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S89" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T89" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="U89" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="V89" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="W89" t="s">
         <v>27</v>
@@ -8917,13 +8938,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D90">
         <v>91242</v>
@@ -8932,19 +8953,19 @@
         <v>527</v>
       </c>
       <c r="F90" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G90" t="s">
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s">
         <v>47</v>
@@ -8962,25 +8983,25 @@
         <v>31</v>
       </c>
       <c r="P90" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="Q90" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R90" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="S90" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="T90" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="U90" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="V90" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="W90" t="s">
         <v>27</v>
@@ -8988,37 +9009,37 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D91">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E91" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F91" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G91" t="s">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I91" t="s">
         <v>38</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L91" t="s">
         <v>40</v>
@@ -9033,25 +9054,25 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="Q91" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R91" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="S91" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="T91" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="U91" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="V91" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="W91" t="s">
         <v>27</v>
@@ -9059,13 +9080,13 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D92">
         <v>91287</v>
@@ -9074,28 +9095,28 @@
         <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="H92" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L92" t="s">
         <v>40</v>
       </c>
       <c r="M92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N92" t="s">
         <v>30</v>
@@ -9104,25 +9125,25 @@
         <v>31</v>
       </c>
       <c r="P92" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="Q92" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R92" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="S92" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="T92" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="U92" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="V92" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="W92" t="s">
         <v>27</v>
@@ -9130,13 +9151,13 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D93">
         <v>91287</v>
@@ -9145,19 +9166,19 @@
         <v>538</v>
       </c>
       <c r="F93" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G93" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="H93" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
         <v>47</v>
@@ -9166,7 +9187,7 @@
         <v>40</v>
       </c>
       <c r="M93" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N93" t="s">
         <v>30</v>
@@ -9175,25 +9196,25 @@
         <v>31</v>
       </c>
       <c r="P93" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q93" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R93" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="S93" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="T93" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="U93" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="V93" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W93" t="s">
         <v>27</v>
@@ -9201,37 +9222,37 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D94">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F94" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G94" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I94" t="s">
         <v>29</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L94" t="s">
         <v>40</v>
@@ -9249,22 +9270,22 @@
         <v>29</v>
       </c>
       <c r="Q94" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R94" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S94" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="T94" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="U94" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="V94" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
@@ -9272,13 +9293,13 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D95">
         <v>91224</v>
@@ -9287,25 +9308,25 @@
         <v>556</v>
       </c>
       <c r="F95" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G95" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
       <c r="H95" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
         <v>29</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
@@ -9320,22 +9341,22 @@
         <v>29</v>
       </c>
       <c r="Q95" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R95" t="s">
         <v>29</v>
       </c>
       <c r="S95" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T95" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="U95" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="V95" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="W95" t="s">
         <v>27</v>
@@ -9343,13 +9364,13 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D96">
         <v>91224</v>
@@ -9358,13 +9379,13 @@
         <v>556</v>
       </c>
       <c r="F96" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G96" t="s">
         <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I96" t="s">
         <v>29</v>
@@ -9373,10 +9394,10 @@
         <v>39</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L96" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -9391,22 +9412,22 @@
         <v>29</v>
       </c>
       <c r="Q96" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="R96" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="S96" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="T96" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="U96" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="V96" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="W96" t="s">
         <v>27</v>
@@ -9414,34 +9435,34 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D97">
-        <v>90552</v>
+        <v>91224</v>
       </c>
       <c r="E97" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F97" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G97" t="s">
-        <v>574</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I97" t="s">
         <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K97" t="s">
         <v>47</v>
@@ -9462,22 +9483,22 @@
         <v>29</v>
       </c>
       <c r="Q97" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="R97" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="S97" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="T97" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="U97" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="V97" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="W97" t="s">
         <v>27</v>
@@ -9485,13 +9506,13 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D98">
         <v>90552</v>
@@ -9500,13 +9521,13 @@
         <v>572</v>
       </c>
       <c r="F98" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G98" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I98" t="s">
         <v>29</v>
@@ -9536,19 +9557,19 @@
         <v>29</v>
       </c>
       <c r="R98" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S98" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="T98" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="U98" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V98" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W98" t="s">
         <v>27</v>
@@ -9556,13 +9577,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D99">
         <v>90552</v>
@@ -9571,22 +9592,22 @@
         <v>572</v>
       </c>
       <c r="F99" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G99" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L99" t="s">
         <v>40</v>
@@ -9601,25 +9622,25 @@
         <v>31</v>
       </c>
       <c r="P99" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q99" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R99" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S99" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="T99" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="U99" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="V99" t="s">
-        <v>586</v>
+        <v>42</v>
       </c>
       <c r="W99" t="s">
         <v>27</v>
@@ -9627,37 +9648,37 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D100">
-        <v>91245</v>
+        <v>90552</v>
       </c>
       <c r="E100" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F100" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G100" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H100" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I100" t="s">
         <v>38</v>
       </c>
       <c r="J100" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L100" t="s">
         <v>40</v>
@@ -9672,25 +9693,25 @@
         <v>31</v>
       </c>
       <c r="P100" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q100" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R100" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S100" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="T100" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="U100" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="V100" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="W100" t="s">
         <v>27</v>
@@ -9698,13 +9719,13 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D101">
         <v>91245</v>
@@ -9713,16 +9734,16 @@
         <v>589</v>
       </c>
       <c r="F101" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H101" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J101" t="s">
         <v>29</v>
@@ -9743,25 +9764,25 @@
         <v>31</v>
       </c>
       <c r="P101" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q101" t="s">
         <v>29</v>
       </c>
       <c r="R101" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S101" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="T101" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U101" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="V101" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
@@ -9769,13 +9790,13 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D102">
         <v>91245</v>
@@ -9783,14 +9804,14 @@
       <c r="E102" t="s">
         <v>589</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>650</v>
+      <c r="F102" t="s">
+        <v>598</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>599</v>
       </c>
       <c r="I102" t="s">
         <v>29</v>
@@ -9820,19 +9841,19 @@
         <v>29</v>
       </c>
       <c r="R102" t="s">
-        <v>652</v>
+        <v>71</v>
       </c>
       <c r="S102" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="T102" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="U102" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="V102" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="W102" t="s">
         <v>27</v>
@@ -9840,28 +9861,28 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D103">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
-      </c>
-      <c r="F103" t="s">
-        <v>604</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s">
-        <v>605</v>
+        <v>589</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="I103" t="s">
         <v>29</v>
@@ -9870,13 +9891,13 @@
         <v>29</v>
       </c>
       <c r="K103" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M103" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N103" t="s">
         <v>30</v>
@@ -9891,19 +9912,19 @@
         <v>29</v>
       </c>
       <c r="R103" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="S103" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T103" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U103" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V103" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W103" t="s">
         <v>27</v>
@@ -9911,13 +9932,13 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D104">
         <v>91247</v>
@@ -9926,28 +9947,28 @@
         <v>603</v>
       </c>
       <c r="F104" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G104" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I104" t="s">
         <v>29</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K104" t="s">
         <v>29</v>
       </c>
       <c r="L104" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N104" t="s">
         <v>30</v>
@@ -9959,22 +9980,22 @@
         <v>29</v>
       </c>
       <c r="Q104" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R104" t="s">
         <v>29</v>
       </c>
       <c r="S104" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T104" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U104" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V104" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W104" t="s">
         <v>27</v>
@@ -9982,13 +10003,13 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D105">
         <v>91247</v>
@@ -9997,25 +10018,25 @@
         <v>603</v>
       </c>
       <c r="F105" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G105" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H105" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I105" t="s">
         <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K105" t="s">
         <v>29</v>
       </c>
       <c r="L105" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M105" t="s">
         <v>41</v>
@@ -10030,22 +10051,22 @@
         <v>29</v>
       </c>
       <c r="Q105" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R105" t="s">
         <v>29</v>
       </c>
       <c r="S105" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T105" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U105" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V105" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W105" t="s">
         <v>27</v>
@@ -10053,28 +10074,28 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D106">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E106" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F106" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G106" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H106" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I106" t="s">
         <v>29</v>
@@ -10086,7 +10107,7 @@
         <v>29</v>
       </c>
       <c r="L106" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M106" t="s">
         <v>41</v>
@@ -10107,16 +10128,16 @@
         <v>29</v>
       </c>
       <c r="S106" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T106" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U106" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V106" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W106" t="s">
         <v>27</v>
@@ -10124,13 +10145,13 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D107">
         <v>91367</v>
@@ -10139,22 +10160,22 @@
         <v>620</v>
       </c>
       <c r="F107" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G107" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H107" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K107" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L107" t="s">
         <v>40</v>
@@ -10166,30 +10187,101 @@
         <v>30</v>
       </c>
       <c r="O107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P107" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>29</v>
+      </c>
+      <c r="R107" t="s">
+        <v>29</v>
+      </c>
+      <c r="S107" t="s">
+        <v>71</v>
+      </c>
+      <c r="T107" t="s">
+        <v>72</v>
+      </c>
+      <c r="U107" t="s">
+        <v>72</v>
+      </c>
+      <c r="V107" t="s">
+        <v>72</v>
+      </c>
+      <c r="W107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>624</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s">
+        <v>625</v>
+      </c>
+      <c r="D108">
+        <v>91367</v>
+      </c>
+      <c r="E108" t="s">
+        <v>620</v>
+      </c>
+      <c r="F108" t="s">
+        <v>626</v>
+      </c>
+      <c r="G108" t="s">
+        <v>627</v>
+      </c>
+      <c r="H108" t="s">
+        <v>628</v>
+      </c>
+      <c r="I108" t="s">
+        <v>38</v>
+      </c>
+      <c r="J108" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" t="s">
+        <v>47</v>
+      </c>
+      <c r="L108" t="s">
+        <v>40</v>
+      </c>
+      <c r="M108" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" t="s">
+        <v>30</v>
+      </c>
+      <c r="O108" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" t="s">
         <v>629</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q108" t="s">
         <v>629</v>
       </c>
-      <c r="R107" t="s">
+      <c r="R108" t="s">
         <v>629</v>
       </c>
-      <c r="S107" t="s">
+      <c r="S108" t="s">
         <v>629</v>
       </c>
-      <c r="T107" t="s">
+      <c r="T108" t="s">
         <v>629</v>
       </c>
-      <c r="U107" t="s">
+      <c r="U108" t="s">
         <v>630</v>
       </c>
-      <c r="V107" t="s">
-        <v>29</v>
-      </c>
-      <c r="W107" t="s">
+      <c r="V108" t="s">
+        <v>29</v>
+      </c>
+      <c r="W108" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10197,18 +10289,19 @@
   <hyperlinks>
     <hyperlink ref="H58" r:id="rId1" xr:uid="{3518E2E3-45F1-448A-93F8-FA096D84A577}"/>
     <hyperlink ref="G58" r:id="rId2" xr:uid="{7220F707-B88F-4FDE-AEBA-ED4F716E05CE}"/>
-    <hyperlink ref="H81" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
+    <hyperlink ref="H82" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
     <hyperlink ref="G68" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
     <hyperlink ref="H68" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
-    <hyperlink ref="H102" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
-    <hyperlink ref="G102" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
+    <hyperlink ref="H103" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
+    <hyperlink ref="G103" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
     <hyperlink ref="H66" r:id="rId8" xr:uid="{811F14D2-8625-407A-A363-4868792D85E3}"/>
     <hyperlink ref="G73" r:id="rId9" xr:uid="{91676D4A-98DC-43A6-8746-157BFB405308}"/>
     <hyperlink ref="H73" r:id="rId10" xr:uid="{03594D0E-5B3F-4FCC-9030-CF67D477ED14}"/>
+    <hyperlink ref="H79" r:id="rId11" xr:uid="{9348353F-C4D8-4830-99C4-699BA05B7D2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578AE34-1123-43CC-9D2B-5A4FF8251A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B75CF-7387-4648-929D-DE0B1A2DF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -2057,13 +2057,13 @@
     <t>+499123966635</t>
   </si>
   <si>
-    <t>www.schlosskeller-lauf.de</t>
-  </si>
-  <si>
     <t>18:00 - 01:00</t>
   </si>
   <si>
     <t>18:00 - 03:00</t>
+  </si>
+  <si>
+    <t>http://www.schlosskeller-lauf.de</t>
   </si>
 </sst>
 </file>
@@ -2593,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I64" workbookViewId="0">
-      <selection activeCell="T79" sqref="T79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8178,7 +8178,7 @@
         <v>27</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I79" t="s">
         <v>29</v>
@@ -8211,16 +8211,16 @@
         <v>29</v>
       </c>
       <c r="S79" t="s">
+        <v>669</v>
+      </c>
+      <c r="T79" t="s">
         <v>670</v>
       </c>
-      <c r="T79" t="s">
-        <v>671</v>
-      </c>
       <c r="U79" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="V79" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B75CF-7387-4648-929D-DE0B1A2DF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1269C-FD33-4281-B934-E851A4D8501C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$108</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="677">
   <si>
     <t>Name</t>
   </si>
@@ -2064,6 +2064,21 @@
   </si>
   <si>
     <t>http://www.schlosskeller-lauf.de</t>
+  </si>
+  <si>
+    <t>Rhodos</t>
+  </si>
+  <si>
+    <t>+4991204719922</t>
+  </si>
+  <si>
+    <t>https://rhodos-leinburg.de/</t>
+  </si>
+  <si>
+    <t>17:00 - 23:30</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00 &amp; 17:00 - 23:30</t>
   </si>
 </sst>
 </file>
@@ -2243,8 +2258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W108" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W108" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W109" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W109" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{86208C35-2046-4F53-B583-F5FD55ED84C8}" uniqueName="2" name="Typ" queryTableFieldId="2" dataDxfId="20"/>
@@ -2591,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="J64" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8796,40 +8811,37 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>511</v>
+        <v>672</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="D88">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E88" t="s">
-        <v>513</v>
-      </c>
-      <c r="F88" t="s">
-        <v>514</v>
-      </c>
-      <c r="G88" t="s">
-        <v>515</v>
-      </c>
-      <c r="H88" t="s">
-        <v>516</v>
+        <v>493</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J88" t="s">
         <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M88" t="s">
         <v>41</v>
@@ -8841,25 +8853,25 @@
         <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>29</v>
+        <v>675</v>
       </c>
       <c r="Q88" t="s">
         <v>29</v>
       </c>
       <c r="R88" t="s">
-        <v>29</v>
+        <v>675</v>
       </c>
       <c r="S88" t="s">
-        <v>29</v>
+        <v>675</v>
       </c>
       <c r="T88" t="s">
-        <v>56</v>
+        <v>675</v>
       </c>
       <c r="U88" t="s">
-        <v>163</v>
+        <v>675</v>
       </c>
       <c r="V88" t="s">
-        <v>163</v>
+        <v>676</v>
       </c>
       <c r="W88" t="s">
         <v>27</v>
@@ -8867,28 +8879,28 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D89">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E89" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F89" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G89" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H89" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I89" t="s">
         <v>29</v>
@@ -8906,7 +8918,7 @@
         <v>41</v>
       </c>
       <c r="N89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O89" t="s">
         <v>31</v>
@@ -8924,13 +8936,13 @@
         <v>29</v>
       </c>
       <c r="T89" t="s">
-        <v>523</v>
+        <v>56</v>
       </c>
       <c r="U89" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V89" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="W89" t="s">
         <v>27</v>
@@ -8938,46 +8950,46 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D90">
-        <v>91242</v>
+        <v>91233</v>
       </c>
       <c r="E90" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F90" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="H90" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I90" t="s">
         <v>29</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M90" t="s">
         <v>41</v>
       </c>
       <c r="N90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O90" t="s">
         <v>31</v>
@@ -8986,22 +8998,22 @@
         <v>29</v>
       </c>
       <c r="Q90" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R90" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S90" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T90" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="U90" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="V90" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="W90" t="s">
         <v>27</v>
@@ -9009,13 +9021,13 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D91">
         <v>91242</v>
@@ -9024,19 +9036,19 @@
         <v>527</v>
       </c>
       <c r="F91" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G91" t="s">
         <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K91" t="s">
         <v>47</v>
@@ -9054,25 +9066,25 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="Q91" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R91" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="S91" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="T91" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="U91" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="V91" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="W91" t="s">
         <v>27</v>
@@ -9080,37 +9092,37 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D92">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E92" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F92" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G92" t="s">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L92" t="s">
         <v>40</v>
@@ -9125,25 +9137,25 @@
         <v>31</v>
       </c>
       <c r="P92" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="Q92" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R92" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="S92" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="T92" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="U92" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="V92" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="W92" t="s">
         <v>27</v>
@@ -9151,13 +9163,13 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D93">
         <v>91287</v>
@@ -9166,28 +9178,28 @@
         <v>538</v>
       </c>
       <c r="F93" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G93" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="H93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I93" t="s">
         <v>38</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L93" t="s">
         <v>40</v>
       </c>
       <c r="M93" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N93" t="s">
         <v>30</v>
@@ -9196,25 +9208,25 @@
         <v>31</v>
       </c>
       <c r="P93" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="Q93" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R93" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="S93" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="T93" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="U93" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="V93" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="W93" t="s">
         <v>27</v>
@@ -9222,13 +9234,13 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D94">
         <v>91287</v>
@@ -9237,19 +9249,19 @@
         <v>538</v>
       </c>
       <c r="F94" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G94" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I94" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K94" t="s">
         <v>47</v>
@@ -9258,7 +9270,7 @@
         <v>40</v>
       </c>
       <c r="M94" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N94" t="s">
         <v>30</v>
@@ -9267,25 +9279,25 @@
         <v>31</v>
       </c>
       <c r="P94" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q94" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R94" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="S94" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="T94" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="U94" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="V94" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
@@ -9293,37 +9305,37 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D95">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E95" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F95" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G95" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H95" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L95" t="s">
         <v>40</v>
@@ -9341,22 +9353,22 @@
         <v>29</v>
       </c>
       <c r="Q95" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R95" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S95" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="T95" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="U95" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="V95" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="W95" t="s">
         <v>27</v>
@@ -9364,13 +9376,13 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D96">
         <v>91224</v>
@@ -9379,25 +9391,25 @@
         <v>556</v>
       </c>
       <c r="F96" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
       <c r="H96" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I96" t="s">
         <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
         <v>29</v>
       </c>
       <c r="L96" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -9412,22 +9424,22 @@
         <v>29</v>
       </c>
       <c r="Q96" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R96" t="s">
         <v>29</v>
       </c>
       <c r="S96" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T96" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="U96" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="V96" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="W96" t="s">
         <v>27</v>
@@ -9435,13 +9447,13 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D97">
         <v>91224</v>
@@ -9450,13 +9462,13 @@
         <v>556</v>
       </c>
       <c r="F97" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I97" t="s">
         <v>29</v>
@@ -9465,10 +9477,10 @@
         <v>39</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L97" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M97" t="s">
         <v>41</v>
@@ -9483,22 +9495,22 @@
         <v>29</v>
       </c>
       <c r="Q97" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="R97" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="S97" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="T97" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="U97" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="V97" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="W97" t="s">
         <v>27</v>
@@ -9506,34 +9518,34 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D98">
-        <v>90552</v>
+        <v>91224</v>
       </c>
       <c r="E98" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F98" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G98" t="s">
-        <v>574</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I98" t="s">
         <v>29</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K98" t="s">
         <v>47</v>
@@ -9554,22 +9566,22 @@
         <v>29</v>
       </c>
       <c r="Q98" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="R98" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="S98" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="T98" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="U98" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="V98" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="W98" t="s">
         <v>27</v>
@@ -9577,13 +9589,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D99">
         <v>90552</v>
@@ -9592,13 +9604,13 @@
         <v>572</v>
       </c>
       <c r="F99" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G99" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I99" t="s">
         <v>29</v>
@@ -9628,19 +9640,19 @@
         <v>29</v>
       </c>
       <c r="R99" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S99" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="T99" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="U99" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V99" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W99" t="s">
         <v>27</v>
@@ -9648,13 +9660,13 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D100">
         <v>90552</v>
@@ -9663,22 +9675,22 @@
         <v>572</v>
       </c>
       <c r="F100" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G100" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L100" t="s">
         <v>40</v>
@@ -9693,25 +9705,25 @@
         <v>31</v>
       </c>
       <c r="P100" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q100" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S100" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="T100" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="U100" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="V100" t="s">
-        <v>586</v>
+        <v>42</v>
       </c>
       <c r="W100" t="s">
         <v>27</v>
@@ -9719,37 +9731,37 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D101">
-        <v>91245</v>
+        <v>90552</v>
       </c>
       <c r="E101" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F101" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G101" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H101" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I101" t="s">
         <v>38</v>
       </c>
       <c r="J101" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L101" t="s">
         <v>40</v>
@@ -9764,25 +9776,25 @@
         <v>31</v>
       </c>
       <c r="P101" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q101" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S101" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="T101" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="U101" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="V101" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
@@ -9790,13 +9802,13 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D102">
         <v>91245</v>
@@ -9805,16 +9817,16 @@
         <v>589</v>
       </c>
       <c r="F102" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G102" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H102" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J102" t="s">
         <v>29</v>
@@ -9835,25 +9847,25 @@
         <v>31</v>
       </c>
       <c r="P102" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q102" t="s">
         <v>29</v>
       </c>
       <c r="R102" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S102" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="T102" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U102" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="V102" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W102" t="s">
         <v>27</v>
@@ -9861,13 +9873,13 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D103">
         <v>91245</v>
@@ -9875,14 +9887,14 @@
       <c r="E103" t="s">
         <v>589</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>650</v>
+      <c r="F103" t="s">
+        <v>598</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>599</v>
       </c>
       <c r="I103" t="s">
         <v>29</v>
@@ -9912,19 +9924,19 @@
         <v>29</v>
       </c>
       <c r="R103" t="s">
-        <v>652</v>
+        <v>71</v>
       </c>
       <c r="S103" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="T103" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="U103" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="V103" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="W103" t="s">
         <v>27</v>
@@ -9932,28 +9944,28 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D104">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E104" t="s">
-        <v>603</v>
-      </c>
-      <c r="F104" t="s">
-        <v>604</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s">
-        <v>605</v>
+        <v>589</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="I104" t="s">
         <v>29</v>
@@ -9962,13 +9974,13 @@
         <v>29</v>
       </c>
       <c r="K104" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M104" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N104" t="s">
         <v>30</v>
@@ -9983,19 +9995,19 @@
         <v>29</v>
       </c>
       <c r="R104" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="S104" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T104" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U104" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V104" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W104" t="s">
         <v>27</v>
@@ -10003,13 +10015,13 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D105">
         <v>91247</v>
@@ -10018,28 +10030,28 @@
         <v>603</v>
       </c>
       <c r="F105" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G105" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H105" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I105" t="s">
         <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K105" t="s">
         <v>29</v>
       </c>
       <c r="L105" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M105" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N105" t="s">
         <v>30</v>
@@ -10051,22 +10063,22 @@
         <v>29</v>
       </c>
       <c r="Q105" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R105" t="s">
         <v>29</v>
       </c>
       <c r="S105" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T105" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U105" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V105" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W105" t="s">
         <v>27</v>
@@ -10074,13 +10086,13 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D106">
         <v>91247</v>
@@ -10089,25 +10101,25 @@
         <v>603</v>
       </c>
       <c r="F106" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G106" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H106" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I106" t="s">
         <v>29</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K106" t="s">
         <v>29</v>
       </c>
       <c r="L106" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M106" t="s">
         <v>41</v>
@@ -10122,22 +10134,22 @@
         <v>29</v>
       </c>
       <c r="Q106" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R106" t="s">
         <v>29</v>
       </c>
       <c r="S106" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T106" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U106" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V106" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W106" t="s">
         <v>27</v>
@@ -10145,28 +10157,28 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D107">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E107" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F107" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G107" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H107" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I107" t="s">
         <v>29</v>
@@ -10178,7 +10190,7 @@
         <v>29</v>
       </c>
       <c r="L107" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M107" t="s">
         <v>41</v>
@@ -10199,16 +10211,16 @@
         <v>29</v>
       </c>
       <c r="S107" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T107" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U107" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V107" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W107" t="s">
         <v>27</v>
@@ -10216,13 +10228,13 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D108">
         <v>91367</v>
@@ -10231,22 +10243,22 @@
         <v>620</v>
       </c>
       <c r="F108" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G108" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H108" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L108" t="s">
         <v>40</v>
@@ -10258,30 +10270,101 @@
         <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P108" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>29</v>
+      </c>
+      <c r="R108" t="s">
+        <v>29</v>
+      </c>
+      <c r="S108" t="s">
+        <v>71</v>
+      </c>
+      <c r="T108" t="s">
+        <v>72</v>
+      </c>
+      <c r="U108" t="s">
+        <v>72</v>
+      </c>
+      <c r="V108" t="s">
+        <v>72</v>
+      </c>
+      <c r="W108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>624</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>625</v>
+      </c>
+      <c r="D109">
+        <v>91367</v>
+      </c>
+      <c r="E109" t="s">
+        <v>620</v>
+      </c>
+      <c r="F109" t="s">
+        <v>626</v>
+      </c>
+      <c r="G109" t="s">
+        <v>627</v>
+      </c>
+      <c r="H109" t="s">
+        <v>628</v>
+      </c>
+      <c r="I109" t="s">
+        <v>38</v>
+      </c>
+      <c r="J109" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" t="s">
+        <v>47</v>
+      </c>
+      <c r="L109" t="s">
+        <v>40</v>
+      </c>
+      <c r="M109" t="s">
+        <v>41</v>
+      </c>
+      <c r="N109" t="s">
+        <v>30</v>
+      </c>
+      <c r="O109" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" t="s">
         <v>629</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="Q109" t="s">
         <v>629</v>
       </c>
-      <c r="R108" t="s">
+      <c r="R109" t="s">
         <v>629</v>
       </c>
-      <c r="S108" t="s">
+      <c r="S109" t="s">
         <v>629</v>
       </c>
-      <c r="T108" t="s">
+      <c r="T109" t="s">
         <v>629</v>
       </c>
-      <c r="U108" t="s">
+      <c r="U109" t="s">
         <v>630</v>
       </c>
-      <c r="V108" t="s">
-        <v>29</v>
-      </c>
-      <c r="W108" t="s">
+      <c r="V109" t="s">
+        <v>29</v>
+      </c>
+      <c r="W109" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10292,16 +10375,17 @@
     <hyperlink ref="H82" r:id="rId3" xr:uid="{AD9CFEB0-515E-47DE-A619-8A0566327566}"/>
     <hyperlink ref="G68" r:id="rId4" xr:uid="{C5402745-E279-4144-A7EA-01FCE7A4E404}"/>
     <hyperlink ref="H68" r:id="rId5" xr:uid="{679F818E-03B4-4BF2-B47A-7E4540C537AF}"/>
-    <hyperlink ref="H103" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
-    <hyperlink ref="G103" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
+    <hyperlink ref="H104" r:id="rId6" xr:uid="{64B05FEF-865E-4E04-B288-9B0F0E91EB19}"/>
+    <hyperlink ref="G104" r:id="rId7" xr:uid="{1C619C93-40F6-455D-B3C4-D8F5DA0E79E2}"/>
     <hyperlink ref="H66" r:id="rId8" xr:uid="{811F14D2-8625-407A-A363-4868792D85E3}"/>
     <hyperlink ref="G73" r:id="rId9" xr:uid="{91676D4A-98DC-43A6-8746-157BFB405308}"/>
     <hyperlink ref="H73" r:id="rId10" xr:uid="{03594D0E-5B3F-4FCC-9030-CF67D477ED14}"/>
     <hyperlink ref="H79" r:id="rId11" xr:uid="{9348353F-C4D8-4830-99C4-699BA05B7D2C}"/>
+    <hyperlink ref="H88" r:id="rId12" xr:uid="{A1EF2249-01F0-405D-A76D-A7FF2945CDEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AFC28C-55A6-4B38-80AF-9B8A65F8A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340A5FF-408E-430C-BF13-740E4549DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pubfinder_list_NLA" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$143</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="895">
   <si>
     <t>Name</t>
   </si>
@@ -2705,12 +2705,69 @@
   <si>
     <t>15:00 - 00:00</t>
   </si>
+  <si>
+    <t>Rhodos</t>
+  </si>
+  <si>
+    <t>+4991204719922</t>
+  </si>
+  <si>
+    <t>https://rhodos-leinburg.de/</t>
+  </si>
+  <si>
+    <t>17:00 - 23:30</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00 &amp; 17:00 - 23:30</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Altdorfer Str.14</t>
+  </si>
+  <si>
+    <t>+4991239980191</t>
+  </si>
+  <si>
+    <t>cafe@hugo-lauf.de</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hugo.gastronomie</t>
+  </si>
+  <si>
+    <t>09:00 - 17:00</t>
+  </si>
+  <si>
+    <t>09:00 - 00:00</t>
+  </si>
+  <si>
+    <t>Schlosskeller</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Bergstr. 2</t>
+  </si>
+  <si>
+    <t>+499123966635</t>
+  </si>
+  <si>
+    <t>http://www.schlosskeller-lauf.de</t>
+  </si>
+  <si>
+    <t>18:00 - 01:00</t>
+  </si>
+  <si>
+    <t>18:00 - 03:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2734,6 +2791,14 @@
       <color rgb="FF000000"/>
       <name val="Rubik"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2752,17 +2817,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -2857,7 +2928,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2935,16 +3006,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W143" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W143" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Hersbruck"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W143">
-    <sortCondition ref="E1:E143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W146" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W146" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W146">
+    <sortCondition ref="E1:E146"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
@@ -3292,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W143"/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
-      <selection activeCell="S150" sqref="S150"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3392,7 +3457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3463,7 +3528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -3534,7 +3599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>636</v>
       </c>
@@ -3605,7 +3670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3676,7 +3741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -3747,7 +3812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -3818,7 +3883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -3889,7 +3954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -3960,7 +4025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -4031,7 +4096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -4102,7 +4167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -4173,7 +4238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -4244,7 +4309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>858</v>
       </c>
@@ -4312,7 +4377,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>867</v>
       </c>
@@ -4383,7 +4448,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>819</v>
       </c>
@@ -4454,7 +4519,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>827</v>
       </c>
@@ -4522,7 +4587,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>836</v>
       </c>
@@ -4569,7 +4634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -4640,7 +4705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>241</v>
       </c>
@@ -4711,7 +4776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -4782,7 +4847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>714</v>
       </c>
@@ -4850,7 +4915,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>724</v>
       </c>
@@ -4915,7 +4980,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>755</v>
       </c>
@@ -4980,7 +5045,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>795</v>
       </c>
@@ -5006,7 +5071,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>802</v>
       </c>
@@ -5053,7 +5118,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -5124,7 +5189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -5195,7 +5260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -5266,7 +5331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>854</v>
       </c>
@@ -5332,7 +5397,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -5403,7 +5468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -5474,7 +5539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -5545,7 +5610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -5616,7 +5681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -5687,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>287</v>
       </c>
@@ -5758,7 +5823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>840</v>
       </c>
@@ -5823,7 +5888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>841</v>
       </c>
@@ -5888,7 +5953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>856</v>
       </c>
@@ -5956,7 +6021,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -6027,7 +6092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -6098,7 +6163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>304</v>
       </c>
@@ -6169,7 +6234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>309</v>
       </c>
@@ -6240,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -6311,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>320</v>
       </c>
@@ -6382,7 +6447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>324</v>
       </c>
@@ -6453,7 +6518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>330</v>
       </c>
@@ -6524,7 +6589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -6595,7 +6660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -6666,7 +6731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>343</v>
       </c>
@@ -6737,7 +6802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>349</v>
       </c>
@@ -6808,7 +6873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -6879,7 +6944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>356</v>
       </c>
@@ -6950,7 +7015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>766</v>
       </c>
@@ -7497,7 +7562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1">
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
         <v>376</v>
       </c>
@@ -7568,7 +7633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1">
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
         <v>382</v>
       </c>
@@ -7639,7 +7704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1">
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
         <v>713</v>
       </c>
@@ -7704,7 +7769,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1">
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>815</v>
       </c>
@@ -7772,7 +7837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1">
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -7843,7 +7908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1">
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -7914,7 +7979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1">
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>402</v>
       </c>
@@ -7985,7 +8050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1">
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
         <v>406</v>
       </c>
@@ -8056,7 +8121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1">
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
         <v>410</v>
       </c>
@@ -8127,7 +8192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1">
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
         <v>416</v>
       </c>
@@ -8198,7 +8263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1">
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
         <v>638</v>
       </c>
@@ -8269,7 +8334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1">
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>422</v>
       </c>
@@ -8340,7 +8405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1">
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>427</v>
       </c>
@@ -8411,7 +8476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1">
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>434</v>
       </c>
@@ -8482,7 +8547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1">
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>439</v>
       </c>
@@ -8553,15 +8618,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1">
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>443</v>
+        <v>881</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>444</v>
+        <v>882</v>
       </c>
       <c r="D77">
         <v>91207</v>
@@ -8569,17 +8634,17 @@
       <c r="E77" t="s">
         <v>418</v>
       </c>
-      <c r="F77" t="s">
-        <v>445</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>446</v>
+      <c r="F77" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>885</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s">
         <v>39</v>
@@ -8597,42 +8662,42 @@
         <v>30</v>
       </c>
       <c r="O77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P77" t="s">
-        <v>29</v>
+        <v>886</v>
       </c>
       <c r="Q77" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="R77" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="S77" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="T77" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="U77" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="V77" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="W77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1">
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D78">
         <v>91207</v>
@@ -8641,19 +8706,19 @@
         <v>418</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G78" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K78" t="s">
         <v>47</v>
@@ -8668,42 +8733,42 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P78" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="R78" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="S78" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="T78" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="U78" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V78" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W78" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1">
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8712,16 +8777,16 @@
         <v>418</v>
       </c>
       <c r="F79" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G79" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H79" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J79" t="s">
         <v>29</v>
@@ -8742,39 +8807,39 @@
         <v>31</v>
       </c>
       <c r="P79" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="Q79" t="s">
         <v>29</v>
       </c>
       <c r="R79" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="S79" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="T79" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="U79" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="V79" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1">
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8783,13 +8848,13 @@
         <v>418</v>
       </c>
       <c r="F80" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G80" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H80" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I80" t="s">
         <v>29</v>
@@ -8819,33 +8884,33 @@
         <v>29</v>
       </c>
       <c r="R80" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="S80" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="T80" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="U80" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="V80" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="W80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1">
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D81">
         <v>91207</v>
@@ -8854,19 +8919,19 @@
         <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G81" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H81" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I81" t="s">
         <v>29</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K81" t="s">
         <v>47</v>
@@ -8887,36 +8952,36 @@
         <v>29</v>
       </c>
       <c r="Q81" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="R81" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="S81" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="T81" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="U81" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="V81" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="W81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1">
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
         <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D82">
         <v>91207</v>
@@ -8925,13 +8990,13 @@
         <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="H82" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I82" t="s">
         <v>29</v>
@@ -8952,42 +9017,42 @@
         <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P82" t="s">
         <v>29</v>
       </c>
       <c r="Q82" t="s">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="R82" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="S82" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="T82" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="U82" t="s">
-        <v>253</v>
+        <v>469</v>
       </c>
       <c r="V82" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="W82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1">
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>473</v>
+        <v>888</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>889</v>
       </c>
       <c r="C83" t="s">
-        <v>474</v>
+        <v>890</v>
       </c>
       <c r="D83">
         <v>91207</v>
@@ -8995,23 +9060,23 @@
       <c r="E83" t="s">
         <v>418</v>
       </c>
-      <c r="F83" t="s">
-        <v>445</v>
+      <c r="F83" s="2" t="s">
+        <v>891</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
       </c>
-      <c r="H83" t="s">
-        <v>475</v>
+      <c r="H83" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="I83" t="s">
         <v>29</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L83" t="s">
         <v>40</v>
@@ -9029,36 +9094,36 @@
         <v>29</v>
       </c>
       <c r="Q83" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R83" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="S83" t="s">
-        <v>292</v>
+        <v>893</v>
       </c>
       <c r="T83" t="s">
-        <v>292</v>
+        <v>894</v>
       </c>
       <c r="U83" t="s">
-        <v>292</v>
+        <v>894</v>
       </c>
       <c r="V83" t="s">
-        <v>292</v>
+        <v>893</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1">
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B84" t="s">
         <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D84">
         <v>91207</v>
@@ -9067,22 +9132,22 @@
         <v>418</v>
       </c>
       <c r="F84" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>637</v>
+        <v>472</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
         <v>39</v>
       </c>
       <c r="K84" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L84" t="s">
         <v>40</v>
@@ -9094,42 +9159,42 @@
         <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P84" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>479</v>
+        <v>232</v>
       </c>
       <c r="R84" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="S84" t="s">
-        <v>479</v>
+        <v>232</v>
       </c>
       <c r="T84" t="s">
-        <v>479</v>
+        <v>232</v>
       </c>
       <c r="U84" t="s">
-        <v>479</v>
+        <v>253</v>
       </c>
       <c r="V84" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="W84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1">
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D85">
         <v>91207</v>
@@ -9138,16 +9203,16 @@
         <v>418</v>
       </c>
       <c r="F85" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="G85" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J85" t="s">
         <v>39</v>
@@ -9165,42 +9230,42 @@
         <v>30</v>
       </c>
       <c r="O85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P85" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="Q85" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="R85" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="S85" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="T85" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="U85" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="V85" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="W85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1">
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D86">
         <v>91207</v>
@@ -9209,22 +9274,22 @@
         <v>418</v>
       </c>
       <c r="F86" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G86" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>490</v>
+        <v>637</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L86" t="s">
         <v>40</v>
@@ -9239,39 +9304,39 @@
         <v>31</v>
       </c>
       <c r="P86" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="Q86" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="U86" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="V86" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="W86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1">
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>666</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>665</v>
+        <v>481</v>
       </c>
       <c r="D87">
         <v>91207</v>
@@ -9279,14 +9344,17 @@
       <c r="E87" t="s">
         <v>418</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>664</v>
+      <c r="F87" t="s">
+        <v>482</v>
+      </c>
+      <c r="G87" t="s">
+        <v>483</v>
       </c>
       <c r="H87" t="s">
-        <v>667</v>
+        <v>484</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J87" t="s">
         <v>39</v>
@@ -9304,39 +9372,42 @@
         <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P87" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="Q87" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="R87" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="S87" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="T87" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="U87" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="V87" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+      <c r="W87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>675</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>674</v>
+      <c r="C88" t="s">
+        <v>487</v>
       </c>
       <c r="D88">
         <v>91207</v>
@@ -9344,26 +9415,26 @@
       <c r="E88" t="s">
         <v>418</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>671</v>
+      <c r="F88" t="s">
+        <v>488</v>
+      </c>
+      <c r="G88" t="s">
+        <v>489</v>
       </c>
       <c r="H88" t="s">
-        <v>673</v>
+        <v>490</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K88" t="s">
         <v>47</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M88" t="s">
         <v>41</v>
@@ -9375,36 +9446,39 @@
         <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>655</v>
+        <v>29</v>
       </c>
       <c r="Q88" t="s">
-        <v>663</v>
+        <v>29</v>
       </c>
       <c r="R88" t="s">
-        <v>663</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>663</v>
+        <v>57</v>
       </c>
       <c r="U88" t="s">
-        <v>663</v>
+        <v>57</v>
       </c>
       <c r="V88" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" hidden="1">
+        <v>57</v>
+      </c>
+      <c r="W88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B89" t="s">
-        <v>678</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D89">
         <v>91207</v>
@@ -9412,11 +9486,14 @@
       <c r="E89" t="s">
         <v>418</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>680</v>
+      <c r="F89" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H89" t="s">
+        <v>667</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
         <v>39</v>
@@ -9437,39 +9514,36 @@
         <v>31</v>
       </c>
       <c r="P89" t="s">
-        <v>681</v>
+        <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="R89" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="S89" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="T89" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="U89" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="V89" t="s">
-        <v>681</v>
-      </c>
-      <c r="W89" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" hidden="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" t="s">
-        <v>726</v>
+      <c r="C90" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="D90">
         <v>91207</v>
@@ -9477,26 +9551,26 @@
       <c r="E90" t="s">
         <v>418</v>
       </c>
-      <c r="F90" t="s">
-        <v>727</v>
-      </c>
-      <c r="G90" t="s">
-        <v>728</v>
+      <c r="F90" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="H90" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="I90" t="s">
         <v>38</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s">
         <v>47</v>
       </c>
       <c r="L90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M90" t="s">
         <v>41</v>
@@ -9508,57 +9582,51 @@
         <v>31</v>
       </c>
       <c r="P90" t="s">
-        <v>730</v>
+        <v>655</v>
       </c>
       <c r="Q90" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="R90" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="S90" t="s">
-        <v>730</v>
+        <v>29</v>
       </c>
       <c r="T90" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="U90" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="V90" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" hidden="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>491</v>
+        <v>677</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="C91" t="s">
-        <v>492</v>
+        <v>679</v>
       </c>
       <c r="D91">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E91" t="s">
-        <v>493</v>
-      </c>
-      <c r="F91" t="s">
-        <v>494</v>
-      </c>
-      <c r="G91" t="s">
-        <v>495</v>
-      </c>
-      <c r="H91" t="s">
-        <v>496</v>
+        <v>418</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K91" t="s">
         <v>47</v>
@@ -9576,54 +9644,54 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>29</v>
+        <v>681</v>
       </c>
       <c r="Q91" t="s">
-        <v>29</v>
+        <v>681</v>
       </c>
       <c r="R91" t="s">
-        <v>175</v>
+        <v>681</v>
       </c>
       <c r="S91" t="s">
-        <v>175</v>
+        <v>681</v>
       </c>
       <c r="T91" t="s">
-        <v>175</v>
+        <v>681</v>
       </c>
       <c r="U91" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="V91" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="W91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" hidden="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>725</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>499</v>
+        <v>726</v>
       </c>
       <c r="D92">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E92" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="F92" t="s">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="G92" t="s">
-        <v>501</v>
+        <v>728</v>
       </c>
       <c r="H92" t="s">
-        <v>502</v>
+        <v>729</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
@@ -9647,39 +9715,36 @@
         <v>31</v>
       </c>
       <c r="P92" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="Q92" t="s">
         <v>29</v>
       </c>
       <c r="R92" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="S92" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="T92" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="U92" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="V92" t="s">
-        <v>503</v>
-      </c>
-      <c r="W92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" hidden="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D93">
         <v>91227</v>
@@ -9688,25 +9753,25 @@
         <v>493</v>
       </c>
       <c r="F93" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G93" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H93" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="I93" t="s">
         <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
         <v>47</v>
       </c>
       <c r="L93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M93" t="s">
         <v>41</v>
@@ -9721,36 +9786,36 @@
         <v>29</v>
       </c>
       <c r="Q93" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="R93" t="s">
-        <v>509</v>
+        <v>175</v>
       </c>
       <c r="S93" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="T93" t="s">
-        <v>509</v>
+        <v>175</v>
       </c>
       <c r="U93" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="V93" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="W93" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75" hidden="1">
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>732</v>
+        <v>498</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>733</v>
+        <v>499</v>
       </c>
       <c r="D94">
         <v>91227</v>
@@ -9759,13 +9824,13 @@
         <v>493</v>
       </c>
       <c r="F94" t="s">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="G94" t="s">
-        <v>735</v>
+        <v>501</v>
       </c>
       <c r="H94" t="s">
-        <v>736</v>
+        <v>502</v>
       </c>
       <c r="I94" t="s">
         <v>38</v>
@@ -9774,7 +9839,7 @@
         <v>29</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L94" t="s">
         <v>40</v>
@@ -9786,63 +9851,69 @@
         <v>30</v>
       </c>
       <c r="O94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P94" t="s">
-        <v>737</v>
+        <v>503</v>
       </c>
       <c r="Q94" t="s">
         <v>29</v>
       </c>
       <c r="R94" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="S94" t="s">
-        <v>737</v>
+        <v>503</v>
       </c>
       <c r="T94" t="s">
-        <v>738</v>
+        <v>503</v>
       </c>
       <c r="U94" t="s">
-        <v>738</v>
+        <v>503</v>
       </c>
       <c r="V94" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" hidden="1">
+        <v>503</v>
+      </c>
+      <c r="W94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>694</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>695</v>
+        <v>505</v>
       </c>
       <c r="D95">
-        <v>91275</v>
+        <v>91227</v>
       </c>
       <c r="E95" t="s">
-        <v>693</v>
+        <v>493</v>
       </c>
       <c r="F95" t="s">
-        <v>696</v>
+        <v>506</v>
+      </c>
+      <c r="G95" t="s">
+        <v>507</v>
       </c>
       <c r="H95" t="s">
-        <v>697</v>
+        <v>508</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s">
         <v>47</v>
       </c>
       <c r="L95" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
@@ -9857,57 +9928,57 @@
         <v>29</v>
       </c>
       <c r="Q95" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="R95" t="s">
-        <v>698</v>
+        <v>509</v>
       </c>
       <c r="S95" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="T95" t="s">
-        <v>699</v>
+        <v>509</v>
       </c>
       <c r="U95" t="s">
-        <v>699</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s">
-        <v>656</v>
+        <v>510</v>
       </c>
       <c r="W95" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15.75">
       <c r="A96" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="D96">
-        <v>91275</v>
+        <v>91227</v>
       </c>
       <c r="E96" t="s">
-        <v>693</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>703</v>
+        <v>493</v>
+      </c>
+      <c r="F96" t="s">
+        <v>734</v>
       </c>
       <c r="G96" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="H96" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="I96" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
         <v>29</v>
@@ -9922,66 +9993,63 @@
         <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P96" t="s">
-        <v>29</v>
+        <v>737</v>
       </c>
       <c r="Q96" t="s">
-        <v>670</v>
+        <v>29</v>
       </c>
       <c r="R96" t="s">
         <v>29</v>
       </c>
       <c r="S96" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
       <c r="T96" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="U96" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="V96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" hidden="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>511</v>
+        <v>876</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="D97">
-        <v>91284</v>
+        <v>91227</v>
       </c>
       <c r="E97" t="s">
-        <v>513</v>
-      </c>
-      <c r="F97" t="s">
-        <v>514</v>
-      </c>
-      <c r="G97" t="s">
-        <v>515</v>
-      </c>
-      <c r="H97" t="s">
-        <v>516</v>
+        <v>493</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>878</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J97" t="s">
         <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M97" t="s">
         <v>41</v>
@@ -9993,54 +10061,51 @@
         <v>31</v>
       </c>
       <c r="P97" t="s">
-        <v>29</v>
+        <v>879</v>
       </c>
       <c r="Q97" t="s">
         <v>29</v>
       </c>
       <c r="R97" t="s">
-        <v>29</v>
+        <v>879</v>
       </c>
       <c r="S97" t="s">
-        <v>29</v>
+        <v>879</v>
       </c>
       <c r="T97" t="s">
-        <v>56</v>
+        <v>879</v>
       </c>
       <c r="U97" t="s">
-        <v>163</v>
+        <v>879</v>
       </c>
       <c r="V97" t="s">
-        <v>163</v>
+        <v>880</v>
       </c>
       <c r="W97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1">
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>517</v>
+        <v>694</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>518</v>
+        <v>695</v>
       </c>
       <c r="D98">
-        <v>91233</v>
+        <v>91275</v>
       </c>
       <c r="E98" t="s">
-        <v>519</v>
+        <v>693</v>
       </c>
       <c r="F98" t="s">
-        <v>520</v>
-      </c>
-      <c r="G98" t="s">
-        <v>521</v>
+        <v>696</v>
       </c>
       <c r="H98" t="s">
-        <v>522</v>
+        <v>697</v>
       </c>
       <c r="I98" t="s">
         <v>29</v>
@@ -10049,16 +10114,16 @@
         <v>29</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L98" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M98" t="s">
         <v>41</v>
       </c>
       <c r="N98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O98" t="s">
         <v>31</v>
@@ -10070,57 +10135,57 @@
         <v>29</v>
       </c>
       <c r="R98" t="s">
-        <v>29</v>
+        <v>698</v>
       </c>
       <c r="S98" t="s">
-        <v>29</v>
+        <v>698</v>
       </c>
       <c r="T98" t="s">
-        <v>523</v>
+        <v>699</v>
       </c>
       <c r="U98" t="s">
-        <v>29</v>
+        <v>699</v>
       </c>
       <c r="V98" t="s">
-        <v>524</v>
+        <v>656</v>
       </c>
       <c r="W98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" hidden="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>770</v>
+        <v>705</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="D99">
-        <v>91286</v>
+        <v>91275</v>
       </c>
       <c r="E99" t="s">
-        <v>768</v>
+        <v>693</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>772</v>
+        <v>703</v>
       </c>
       <c r="G99" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="H99" t="s">
-        <v>773</v>
+        <v>701</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J99" t="s">
         <v>39</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L99" t="s">
         <v>40</v>
@@ -10135,60 +10200,60 @@
         <v>31</v>
       </c>
       <c r="P99" t="s">
-        <v>774</v>
+        <v>29</v>
       </c>
       <c r="Q99" t="s">
-        <v>775</v>
+        <v>670</v>
       </c>
       <c r="R99" t="s">
-        <v>775</v>
+        <v>29</v>
       </c>
       <c r="S99" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
       <c r="T99" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
       <c r="U99" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
       <c r="V99" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" hidden="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>779</v>
+        <v>511</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>776</v>
+        <v>512</v>
       </c>
       <c r="D100">
-        <v>91286</v>
+        <v>91284</v>
       </c>
       <c r="E100" t="s">
-        <v>768</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>777</v>
+        <v>513</v>
+      </c>
+      <c r="F100" t="s">
+        <v>514</v>
       </c>
       <c r="G100" t="s">
-        <v>780</v>
+        <v>515</v>
       </c>
       <c r="H100" t="s">
-        <v>778</v>
+        <v>516</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L100" t="s">
         <v>29</v>
@@ -10203,83 +10268,110 @@
         <v>31</v>
       </c>
       <c r="P100" t="s">
-        <v>843</v>
+        <v>29</v>
       </c>
       <c r="Q100" t="s">
-        <v>843</v>
+        <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>593</v>
+        <v>29</v>
       </c>
       <c r="S100" t="s">
         <v>29</v>
       </c>
       <c r="T100" t="s">
-        <v>843</v>
+        <v>56</v>
       </c>
       <c r="U100" t="s">
-        <v>843</v>
+        <v>163</v>
       </c>
       <c r="V100" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" hidden="1">
+        <v>163</v>
+      </c>
+      <c r="W100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>782</v>
+        <v>517</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>783</v>
+        <v>518</v>
       </c>
       <c r="D101">
-        <v>91286</v>
+        <v>91233</v>
       </c>
       <c r="E101" t="s">
-        <v>768</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>785</v>
+        <v>519</v>
+      </c>
+      <c r="F101" t="s">
+        <v>520</v>
       </c>
       <c r="G101" t="s">
-        <v>784</v>
+        <v>521</v>
       </c>
       <c r="H101" t="s">
-        <v>781</v>
+        <v>522</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O101" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" hidden="1">
+      <c r="P101" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>29</v>
+      </c>
+      <c r="R101" t="s">
+        <v>29</v>
+      </c>
+      <c r="S101" t="s">
+        <v>29</v>
+      </c>
+      <c r="T101" t="s">
+        <v>523</v>
+      </c>
+      <c r="U101" t="s">
+        <v>29</v>
+      </c>
+      <c r="V101" t="s">
+        <v>524</v>
+      </c>
+      <c r="W101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="D102">
         <v>91286</v>
@@ -10288,13 +10380,13 @@
         <v>768</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G102" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="H102" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="I102" t="s">
         <v>38</v>
@@ -10303,7 +10395,7 @@
         <v>39</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L102" t="s">
         <v>40</v>
@@ -10318,54 +10410,54 @@
         <v>31</v>
       </c>
       <c r="P102" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="Q102" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="R102" t="s">
-        <v>29</v>
+        <v>775</v>
       </c>
       <c r="S102" t="s">
-        <v>600</v>
+        <v>774</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="U102" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="V102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" hidden="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>525</v>
+        <v>779</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>526</v>
+        <v>776</v>
       </c>
       <c r="D103">
-        <v>91242</v>
+        <v>91286</v>
       </c>
       <c r="E103" t="s">
-        <v>527</v>
-      </c>
-      <c r="F103" t="s">
-        <v>528</v>
+        <v>768</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="G103" t="s">
-        <v>27</v>
+        <v>780</v>
       </c>
       <c r="H103" t="s">
-        <v>529</v>
+        <v>778</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J103" t="s">
         <v>39</v>
@@ -10374,7 +10466,7 @@
         <v>47</v>
       </c>
       <c r="L103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M103" t="s">
         <v>41</v>
@@ -10386,60 +10478,57 @@
         <v>31</v>
       </c>
       <c r="P103" t="s">
-        <v>29</v>
+        <v>843</v>
       </c>
       <c r="Q103" t="s">
-        <v>71</v>
+        <v>843</v>
       </c>
       <c r="R103" t="s">
-        <v>71</v>
+        <v>593</v>
       </c>
       <c r="S103" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T103" t="s">
-        <v>71</v>
+        <v>843</v>
       </c>
       <c r="U103" t="s">
-        <v>71</v>
+        <v>843</v>
       </c>
       <c r="V103" t="s">
-        <v>530</v>
-      </c>
-      <c r="W103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" hidden="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>531</v>
+        <v>782</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>532</v>
+        <v>783</v>
       </c>
       <c r="D104">
-        <v>91242</v>
+        <v>91286</v>
       </c>
       <c r="E104" t="s">
-        <v>527</v>
-      </c>
-      <c r="F104" t="s">
-        <v>533</v>
+        <v>768</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="G104" t="s">
-        <v>27</v>
+        <v>784</v>
       </c>
       <c r="H104" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
       <c r="I104" t="s">
         <v>38</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K104" t="s">
         <v>47</v>
@@ -10448,7 +10537,7 @@
         <v>40</v>
       </c>
       <c r="M104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N104" t="s">
         <v>30</v>
@@ -10456,61 +10545,37 @@
       <c r="O104" t="s">
         <v>31</v>
       </c>
-      <c r="P104" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>29</v>
-      </c>
-      <c r="R104" t="s">
-        <v>535</v>
-      </c>
-      <c r="S104" t="s">
-        <v>535</v>
-      </c>
-      <c r="T104" t="s">
-        <v>234</v>
-      </c>
-      <c r="U104" t="s">
-        <v>234</v>
-      </c>
-      <c r="V104" t="s">
-        <v>234</v>
-      </c>
-      <c r="W104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" hidden="1">
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>708</v>
+        <v>787</v>
       </c>
       <c r="D105">
-        <v>91257</v>
+        <v>91286</v>
       </c>
       <c r="E105" t="s">
-        <v>709</v>
+        <v>768</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="G105" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="H105" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="I105" t="s">
         <v>38</v>
       </c>
       <c r="J105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K105" t="s">
         <v>29</v>
@@ -10528,60 +10593,60 @@
         <v>31</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="Q105" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
         <v>29</v>
       </c>
       <c r="S105" t="s">
-        <v>712</v>
+        <v>600</v>
       </c>
       <c r="T105" t="s">
-        <v>712</v>
+        <v>57</v>
       </c>
       <c r="U105" t="s">
-        <v>712</v>
+        <v>57</v>
       </c>
       <c r="V105" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D106">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E106" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F106" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G106" t="s">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J106" t="s">
         <v>39</v>
       </c>
       <c r="K106" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L106" t="s">
         <v>40</v>
@@ -10596,54 +10661,54 @@
         <v>31</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="Q106" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="R106" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S106" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="T106" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="U106" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="V106" t="s">
-        <v>292</v>
+        <v>530</v>
       </c>
       <c r="W106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1">
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D107">
-        <v>91287</v>
+        <v>91242</v>
       </c>
       <c r="E107" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F107" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G107" t="s">
         <v>27</v>
       </c>
       <c r="H107" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="I107" t="s">
         <v>38</v>
@@ -10658,7 +10723,7 @@
         <v>40</v>
       </c>
       <c r="M107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N107" t="s">
         <v>30</v>
@@ -10667,63 +10732,63 @@
         <v>31</v>
       </c>
       <c r="P107" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="Q107" t="s">
         <v>29</v>
       </c>
       <c r="R107" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="S107" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="T107" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="U107" t="s">
-        <v>546</v>
+        <v>234</v>
       </c>
       <c r="V107" t="s">
-        <v>547</v>
+        <v>234</v>
       </c>
       <c r="W107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1">
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>548</v>
+        <v>707</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>549</v>
+        <v>708</v>
       </c>
       <c r="D108">
-        <v>91287</v>
+        <v>91257</v>
       </c>
       <c r="E108" t="s">
-        <v>538</v>
-      </c>
-      <c r="F108" t="s">
-        <v>550</v>
+        <v>709</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="G108" t="s">
-        <v>551</v>
+        <v>711</v>
       </c>
       <c r="H108" t="s">
-        <v>552</v>
+        <v>706</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L108" t="s">
         <v>40</v>
@@ -10738,60 +10803,57 @@
         <v>31</v>
       </c>
       <c r="P108" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="Q108" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R108" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S108" t="s">
-        <v>71</v>
+        <v>712</v>
       </c>
       <c r="T108" t="s">
-        <v>71</v>
+        <v>712</v>
       </c>
       <c r="U108" t="s">
-        <v>553</v>
+        <v>712</v>
       </c>
       <c r="V108" t="s">
-        <v>553</v>
-      </c>
-      <c r="W108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" hidden="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="D109">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E109" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F109" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G109" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="H109" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J109" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K109" t="s">
         <v>29</v>
@@ -10809,69 +10871,69 @@
         <v>31</v>
       </c>
       <c r="P109" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="Q109" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R109" t="s">
         <v>29</v>
       </c>
       <c r="S109" t="s">
-        <v>560</v>
+        <v>292</v>
       </c>
       <c r="T109" t="s">
-        <v>560</v>
+        <v>292</v>
       </c>
       <c r="U109" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="V109" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="W109" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1">
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D110">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E110" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F110" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="G110" t="s">
         <v>27</v>
       </c>
       <c r="H110" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L110" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M110" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N110" t="s">
         <v>30</v>
@@ -10880,54 +10942,54 @@
         <v>31</v>
       </c>
       <c r="P110" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q110" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R110" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="S110" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="T110" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="U110" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
       <c r="V110" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="W110" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1">
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="D111">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E111" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F111" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="G111" t="s">
-        <v>27</v>
+        <v>551</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="I111" t="s">
         <v>29</v>
@@ -10954,63 +11016,63 @@
         <v>29</v>
       </c>
       <c r="Q111" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="R111" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="S111" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="T111" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="U111" t="s">
-        <v>106</v>
+        <v>553</v>
       </c>
       <c r="V111" t="s">
-        <v>106</v>
+        <v>553</v>
       </c>
       <c r="W111" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1">
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>803</v>
+        <v>554</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>808</v>
+        <v>555</v>
       </c>
       <c r="D112">
-        <v>91362</v>
+        <v>91224</v>
       </c>
       <c r="E112" t="s">
-        <v>809</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>807</v>
+        <v>556</v>
+      </c>
+      <c r="F112" t="s">
+        <v>557</v>
       </c>
       <c r="G112" t="s">
-        <v>806</v>
+        <v>558</v>
       </c>
       <c r="H112" t="s">
-        <v>804</v>
+        <v>559</v>
       </c>
       <c r="I112" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K112" t="s">
         <v>29</v>
       </c>
       <c r="L112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M112" t="s">
         <v>41</v>
@@ -11022,58 +11084,66 @@
         <v>31</v>
       </c>
       <c r="P112" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="Q112" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="R112" t="s">
         <v>29</v>
       </c>
       <c r="S112" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>560</v>
       </c>
       <c r="U112" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="V112" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" hidden="1">
+        <v>42</v>
+      </c>
+      <c r="W112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>816</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>818</v>
+        <v>562</v>
       </c>
       <c r="D113">
-        <v>91362</v>
+        <v>91224</v>
       </c>
       <c r="E113" t="s">
-        <v>809</v>
-      </c>
-      <c r="F113" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="F113" t="s">
+        <v>563</v>
+      </c>
       <c r="G113" t="s">
-        <v>817</v>
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>564</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J113" t="s">
         <v>39</v>
       </c>
       <c r="K113" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M113" t="s">
         <v>41</v>
@@ -11085,134 +11155,137 @@
         <v>31</v>
       </c>
       <c r="P113" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q113" t="s">
-        <v>585</v>
+        <v>225</v>
       </c>
       <c r="R113" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="S113" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="T113" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="U113" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="V113" t="s">
-        <v>32</v>
+        <v>565</v>
       </c>
       <c r="W113" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>739</v>
+        <v>566</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>740</v>
+        <v>567</v>
       </c>
       <c r="D114">
-        <v>91244</v>
+        <v>91224</v>
       </c>
       <c r="E114" t="s">
-        <v>741</v>
+        <v>556</v>
       </c>
       <c r="F114" t="s">
-        <v>742</v>
+        <v>568</v>
       </c>
       <c r="G114" t="s">
-        <v>743</v>
+        <v>27</v>
       </c>
       <c r="H114" t="s">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="I114" t="s">
         <v>29</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K114" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L114" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M114" t="s">
         <v>41</v>
       </c>
       <c r="N114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P114" t="s">
         <v>29</v>
       </c>
       <c r="Q114" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="R114" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="S114" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="T114" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="U114" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="V114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" hidden="1">
+        <v>106</v>
+      </c>
+      <c r="W114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>570</v>
+        <v>803</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>571</v>
+        <v>808</v>
       </c>
       <c r="D115">
-        <v>90552</v>
+        <v>91362</v>
       </c>
       <c r="E115" t="s">
-        <v>572</v>
-      </c>
-      <c r="F115" t="s">
-        <v>573</v>
+        <v>809</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="G115" t="s">
-        <v>574</v>
+        <v>806</v>
       </c>
       <c r="H115" t="s">
-        <v>575</v>
+        <v>804</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L115" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M115" t="s">
         <v>41</v>
@@ -11224,60 +11297,52 @@
         <v>31</v>
       </c>
       <c r="P115" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q115" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="S115" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="T115" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="U115" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="V115" t="s">
-        <v>286</v>
-      </c>
-      <c r="W115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" hidden="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>576</v>
+        <v>816</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>818</v>
       </c>
       <c r="D116">
-        <v>90552</v>
+        <v>91362</v>
       </c>
       <c r="E116" t="s">
-        <v>572</v>
-      </c>
-      <c r="F116" t="s">
-        <v>578</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="F116" s="2"/>
       <c r="G116" t="s">
-        <v>27</v>
-      </c>
-      <c r="H116" t="s">
-        <v>579</v>
+        <v>817</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K116" t="s">
         <v>47</v>
@@ -11295,110 +11360,107 @@
         <v>31</v>
       </c>
       <c r="P116" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="Q116" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R116" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="S116" t="s">
-        <v>42</v>
+        <v>585</v>
       </c>
       <c r="T116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="U116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="V116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="W116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" hidden="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>580</v>
+        <v>739</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>581</v>
+        <v>740</v>
       </c>
       <c r="D117">
-        <v>90552</v>
+        <v>91244</v>
       </c>
       <c r="E117" t="s">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="F117" t="s">
-        <v>582</v>
+        <v>742</v>
       </c>
       <c r="G117" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>744</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K117" t="s">
         <v>29</v>
       </c>
       <c r="L117" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M117" t="s">
         <v>41</v>
       </c>
       <c r="N117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P117" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q117" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R117" t="s">
         <v>29</v>
       </c>
       <c r="S117" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="T117" t="s">
-        <v>585</v>
+        <v>56</v>
       </c>
       <c r="U117" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="V117" t="s">
-        <v>586</v>
-      </c>
-      <c r="W117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>685</v>
+        <v>571</v>
       </c>
       <c r="D118">
         <v>90552</v>
@@ -11406,8 +11468,14 @@
       <c r="E118" t="s">
         <v>572</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>686</v>
+      <c r="F118" t="s">
+        <v>573</v>
+      </c>
+      <c r="G118" t="s">
+        <v>574</v>
+      </c>
+      <c r="H118" t="s">
+        <v>575</v>
       </c>
       <c r="I118" t="s">
         <v>29</v>
@@ -11437,104 +11505,134 @@
         <v>29</v>
       </c>
       <c r="R118" t="s">
-        <v>687</v>
+        <v>286</v>
       </c>
       <c r="S118" t="s">
-        <v>687</v>
+        <v>286</v>
       </c>
       <c r="T118" t="s">
-        <v>687</v>
+        <v>286</v>
       </c>
       <c r="U118" t="s">
-        <v>687</v>
+        <v>286</v>
       </c>
       <c r="V118" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" hidden="1">
+        <v>286</v>
+      </c>
+      <c r="W118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>688</v>
+        <v>576</v>
       </c>
       <c r="B119" t="s">
-        <v>661</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="D119">
-        <v>90607</v>
+        <v>90552</v>
       </c>
       <c r="E119" t="s">
-        <v>689</v>
+        <v>572</v>
       </c>
       <c r="F119" t="s">
-        <v>691</v>
+        <v>578</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
       </c>
       <c r="H119" t="s">
-        <v>692</v>
+        <v>579</v>
+      </c>
+      <c r="I119" t="s">
+        <v>29</v>
+      </c>
+      <c r="J119" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119" t="s">
+        <v>47</v>
+      </c>
+      <c r="L119" t="s">
+        <v>40</v>
+      </c>
+      <c r="M119" t="s">
+        <v>41</v>
+      </c>
+      <c r="N119" t="s">
+        <v>30</v>
+      </c>
+      <c r="O119" t="s">
+        <v>31</v>
       </c>
       <c r="P119" t="s">
         <v>29</v>
       </c>
       <c r="Q119" t="s">
-        <v>663</v>
+        <v>29</v>
       </c>
       <c r="R119" t="s">
-        <v>663</v>
+        <v>42</v>
       </c>
       <c r="S119" t="s">
-        <v>663</v>
+        <v>42</v>
       </c>
       <c r="T119" t="s">
-        <v>663</v>
+        <v>42</v>
       </c>
       <c r="U119" t="s">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="V119" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" hidden="1">
+        <v>42</v>
+      </c>
+      <c r="W119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>580</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>581</v>
       </c>
       <c r="D120">
-        <v>91220</v>
+        <v>90552</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>572</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>582</v>
       </c>
       <c r="G120" t="s">
-        <v>27</v>
+        <v>583</v>
       </c>
       <c r="H120" t="s">
-        <v>28</v>
+        <v>584</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K120" t="s">
         <v>29</v>
       </c>
       <c r="L120" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M120" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N120" t="s">
         <v>30</v>
@@ -11543,63 +11641,57 @@
         <v>31</v>
       </c>
       <c r="P120" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="Q120" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R120" t="s">
         <v>29</v>
       </c>
       <c r="S120" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="T120" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="U120" t="s">
-        <v>32</v>
+        <v>585</v>
       </c>
       <c r="V120" t="s">
-        <v>32</v>
+        <v>586</v>
       </c>
       <c r="W120" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1">
+    <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>683</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>684</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>685</v>
       </c>
       <c r="D121">
-        <v>91220</v>
+        <v>90552</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s">
-        <v>37</v>
+        <v>572</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K121" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L121" t="s">
         <v>40</v>
@@ -11614,110 +11706,80 @@
         <v>31</v>
       </c>
       <c r="P121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R121" t="s">
-        <v>29</v>
+        <v>687</v>
       </c>
       <c r="S121" t="s">
-        <v>32</v>
+        <v>687</v>
       </c>
       <c r="T121" t="s">
-        <v>42</v>
+        <v>687</v>
       </c>
       <c r="U121" t="s">
-        <v>42</v>
+        <v>687</v>
       </c>
       <c r="V121" t="s">
-        <v>42</v>
-      </c>
-      <c r="W121" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" hidden="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="B122" t="s">
+        <v>661</v>
+      </c>
+      <c r="C122" t="s">
+        <v>690</v>
+      </c>
+      <c r="D122">
+        <v>90607</v>
+      </c>
+      <c r="E122" t="s">
+        <v>689</v>
+      </c>
+      <c r="F122" t="s">
+        <v>691</v>
+      </c>
+      <c r="H122" t="s">
+        <v>692</v>
+      </c>
+      <c r="P122" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>663</v>
+      </c>
+      <c r="R122" t="s">
+        <v>663</v>
+      </c>
+      <c r="S122" t="s">
+        <v>663</v>
+      </c>
+      <c r="T122" t="s">
+        <v>663</v>
+      </c>
+      <c r="U122" t="s">
+        <v>668</v>
+      </c>
+      <c r="V122" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
         <v>23</v>
       </c>
-      <c r="C122" t="s">
-        <v>44</v>
-      </c>
-      <c r="D122">
-        <v>91220</v>
-      </c>
-      <c r="E122" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" t="s">
-        <v>45</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" t="s">
-        <v>46</v>
-      </c>
-      <c r="I122" t="s">
-        <v>29</v>
-      </c>
-      <c r="J122" t="s">
-        <v>29</v>
-      </c>
-      <c r="K122" t="s">
-        <v>47</v>
-      </c>
-      <c r="L122" t="s">
-        <v>40</v>
-      </c>
-      <c r="M122" t="s">
-        <v>41</v>
-      </c>
-      <c r="N122" t="s">
-        <v>30</v>
-      </c>
-      <c r="O122" t="s">
-        <v>31</v>
-      </c>
-      <c r="P122" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>29</v>
-      </c>
-      <c r="R122" t="s">
-        <v>48</v>
-      </c>
-      <c r="S122" t="s">
-        <v>49</v>
-      </c>
-      <c r="T122" t="s">
-        <v>48</v>
-      </c>
-      <c r="U122" t="s">
-        <v>48</v>
-      </c>
-      <c r="V122" t="s">
-        <v>48</v>
-      </c>
-      <c r="W122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" hidden="1">
-      <c r="A123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" t="s">
-        <v>51</v>
-      </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D123">
         <v>91220</v>
@@ -11726,16 +11788,16 @@
         <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G123" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H123" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J123" t="s">
         <v>29</v>
@@ -11744,10 +11806,10 @@
         <v>29</v>
       </c>
       <c r="L123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M123" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N123" t="s">
         <v>30</v>
@@ -11756,7 +11818,7 @@
         <v>31</v>
       </c>
       <c r="P123" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="Q123" t="s">
         <v>29</v>
@@ -11765,30 +11827,30 @@
         <v>29</v>
       </c>
       <c r="S123" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="T123" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="U123" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="V123" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="W123" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1">
+    <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D124">
         <v>91220</v>
@@ -11797,22 +11859,22 @@
         <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H124" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J124" t="s">
         <v>39</v>
       </c>
       <c r="K124" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L124" t="s">
         <v>40</v>
@@ -11827,39 +11889,39 @@
         <v>31</v>
       </c>
       <c r="P124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q124" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="R124" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="S124" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="T124" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="U124" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="V124" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W124" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1">
+    <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D125">
         <v>91220</v>
@@ -11868,16 +11930,16 @@
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J125" t="s">
         <v>29</v>
@@ -11898,39 +11960,39 @@
         <v>31</v>
       </c>
       <c r="P125" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="Q125" t="s">
         <v>29</v>
       </c>
       <c r="R125" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="S125" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="T125" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="U125" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="V125" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="W125" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1">
+    <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D126">
         <v>91220</v>
@@ -11939,22 +12001,22 @@
         <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G126" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H126" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I126" t="s">
         <v>38</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K126" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L126" t="s">
         <v>40</v>
@@ -11969,39 +12031,39 @@
         <v>31</v>
       </c>
       <c r="P126" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Q126" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="R126" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="S126" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="T126" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="U126" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="V126" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="W126" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1">
+    <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D127">
         <v>91220</v>
@@ -12010,16 +12072,16 @@
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I127" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J127" t="s">
         <v>39</v>
@@ -12037,42 +12099,42 @@
         <v>30</v>
       </c>
       <c r="O127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q127" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R127" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S127" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="T127" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U127" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="V127" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="W127" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1">
+    <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D128">
         <v>91220</v>
@@ -12081,19 +12143,19 @@
         <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H128" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J128" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K128" t="s">
         <v>47</v>
@@ -12111,39 +12173,39 @@
         <v>31</v>
       </c>
       <c r="P128" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="Q128" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="R128" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="S128" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="T128" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="U128" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="V128" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="W128" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1">
+    <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D129">
         <v>91220</v>
@@ -12152,13 +12214,13 @@
         <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G129" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="H129" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I129" t="s">
         <v>38</v>
@@ -12179,42 +12241,42 @@
         <v>30</v>
       </c>
       <c r="O129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P129" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Q129" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="R129" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="S129" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="T129" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="U129" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="V129" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="W129" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1">
+    <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D130">
         <v>91220</v>
@@ -12223,16 +12285,16 @@
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G130" t="s">
         <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J130" t="s">
         <v>39</v>
@@ -12250,42 +12312,42 @@
         <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q130" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="R130" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="S130" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="T130" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="U130" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="V130" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="W130" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1">
+    <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D131">
         <v>91220</v>
@@ -12294,13 +12356,13 @@
         <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G131" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="H131" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I131" t="s">
         <v>29</v>
@@ -12327,36 +12389,36 @@
         <v>29</v>
       </c>
       <c r="Q131" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="R131" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="S131" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="T131" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="U131" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="V131" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="W131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1">
+    <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D132">
         <v>91220</v>
@@ -12365,19 +12427,19 @@
         <v>25</v>
       </c>
       <c r="F132" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G132" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H132" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I132" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J132" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K132" t="s">
         <v>47</v>
@@ -12389,45 +12451,45 @@
         <v>41</v>
       </c>
       <c r="N132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P132" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="Q132" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="R132" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="S132" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="T132" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="U132" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="V132" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="W132" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1">
+    <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D133">
         <v>91220</v>
@@ -12436,19 +12498,19 @@
         <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G133" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="H133" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J133" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K133" t="s">
         <v>47</v>
@@ -12466,39 +12528,39 @@
         <v>31</v>
       </c>
       <c r="P133" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="Q133" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="R133" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="S133" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="T133" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="U133" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="V133" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="W133" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1">
+    <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B134" t="s">
         <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D134">
         <v>91220</v>
@@ -12507,69 +12569,69 @@
         <v>25</v>
       </c>
       <c r="F134" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G134" t="s">
         <v>27</v>
       </c>
       <c r="H134" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J134" t="s">
         <v>39</v>
       </c>
       <c r="K134" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L134" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M134" t="s">
         <v>41</v>
       </c>
       <c r="N134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P134" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="Q134" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="R134" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S134" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="T134" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="U134" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="V134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W134" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1">
+    <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B135" t="s">
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D135">
         <v>91220</v>
@@ -12578,13 +12640,13 @@
         <v>25</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G135" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I135" t="s">
         <v>29</v>
@@ -12596,13 +12658,13 @@
         <v>47</v>
       </c>
       <c r="L135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M135" t="s">
         <v>41</v>
       </c>
       <c r="N135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O135" t="s">
         <v>31</v>
@@ -12614,48 +12676,48 @@
         <v>29</v>
       </c>
       <c r="R135" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S135" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="T135" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="U135" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="V135" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="W135" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1">
+    <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>587</v>
+        <v>120</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
-        <v>588</v>
+        <v>122</v>
       </c>
       <c r="D136">
-        <v>91245</v>
+        <v>91220</v>
       </c>
       <c r="E136" t="s">
-        <v>589</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>590</v>
+        <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>591</v>
+        <v>124</v>
       </c>
       <c r="H136" t="s">
-        <v>592</v>
+        <v>125</v>
       </c>
       <c r="I136" t="s">
         <v>38</v>
@@ -12679,125 +12741,125 @@
         <v>31</v>
       </c>
       <c r="P136" t="s">
-        <v>593</v>
+        <v>126</v>
       </c>
       <c r="Q136" t="s">
         <v>29</v>
       </c>
       <c r="R136" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="S136" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="T136" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="U136" t="s">
-        <v>594</v>
+        <v>126</v>
       </c>
       <c r="V136" t="s">
-        <v>595</v>
+        <v>126</v>
       </c>
       <c r="W136" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1">
+    <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>596</v>
+        <v>127</v>
       </c>
       <c r="B137" t="s">
         <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>597</v>
+        <v>128</v>
       </c>
       <c r="D137">
-        <v>91245</v>
+        <v>91220</v>
       </c>
       <c r="E137" t="s">
-        <v>589</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>598</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s">
         <v>27</v>
       </c>
       <c r="H137" t="s">
-        <v>599</v>
+        <v>27</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J137" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K137" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L137" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M137" t="s">
         <v>41</v>
       </c>
       <c r="N137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O137" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P137" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="Q137" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="R137" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S137" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="T137" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="U137" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="V137" t="s">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="W137" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1">
+    <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>645</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>646</v>
+        <v>131</v>
       </c>
       <c r="D138">
-        <v>91245</v>
+        <v>91220</v>
       </c>
       <c r="E138" t="s">
-        <v>589</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>647</v>
+        <v>25</v>
+      </c>
+      <c r="F138" t="s">
+        <v>132</v>
       </c>
       <c r="G138" t="s">
-        <v>649</v>
+        <v>27</v>
       </c>
       <c r="H138" t="s">
-        <v>648</v>
+        <v>133</v>
       </c>
       <c r="I138" t="s">
         <v>29</v>
@@ -12809,7 +12871,7 @@
         <v>47</v>
       </c>
       <c r="L138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M138" t="s">
         <v>41</v>
@@ -12827,63 +12889,63 @@
         <v>29</v>
       </c>
       <c r="R138" t="s">
-        <v>650</v>
+        <v>134</v>
       </c>
       <c r="S138" t="s">
-        <v>586</v>
+        <v>29</v>
       </c>
       <c r="T138" t="s">
-        <v>586</v>
+        <v>134</v>
       </c>
       <c r="U138" t="s">
-        <v>586</v>
+        <v>135</v>
       </c>
       <c r="V138" t="s">
-        <v>586</v>
+        <v>135</v>
       </c>
       <c r="W138" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1">
+    <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D139">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E139" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F139" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G139" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H139" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J139" t="s">
         <v>29</v>
       </c>
       <c r="K139" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L139" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M139" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N139" t="s">
         <v>30</v>
@@ -12892,63 +12954,63 @@
         <v>31</v>
       </c>
       <c r="P139" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q139" t="s">
         <v>29</v>
       </c>
       <c r="R139" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S139" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="T139" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="U139" t="s">
-        <v>72</v>
+        <v>594</v>
       </c>
       <c r="V139" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="W139" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1">
+    <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D140">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E140" t="s">
-        <v>603</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
+      </c>
+      <c r="F140" t="s">
+        <v>598</v>
       </c>
       <c r="G140" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H140" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="I140" t="s">
         <v>29</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K140" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L140" t="s">
         <v>40</v>
@@ -12966,51 +13028,51 @@
         <v>29</v>
       </c>
       <c r="Q140" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R140" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S140" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="T140" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="U140" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="V140" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="W140" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1">
+    <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D141">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E141" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="G141" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="H141" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="I141" t="s">
         <v>29</v>
@@ -13019,10 +13081,10 @@
         <v>29</v>
       </c>
       <c r="K141" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L141" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M141" t="s">
         <v>41</v>
@@ -13040,48 +13102,48 @@
         <v>29</v>
       </c>
       <c r="R141" t="s">
-        <v>29</v>
+        <v>650</v>
       </c>
       <c r="S141" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T141" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="U141" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="V141" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="W141" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1">
+    <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="D142">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E142" t="s">
-        <v>620</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>621</v>
+        <v>603</v>
+      </c>
+      <c r="F142" t="s">
+        <v>604</v>
       </c>
       <c r="G142" t="s">
-        <v>622</v>
+        <v>27</v>
       </c>
       <c r="H142" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="I142" t="s">
         <v>29</v>
@@ -13093,10 +13155,10 @@
         <v>29</v>
       </c>
       <c r="L142" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M142" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N142" t="s">
         <v>30</v>
@@ -13114,57 +13176,57 @@
         <v>29</v>
       </c>
       <c r="S142" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T142" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="U142" t="s">
         <v>72</v>
       </c>
       <c r="V142" t="s">
-        <v>72</v>
+        <v>606</v>
       </c>
       <c r="W142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1">
+    <row r="143" spans="1:23">
       <c r="A143" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="B143" t="s">
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="D143">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G143" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="H143" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="I143" t="s">
         <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K143" t="s">
         <v>29</v>
       </c>
       <c r="L143" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M143" t="s">
         <v>41</v>
@@ -13179,38 +13241,251 @@
         <v>29</v>
       </c>
       <c r="Q143" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R143" t="s">
         <v>29</v>
       </c>
       <c r="S143" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T143" t="s">
+        <v>612</v>
+      </c>
+      <c r="U143" t="s">
+        <v>612</v>
+      </c>
+      <c r="V143" t="s">
+        <v>612</v>
+      </c>
+      <c r="W143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144" t="s">
+        <v>613</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>614</v>
+      </c>
+      <c r="D144">
+        <v>91247</v>
+      </c>
+      <c r="E144" t="s">
+        <v>603</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G144" t="s">
+        <v>616</v>
+      </c>
+      <c r="H144" t="s">
+        <v>617</v>
+      </c>
+      <c r="I144" t="s">
+        <v>29</v>
+      </c>
+      <c r="J144" t="s">
+        <v>29</v>
+      </c>
+      <c r="K144" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" t="s">
+        <v>41</v>
+      </c>
+      <c r="N144" t="s">
+        <v>30</v>
+      </c>
+      <c r="O144" t="s">
+        <v>31</v>
+      </c>
+      <c r="P144" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>29</v>
+      </c>
+      <c r="R144" t="s">
+        <v>29</v>
+      </c>
+      <c r="S144" t="s">
+        <v>29</v>
+      </c>
+      <c r="T144" t="s">
+        <v>469</v>
+      </c>
+      <c r="U144" t="s">
+        <v>469</v>
+      </c>
+      <c r="V144" t="s">
+        <v>57</v>
+      </c>
+      <c r="W144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" t="s">
+        <v>618</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>619</v>
+      </c>
+      <c r="D145">
+        <v>91367</v>
+      </c>
+      <c r="E145" t="s">
+        <v>620</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G145" t="s">
+        <v>622</v>
+      </c>
+      <c r="H145" t="s">
+        <v>623</v>
+      </c>
+      <c r="I145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" t="s">
+        <v>29</v>
+      </c>
+      <c r="K145" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" t="s">
+        <v>40</v>
+      </c>
+      <c r="M145" t="s">
+        <v>41</v>
+      </c>
+      <c r="N145" t="s">
+        <v>30</v>
+      </c>
+      <c r="O145" t="s">
+        <v>31</v>
+      </c>
+      <c r="P145" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R145" t="s">
+        <v>29</v>
+      </c>
+      <c r="S145" t="s">
+        <v>71</v>
+      </c>
+      <c r="T145" t="s">
+        <v>72</v>
+      </c>
+      <c r="U145" t="s">
+        <v>72</v>
+      </c>
+      <c r="V145" t="s">
+        <v>72</v>
+      </c>
+      <c r="W145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" t="s">
+        <v>624</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>625</v>
+      </c>
+      <c r="D146">
+        <v>91367</v>
+      </c>
+      <c r="E146" t="s">
+        <v>620</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G146" t="s">
+        <v>627</v>
+      </c>
+      <c r="H146" t="s">
+        <v>628</v>
+      </c>
+      <c r="I146" t="s">
+        <v>29</v>
+      </c>
+      <c r="J146" t="s">
+        <v>29</v>
+      </c>
+      <c r="K146" t="s">
+        <v>29</v>
+      </c>
+      <c r="L146" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" t="s">
+        <v>41</v>
+      </c>
+      <c r="N146" t="s">
+        <v>30</v>
+      </c>
+      <c r="O146" t="s">
+        <v>31</v>
+      </c>
+      <c r="P146" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>29</v>
+      </c>
+      <c r="R146" t="s">
+        <v>29</v>
+      </c>
+      <c r="S146" t="s">
+        <v>29</v>
+      </c>
+      <c r="T146" t="s">
         <v>767</v>
       </c>
-      <c r="U143" t="s">
+      <c r="U146" t="s">
         <v>767</v>
       </c>
-      <c r="V143" t="s">
+      <c r="V146" t="s">
         <v>767</v>
       </c>
-      <c r="W143" t="s">
+      <c r="W146" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H94" r:id="rId1" xr:uid="{981B5560-6DAE-4DDF-89E8-965B4F428153}"/>
-    <hyperlink ref="H101" r:id="rId2" xr:uid="{EADF18B3-588E-4405-95B9-F1FF38CFE2FF}"/>
-    <hyperlink ref="H102" r:id="rId3" xr:uid="{5442E34A-4873-45A6-815F-C9DA12FAD0BB}"/>
-    <hyperlink ref="G102" r:id="rId4" display="mailto:info@treiber-trubachtal.de" xr:uid="{A8605CCA-371A-4F0F-B38F-301D8A954EEC}"/>
+    <hyperlink ref="H96" r:id="rId1" xr:uid="{981B5560-6DAE-4DDF-89E8-965B4F428153}"/>
+    <hyperlink ref="H104" r:id="rId2" xr:uid="{EADF18B3-588E-4405-95B9-F1FF38CFE2FF}"/>
+    <hyperlink ref="H105" r:id="rId3" xr:uid="{5442E34A-4873-45A6-815F-C9DA12FAD0BB}"/>
+    <hyperlink ref="G105" r:id="rId4" display="mailto:info@treiber-trubachtal.de" xr:uid="{A8605CCA-371A-4F0F-B38F-301D8A954EEC}"/>
     <hyperlink ref="G25" r:id="rId5" display="mailto:info@gasthofzurpost-egloffstein.de" xr:uid="{59D3268A-8139-41AF-93C9-8A3564842F33}"/>
     <hyperlink ref="H25" r:id="rId6" xr:uid="{ABD6C19E-78BB-453A-9B5E-26657A5E00D9}"/>
     <hyperlink ref="H26" r:id="rId7" xr:uid="{A3C602AD-9E29-4830-896C-3A931D5766AA}"/>
     <hyperlink ref="G26" r:id="rId8" display="mailto:info@backhaus-wirth.de" xr:uid="{5402AC3E-9322-4847-A4D2-B46D56B2EDF5}"/>
-    <hyperlink ref="H112" r:id="rId9" xr:uid="{B6398CCF-02EE-4F7E-8121-F9C8977EB390}"/>
+    <hyperlink ref="H115" r:id="rId9" xr:uid="{B6398CCF-02EE-4F7E-8121-F9C8977EB390}"/>
     <hyperlink ref="H65" r:id="rId10" xr:uid="{CC3AE7F7-2749-44BF-BFB2-E1636DAF0FEE}"/>
     <hyperlink ref="H16" r:id="rId11" xr:uid="{EDFB4660-D02F-4391-882B-B33E0B5B3D95}"/>
     <hyperlink ref="G17" r:id="rId12" display="mailto:dotterweich@schwanenbraeu.de" xr:uid="{7F70B5FC-BC29-4A95-94DE-41A0C370DC0D}"/>
@@ -13220,11 +13495,15 @@
     <hyperlink ref="H39" r:id="rId16" xr:uid="{FF5D2CCB-F7D7-485A-A584-B17C254B20CD}"/>
     <hyperlink ref="G15" r:id="rId17" tooltip="E-Mail schreiben" display="mailto:mail@lbkbh.de" xr:uid="{D1B5D122-AB94-44F3-9A2B-E8DB5FDB287C}"/>
     <hyperlink ref="H15" r:id="rId18" xr:uid="{EF7B48D2-CA70-4063-A021-EB05A2734E38}"/>
+    <hyperlink ref="H97" r:id="rId19" xr:uid="{CB47E876-FC86-40C7-A5C5-015243833476}"/>
+    <hyperlink ref="G77" r:id="rId20" xr:uid="{08B8804C-B959-4A04-B8F6-B92A306C5AD5}"/>
+    <hyperlink ref="H77" r:id="rId21" xr:uid="{55B52E1D-4796-453B-B506-B34A9190D63C}"/>
+    <hyperlink ref="H83" r:id="rId22" xr:uid="{D972C143-2111-43B8-8407-AB8CADDF24DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340A5FF-408E-430C-BF13-740E4549DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E5679-4599-43BF-8A88-FCC1FC100A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pubfinder_list_NLA" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$146</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">pubfinder_list_NLA!$A$1:$W$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="900">
   <si>
     <t>Name</t>
   </si>
@@ -2761,6 +2761,21 @@
   </si>
   <si>
     <t>18:00 - 03:00</t>
+  </si>
+  <si>
+    <t>Saloniki Grill</t>
+  </si>
+  <si>
+    <t>Spitalgasse 13</t>
+  </si>
+  <si>
+    <t>+4991519075500</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/grillsaloniki/</t>
+  </si>
+  <si>
+    <t>11:00 - 21:30</t>
   </si>
 </sst>
 </file>
@@ -3006,10 +3021,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W146" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W146" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W146">
-    <sortCondition ref="E1:E146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}" name="pubfinder_list_NLA_ok" displayName="pubfinder_list_NLA_ok" ref="A1:W147" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W147" xr:uid="{1C4BF8B3-CB62-48F7-AAC2-6E12CB367C86}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W147">
+    <sortCondition ref="E1:E147"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{92103B2C-FCC3-42D2-95DB-A3F77D77EC29}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="21"/>
@@ -3357,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7360,13 +7375,13 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>662</v>
+        <v>895</v>
       </c>
       <c r="B59" t="s">
-        <v>661</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>660</v>
+        <v>896</v>
       </c>
       <c r="D59">
         <v>91217</v>
@@ -7375,19 +7390,16 @@
         <v>365</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="G59" t="s">
-        <v>659</v>
-      </c>
-      <c r="H59" t="s">
-        <v>657</v>
+        <v>897</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>898</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K59" t="s">
         <v>47</v>
@@ -7405,36 +7417,36 @@
         <v>31</v>
       </c>
       <c r="P59" t="s">
-        <v>872</v>
+        <v>29</v>
       </c>
       <c r="Q59" t="s">
-        <v>29</v>
+        <v>899</v>
       </c>
       <c r="R59" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="S59" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="T59" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="U59" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="V59" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>746</v>
+        <v>662</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>661</v>
       </c>
       <c r="C60" t="s">
-        <v>747</v>
+        <v>660</v>
       </c>
       <c r="D60">
         <v>91217</v>
@@ -7442,17 +7454,17 @@
       <c r="E60" t="s">
         <v>365</v>
       </c>
-      <c r="F60" t="s">
-        <v>748</v>
+      <c r="F60" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="G60" t="s">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="H60" t="s">
-        <v>745</v>
+        <v>657</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J60" t="s">
         <v>29</v>
@@ -7461,7 +7473,7 @@
         <v>47</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M60" t="s">
         <v>41</v>
@@ -7473,36 +7485,36 @@
         <v>31</v>
       </c>
       <c r="P60" t="s">
-        <v>29</v>
+        <v>872</v>
       </c>
       <c r="Q60" t="s">
         <v>29</v>
       </c>
       <c r="R60" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="S60" t="s">
-        <v>29</v>
+        <v>872</v>
       </c>
       <c r="T60" t="s">
-        <v>111</v>
+        <v>872</v>
       </c>
       <c r="U60" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="V60" t="s">
-        <v>163</v>
+        <v>873</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D61">
         <v>91217</v>
@@ -7511,13 +7523,13 @@
         <v>365</v>
       </c>
       <c r="F61" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G61" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H61" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I61" t="s">
         <v>29</v>
@@ -7529,7 +7541,7 @@
         <v>47</v>
       </c>
       <c r="L61" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M61" t="s">
         <v>41</v>
@@ -7547,45 +7559,45 @@
         <v>29</v>
       </c>
       <c r="R61" t="s">
-        <v>42</v>
+        <v>874</v>
       </c>
       <c r="S61" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T61" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="U61" t="s">
-        <v>42</v>
+        <v>875</v>
       </c>
       <c r="V61" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>750</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>752</v>
       </c>
       <c r="D62">
-        <v>92275</v>
+        <v>91217</v>
       </c>
       <c r="E62" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F62" t="s">
-        <v>379</v>
+        <v>753</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>754</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
+        <v>751</v>
       </c>
       <c r="I62" t="s">
         <v>29</v>
@@ -7615,90 +7627,87 @@
         <v>29</v>
       </c>
       <c r="R62" t="s">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="S62" t="s">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="T62" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="U62" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="V62" t="s">
-        <v>163</v>
-      </c>
-      <c r="W62" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D63">
-        <v>91338</v>
+        <v>92275</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F63" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G63" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H63" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
         <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M63" t="s">
         <v>41</v>
       </c>
       <c r="N63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O63" t="s">
         <v>31</v>
       </c>
       <c r="P63" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q63" t="s">
         <v>29</v>
       </c>
       <c r="R63" t="s">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="S63" t="s">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="T63" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="U63" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V63" t="s">
-        <v>388</v>
+        <v>163</v>
       </c>
       <c r="W63" t="s">
         <v>27</v>
@@ -7706,7 +7715,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>713</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -7720,8 +7729,11 @@
       <c r="E64" t="s">
         <v>384</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>385</v>
+      </c>
+      <c r="G64" t="s">
+        <v>386</v>
       </c>
       <c r="H64" t="s">
         <v>387</v>
@@ -7748,7 +7760,7 @@
         <v>31</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="Q64" t="s">
         <v>29</v>
@@ -7760,7 +7772,7 @@
         <v>29</v>
       </c>
       <c r="T64" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="U64" t="s">
         <v>29</v>
@@ -7768,31 +7780,31 @@
       <c r="V64" t="s">
         <v>388</v>
       </c>
+      <c r="W64" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>815</v>
+        <v>713</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>811</v>
+        <v>383</v>
       </c>
       <c r="D65">
-        <v>91356</v>
+        <v>91338</v>
       </c>
       <c r="E65" t="s">
-        <v>812</v>
+        <v>384</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="G65" t="s">
-        <v>813</v>
+        <v>385</v>
       </c>
       <c r="H65" t="s">
-        <v>810</v>
+        <v>387</v>
       </c>
       <c r="I65" t="s">
         <v>38</v>
@@ -7801,72 +7813,72 @@
         <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M65" t="s">
         <v>41</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O65" t="s">
         <v>31</v>
       </c>
       <c r="P65" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="Q65" t="s">
         <v>29</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U65" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="V65" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>815</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>390</v>
+        <v>811</v>
       </c>
       <c r="D66">
-        <v>91241</v>
+        <v>91356</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
-      </c>
-      <c r="F66" t="s">
-        <v>392</v>
+        <v>812</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="G66" t="s">
-        <v>393</v>
+        <v>813</v>
       </c>
       <c r="H66" t="s">
-        <v>394</v>
+        <v>810</v>
       </c>
       <c r="I66" t="s">
         <v>38</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
         <v>47</v>
@@ -7884,39 +7896,36 @@
         <v>31</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="Q66" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="R66" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="U66" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="V66" t="s">
-        <v>175</v>
-      </c>
-      <c r="W66" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D67">
         <v>91241</v>
@@ -7925,25 +7934,25 @@
         <v>391</v>
       </c>
       <c r="F67" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G67" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H67" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M67" t="s">
         <v>41</v>
@@ -7955,25 +7964,25 @@
         <v>31</v>
       </c>
       <c r="P67" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="Q67" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="R67" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="S67" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="T67" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="U67" t="s">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="V67" t="s">
-        <v>401</v>
+        <v>175</v>
       </c>
       <c r="W67" t="s">
         <v>27</v>
@@ -7981,13 +7990,13 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D68">
         <v>91241</v>
@@ -7996,13 +8005,13 @@
         <v>391</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="H68" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I68" t="s">
         <v>29</v>
@@ -8038,13 +8047,13 @@
         <v>29</v>
       </c>
       <c r="T68" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="U68" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="V68" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="W68" t="s">
         <v>27</v>
@@ -8052,13 +8061,13 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D69">
         <v>91241</v>
@@ -8067,13 +8076,13 @@
         <v>391</v>
       </c>
       <c r="F69" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I69" t="s">
         <v>29</v>
@@ -8085,7 +8094,7 @@
         <v>29</v>
       </c>
       <c r="L69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
         <v>41</v>
@@ -8106,16 +8115,16 @@
         <v>29</v>
       </c>
       <c r="S69" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T69" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="U69" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V69" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W69" t="s">
         <v>27</v>
@@ -8123,13 +8132,13 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D70">
         <v>91241</v>
@@ -8138,13 +8147,13 @@
         <v>391</v>
       </c>
       <c r="F70" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G70" t="s">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I70" t="s">
         <v>29</v>
@@ -8153,7 +8162,7 @@
         <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L70" t="s">
         <v>40</v>
@@ -8174,19 +8183,19 @@
         <v>29</v>
       </c>
       <c r="R70" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="S70" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="T70" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="U70" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="V70" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="W70" t="s">
         <v>27</v>
@@ -8194,34 +8203,34 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D71">
-        <v>91207</v>
+        <v>91241</v>
       </c>
       <c r="E71" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="H71" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
         <v>47</v>
@@ -8233,31 +8242,31 @@
         <v>41</v>
       </c>
       <c r="N71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P71" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="R71" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="S71" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="T71" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="U71" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="V71" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="W71" t="s">
         <v>27</v>
@@ -8265,13 +8274,13 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>638</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s">
-        <v>639</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>640</v>
+        <v>417</v>
       </c>
       <c r="D72">
         <v>91207</v>
@@ -8279,17 +8288,17 @@
       <c r="E72" t="s">
         <v>418</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>644</v>
+      <c r="F72" t="s">
+        <v>419</v>
       </c>
       <c r="G72" t="s">
-        <v>641</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>642</v>
+        <v>420</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J72" t="s">
         <v>39</v>
@@ -8304,31 +8313,31 @@
         <v>41</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P72" t="s">
-        <v>29</v>
+        <v>421</v>
       </c>
       <c r="Q72" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="R72" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="S72" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="T72" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="U72" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="V72" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="W72" t="s">
         <v>27</v>
@@ -8336,13 +8345,13 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>422</v>
+        <v>638</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
       <c r="C73" t="s">
-        <v>423</v>
+        <v>640</v>
       </c>
       <c r="D73">
         <v>91207</v>
@@ -8350,23 +8359,23 @@
       <c r="E73" t="s">
         <v>418</v>
       </c>
-      <c r="F73" t="s">
-        <v>424</v>
+      <c r="F73" s="2" t="s">
+        <v>644</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>641</v>
       </c>
       <c r="H73" t="s">
-        <v>425</v>
+        <v>642</v>
       </c>
       <c r="I73" t="s">
         <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L73" t="s">
         <v>40</v>
@@ -8384,22 +8393,22 @@
         <v>29</v>
       </c>
       <c r="Q73" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="R73" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="S73" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="T73" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="U73" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="V73" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="W73" t="s">
         <v>27</v>
@@ -8407,13 +8416,13 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D74">
         <v>91207</v>
@@ -8422,13 +8431,13 @@
         <v>418</v>
       </c>
       <c r="F74" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G74" t="s">
-        <v>430</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I74" t="s">
         <v>29</v>
@@ -8437,7 +8446,7 @@
         <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L74" t="s">
         <v>40</v>
@@ -8458,19 +8467,19 @@
         <v>29</v>
       </c>
       <c r="R74" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="S74" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="T74" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="U74" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="V74" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="W74" t="s">
         <v>27</v>
@@ -8478,13 +8487,13 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D75">
         <v>91207</v>
@@ -8493,13 +8502,13 @@
         <v>418</v>
       </c>
       <c r="F75" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G75" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H75" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I75" t="s">
         <v>29</v>
@@ -8508,10 +8517,10 @@
         <v>29</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L75" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M75" t="s">
         <v>41</v>
@@ -8529,19 +8538,19 @@
         <v>29</v>
       </c>
       <c r="R75" t="s">
-        <v>29</v>
+        <v>432</v>
       </c>
       <c r="S75" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="T75" t="s">
-        <v>71</v>
+        <v>432</v>
       </c>
       <c r="U75" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="V75" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="W75" t="s">
         <v>27</v>
@@ -8549,13 +8558,13 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D76">
         <v>91207</v>
@@ -8564,25 +8573,25 @@
         <v>418</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>437</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>438</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L76" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M76" t="s">
         <v>41</v>
@@ -8594,25 +8603,25 @@
         <v>31</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="Q76" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R76" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="S76" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="T76" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="U76" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="V76" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="W76" t="s">
         <v>27</v>
@@ -8620,13 +8629,13 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>881</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>882</v>
+        <v>440</v>
       </c>
       <c r="D77">
         <v>91207</v>
@@ -8634,14 +8643,14 @@
       <c r="E77" t="s">
         <v>418</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>885</v>
+      <c r="F77" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>27</v>
       </c>
       <c r="I77" t="s">
         <v>38</v>
@@ -8665,25 +8674,25 @@
         <v>31</v>
       </c>
       <c r="P77" t="s">
-        <v>886</v>
+        <v>292</v>
       </c>
       <c r="Q77" t="s">
-        <v>887</v>
+        <v>292</v>
       </c>
       <c r="R77" t="s">
-        <v>887</v>
+        <v>292</v>
       </c>
       <c r="S77" t="s">
-        <v>887</v>
+        <v>292</v>
       </c>
       <c r="T77" t="s">
-        <v>887</v>
+        <v>292</v>
       </c>
       <c r="U77" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="V77" t="s">
-        <v>142</v>
+        <v>442</v>
       </c>
       <c r="W77" t="s">
         <v>27</v>
@@ -8691,13 +8700,13 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>443</v>
+        <v>881</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>444</v>
+        <v>882</v>
       </c>
       <c r="D78">
         <v>91207</v>
@@ -8705,17 +8714,17 @@
       <c r="E78" t="s">
         <v>418</v>
       </c>
-      <c r="F78" t="s">
-        <v>445</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s">
-        <v>446</v>
+      <c r="F78" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>885</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J78" t="s">
         <v>39</v>
@@ -8733,28 +8742,28 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P78" t="s">
-        <v>29</v>
+        <v>886</v>
       </c>
       <c r="Q78" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="R78" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="S78" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="T78" t="s">
-        <v>232</v>
+        <v>887</v>
       </c>
       <c r="U78" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="V78" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="W78" t="s">
         <v>27</v>
@@ -8762,13 +8771,13 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D79">
         <v>91207</v>
@@ -8777,19 +8786,19 @@
         <v>418</v>
       </c>
       <c r="F79" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G79" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K79" t="s">
         <v>47</v>
@@ -8804,28 +8813,28 @@
         <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P79" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="R79" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="S79" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="T79" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="U79" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W79" t="s">
         <v>27</v>
@@ -8833,13 +8842,13 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D80">
         <v>91207</v>
@@ -8848,16 +8857,16 @@
         <v>418</v>
       </c>
       <c r="F80" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G80" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H80" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J80" t="s">
         <v>29</v>
@@ -8878,25 +8887,25 @@
         <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="Q80" t="s">
         <v>29</v>
       </c>
       <c r="R80" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="S80" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="T80" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="U80" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="V80" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="W80" t="s">
         <v>27</v>
@@ -8904,13 +8913,13 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D81">
         <v>91207</v>
@@ -8919,13 +8928,13 @@
         <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H81" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I81" t="s">
         <v>29</v>
@@ -8955,19 +8964,19 @@
         <v>29</v>
       </c>
       <c r="R81" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="S81" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="T81" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="U81" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="V81" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="W81" t="s">
         <v>27</v>
@@ -8975,13 +8984,13 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D82">
         <v>91207</v>
@@ -8990,19 +8999,19 @@
         <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G82" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H82" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I82" t="s">
         <v>29</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K82" t="s">
         <v>47</v>
@@ -9023,22 +9032,22 @@
         <v>29</v>
       </c>
       <c r="Q82" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="R82" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="S82" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="T82" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="U82" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="V82" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="W82" t="s">
         <v>27</v>
@@ -9046,13 +9055,13 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>888</v>
+        <v>463</v>
       </c>
       <c r="B83" t="s">
-        <v>889</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>890</v>
+        <v>464</v>
       </c>
       <c r="D83">
         <v>91207</v>
@@ -9060,23 +9069,23 @@
       <c r="E83" t="s">
         <v>418</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>891</v>
+      <c r="F83" t="s">
+        <v>465</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>892</v>
+        <v>466</v>
+      </c>
+      <c r="H83" t="s">
+        <v>467</v>
       </c>
       <c r="I83" t="s">
         <v>29</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L83" t="s">
         <v>40</v>
@@ -9094,22 +9103,22 @@
         <v>29</v>
       </c>
       <c r="Q83" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="R83" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="S83" t="s">
-        <v>893</v>
+        <v>469</v>
       </c>
       <c r="T83" t="s">
-        <v>894</v>
+        <v>469</v>
       </c>
       <c r="U83" t="s">
-        <v>894</v>
+        <v>469</v>
       </c>
       <c r="V83" t="s">
-        <v>893</v>
+        <v>469</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
@@ -9117,13 +9126,13 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>470</v>
+        <v>888</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>889</v>
       </c>
       <c r="C84" t="s">
-        <v>471</v>
+        <v>890</v>
       </c>
       <c r="D84">
         <v>91207</v>
@@ -9131,23 +9140,23 @@
       <c r="E84" t="s">
         <v>418</v>
       </c>
-      <c r="F84" t="s">
-        <v>445</v>
+      <c r="F84" s="2" t="s">
+        <v>891</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
       </c>
-      <c r="H84" t="s">
-        <v>472</v>
+      <c r="H84" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="I84" t="s">
         <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L84" t="s">
         <v>40</v>
@@ -9159,28 +9168,28 @@
         <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P84" t="s">
         <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="R84" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="S84" t="s">
-        <v>232</v>
+        <v>893</v>
       </c>
       <c r="T84" t="s">
-        <v>232</v>
+        <v>894</v>
       </c>
       <c r="U84" t="s">
-        <v>253</v>
+        <v>894</v>
       </c>
       <c r="V84" t="s">
-        <v>29</v>
+        <v>893</v>
       </c>
       <c r="W84" t="s">
         <v>27</v>
@@ -9188,13 +9197,13 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s">
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D85">
         <v>91207</v>
@@ -9209,7 +9218,7 @@
         <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I85" t="s">
         <v>29</v>
@@ -9230,28 +9239,28 @@
         <v>30</v>
       </c>
       <c r="O85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P85" t="s">
         <v>29</v>
       </c>
       <c r="Q85" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="R85" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="S85" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="T85" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="U85" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="V85" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="W85" t="s">
         <v>27</v>
@@ -9259,13 +9268,13 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D86">
         <v>91207</v>
@@ -9274,22 +9283,22 @@
         <v>418</v>
       </c>
       <c r="F86" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G86" t="s">
         <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>637</v>
+        <v>475</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J86" t="s">
         <v>39</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L86" t="s">
         <v>40</v>
@@ -9304,25 +9313,25 @@
         <v>31</v>
       </c>
       <c r="P86" t="s">
-        <v>479</v>
+        <v>29</v>
       </c>
       <c r="Q86" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="R86" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="S86" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="T86" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="U86" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="V86" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="W86" t="s">
         <v>27</v>
@@ -9330,13 +9339,13 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D87">
         <v>91207</v>
@@ -9345,13 +9354,13 @@
         <v>418</v>
       </c>
       <c r="F87" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G87" t="s">
-        <v>483</v>
+        <v>27</v>
       </c>
       <c r="H87" t="s">
-        <v>484</v>
+        <v>637</v>
       </c>
       <c r="I87" t="s">
         <v>38</v>
@@ -9360,7 +9369,7 @@
         <v>39</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L87" t="s">
         <v>40</v>
@@ -9372,28 +9381,28 @@
         <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P87" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q87" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="R87" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="S87" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T87" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U87" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="V87" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="W87" t="s">
         <v>27</v>
@@ -9401,13 +9410,13 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D88">
         <v>91207</v>
@@ -9416,19 +9425,19 @@
         <v>418</v>
       </c>
       <c r="F88" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G88" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H88" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K88" t="s">
         <v>47</v>
@@ -9443,28 +9452,28 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P88" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="Q88" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="U88" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="V88" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W88" t="s">
         <v>27</v>
@@ -9472,13 +9481,13 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>665</v>
+        <v>487</v>
       </c>
       <c r="D89">
         <v>91207</v>
@@ -9486,17 +9495,20 @@
       <c r="E89" t="s">
         <v>418</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>664</v>
+      <c r="F89" t="s">
+        <v>488</v>
+      </c>
+      <c r="G89" t="s">
+        <v>489</v>
       </c>
       <c r="H89" t="s">
-        <v>667</v>
+        <v>490</v>
       </c>
       <c r="I89" t="s">
         <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
         <v>47</v>
@@ -9517,33 +9529,36 @@
         <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>669</v>
+        <v>29</v>
       </c>
       <c r="R89" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="U89" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="V89" t="s">
-        <v>670</v>
+        <v>57</v>
+      </c>
+      <c r="W89" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>674</v>
+        <v>249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>665</v>
       </c>
       <c r="D90">
         <v>91207</v>
@@ -9551,17 +9566,14 @@
       <c r="E90" t="s">
         <v>418</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>671</v>
+      <c r="F90" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="H90" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J90" t="s">
         <v>39</v>
@@ -9570,7 +9582,7 @@
         <v>47</v>
       </c>
       <c r="L90" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M90" t="s">
         <v>41</v>
@@ -9582,36 +9594,36 @@
         <v>31</v>
       </c>
       <c r="P90" t="s">
-        <v>655</v>
+        <v>29</v>
       </c>
       <c r="Q90" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="R90" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="S90" t="s">
-        <v>29</v>
+        <v>669</v>
       </c>
       <c r="T90" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="U90" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="V90" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B91" t="s">
-        <v>678</v>
-      </c>
-      <c r="C91" t="s">
-        <v>679</v>
+        <v>23</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="D91">
         <v>91207</v>
@@ -9620,7 +9632,13 @@
         <v>418</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H91" t="s">
+        <v>673</v>
       </c>
       <c r="I91" t="s">
         <v>38</v>
@@ -9632,7 +9650,7 @@
         <v>47</v>
       </c>
       <c r="L91" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M91" t="s">
         <v>41</v>
@@ -9644,39 +9662,36 @@
         <v>31</v>
       </c>
       <c r="P91" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="Q91" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="R91" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="S91" t="s">
-        <v>681</v>
+        <v>29</v>
       </c>
       <c r="T91" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="U91" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="V91" t="s">
-        <v>681</v>
-      </c>
-      <c r="W91" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="C92" t="s">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="D92">
         <v>91207</v>
@@ -9684,20 +9699,14 @@
       <c r="E92" t="s">
         <v>418</v>
       </c>
-      <c r="F92" t="s">
-        <v>727</v>
-      </c>
-      <c r="G92" t="s">
-        <v>728</v>
-      </c>
-      <c r="H92" t="s">
-        <v>729</v>
+      <c r="F92" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K92" t="s">
         <v>47</v>
@@ -9715,54 +9724,57 @@
         <v>31</v>
       </c>
       <c r="P92" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="Q92" t="s">
-        <v>29</v>
+        <v>681</v>
       </c>
       <c r="R92" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="S92" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="T92" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="U92" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="V92" t="s">
-        <v>731</v>
+        <v>681</v>
+      </c>
+      <c r="W92" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>491</v>
+        <v>725</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>726</v>
       </c>
       <c r="D93">
-        <v>91227</v>
+        <v>91207</v>
       </c>
       <c r="E93" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="F93" t="s">
-        <v>494</v>
+        <v>727</v>
       </c>
       <c r="G93" t="s">
-        <v>495</v>
+        <v>728</v>
       </c>
       <c r="H93" t="s">
-        <v>496</v>
+        <v>729</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J93" t="s">
         <v>29</v>
@@ -9783,39 +9795,36 @@
         <v>31</v>
       </c>
       <c r="P93" t="s">
-        <v>29</v>
+        <v>730</v>
       </c>
       <c r="Q93" t="s">
         <v>29</v>
       </c>
       <c r="R93" t="s">
-        <v>175</v>
+        <v>730</v>
       </c>
       <c r="S93" t="s">
-        <v>175</v>
+        <v>730</v>
       </c>
       <c r="T93" t="s">
-        <v>175</v>
+        <v>730</v>
       </c>
       <c r="U93" t="s">
-        <v>497</v>
+        <v>730</v>
       </c>
       <c r="V93" t="s">
-        <v>497</v>
-      </c>
-      <c r="W93" t="s">
-        <v>27</v>
+        <v>731</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D94">
         <v>91227</v>
@@ -9824,16 +9833,16 @@
         <v>493</v>
       </c>
       <c r="F94" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G94" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H94" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J94" t="s">
         <v>29</v>
@@ -9854,25 +9863,25 @@
         <v>31</v>
       </c>
       <c r="P94" t="s">
-        <v>503</v>
+        <v>29</v>
       </c>
       <c r="Q94" t="s">
         <v>29</v>
       </c>
       <c r="R94" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="S94" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="T94" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="U94" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="V94" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
@@ -9880,13 +9889,13 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D95">
         <v>91227</v>
@@ -9895,25 +9904,25 @@
         <v>493</v>
       </c>
       <c r="F95" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G95" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H95" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
         <v>47</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
@@ -9925,39 +9934,39 @@
         <v>31</v>
       </c>
       <c r="P95" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="Q95" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="R95" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S95" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="T95" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="U95" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="V95" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="W95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75">
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>732</v>
+        <v>504</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>733</v>
+        <v>505</v>
       </c>
       <c r="D96">
         <v>91227</v>
@@ -9966,25 +9975,25 @@
         <v>493</v>
       </c>
       <c r="F96" t="s">
-        <v>734</v>
+        <v>506</v>
       </c>
       <c r="G96" t="s">
-        <v>735</v>
+        <v>507</v>
       </c>
       <c r="H96" t="s">
-        <v>736</v>
+        <v>508</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K96" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L96" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -9993,39 +10002,42 @@
         <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P96" t="s">
-        <v>737</v>
+        <v>29</v>
       </c>
       <c r="Q96" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="R96" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="S96" t="s">
-        <v>737</v>
+        <v>29</v>
       </c>
       <c r="T96" t="s">
-        <v>738</v>
+        <v>509</v>
       </c>
       <c r="U96" t="s">
-        <v>738</v>
+        <v>509</v>
       </c>
       <c r="V96" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+        <v>510</v>
+      </c>
+      <c r="W96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15.75">
       <c r="A97" t="s">
-        <v>876</v>
+        <v>732</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>537</v>
+        <v>733</v>
       </c>
       <c r="D97">
         <v>91227</v>
@@ -10033,11 +10045,14 @@
       <c r="E97" t="s">
         <v>493</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>878</v>
+      <c r="F97" t="s">
+        <v>734</v>
+      </c>
+      <c r="G97" t="s">
+        <v>735</v>
+      </c>
+      <c r="H97" t="s">
+        <v>736</v>
       </c>
       <c r="I97" t="s">
         <v>38</v>
@@ -10046,7 +10061,7 @@
         <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L97" t="s">
         <v>40</v>
@@ -10058,57 +10073,54 @@
         <v>30</v>
       </c>
       <c r="O97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P97" t="s">
-        <v>879</v>
+        <v>737</v>
       </c>
       <c r="Q97" t="s">
         <v>29</v>
       </c>
       <c r="R97" t="s">
-        <v>879</v>
+        <v>29</v>
       </c>
       <c r="S97" t="s">
-        <v>879</v>
+        <v>737</v>
       </c>
       <c r="T97" t="s">
-        <v>879</v>
+        <v>738</v>
       </c>
       <c r="U97" t="s">
-        <v>879</v>
+        <v>738</v>
       </c>
       <c r="V97" t="s">
-        <v>880</v>
-      </c>
-      <c r="W97" t="s">
-        <v>27</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>694</v>
+        <v>876</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>695</v>
+        <v>537</v>
       </c>
       <c r="D98">
-        <v>91275</v>
+        <v>91227</v>
       </c>
       <c r="E98" t="s">
-        <v>693</v>
-      </c>
-      <c r="F98" t="s">
-        <v>696</v>
-      </c>
-      <c r="H98" t="s">
-        <v>697</v>
+        <v>493</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>878</v>
       </c>
       <c r="I98" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J98" t="s">
         <v>29</v>
@@ -10129,39 +10141,39 @@
         <v>31</v>
       </c>
       <c r="P98" t="s">
-        <v>29</v>
+        <v>879</v>
       </c>
       <c r="Q98" t="s">
         <v>29</v>
       </c>
       <c r="R98" t="s">
-        <v>698</v>
+        <v>879</v>
       </c>
       <c r="S98" t="s">
-        <v>698</v>
+        <v>879</v>
       </c>
       <c r="T98" t="s">
-        <v>699</v>
+        <v>879</v>
       </c>
       <c r="U98" t="s">
-        <v>699</v>
+        <v>879</v>
       </c>
       <c r="V98" t="s">
-        <v>656</v>
+        <v>880</v>
       </c>
       <c r="W98" t="s">
-        <v>700</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D99">
         <v>91275</v>
@@ -10169,23 +10181,20 @@
       <c r="E99" t="s">
         <v>693</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G99" t="s">
-        <v>704</v>
+      <c r="F99" t="s">
+        <v>696</v>
       </c>
       <c r="H99" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I99" t="s">
         <v>29</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L99" t="s">
         <v>40</v>
@@ -10203,60 +10212,63 @@
         <v>29</v>
       </c>
       <c r="Q99" t="s">
-        <v>670</v>
+        <v>29</v>
       </c>
       <c r="R99" t="s">
-        <v>29</v>
+        <v>698</v>
       </c>
       <c r="S99" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="T99" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="U99" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="V99" t="s">
-        <v>670</v>
+        <v>656</v>
+      </c>
+      <c r="W99" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>705</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>512</v>
+        <v>702</v>
       </c>
       <c r="D100">
-        <v>91284</v>
+        <v>91275</v>
       </c>
       <c r="E100" t="s">
-        <v>513</v>
-      </c>
-      <c r="F100" t="s">
-        <v>514</v>
+        <v>693</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="G100" t="s">
-        <v>515</v>
+        <v>704</v>
       </c>
       <c r="H100" t="s">
-        <v>516</v>
+        <v>701</v>
       </c>
       <c r="I100" t="s">
         <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K100" t="s">
         <v>29</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M100" t="s">
         <v>41</v>
@@ -10271,51 +10283,48 @@
         <v>29</v>
       </c>
       <c r="Q100" t="s">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="R100" t="s">
         <v>29</v>
       </c>
       <c r="S100" t="s">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="T100" t="s">
-        <v>56</v>
+        <v>670</v>
       </c>
       <c r="U100" t="s">
-        <v>163</v>
+        <v>670</v>
       </c>
       <c r="V100" t="s">
-        <v>163</v>
-      </c>
-      <c r="W100" t="s">
-        <v>27</v>
+        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D101">
-        <v>91233</v>
+        <v>91284</v>
       </c>
       <c r="E101" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F101" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G101" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H101" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I101" t="s">
         <v>29</v>
@@ -10333,7 +10342,7 @@
         <v>41</v>
       </c>
       <c r="N101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O101" t="s">
         <v>31</v>
@@ -10351,13 +10360,13 @@
         <v>29</v>
       </c>
       <c r="T101" t="s">
-        <v>523</v>
+        <v>56</v>
       </c>
       <c r="U101" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="V101" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="W101" t="s">
         <v>27</v>
@@ -10365,81 +10374,84 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>770</v>
+        <v>517</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>769</v>
+        <v>518</v>
       </c>
       <c r="D102">
-        <v>91286</v>
+        <v>91233</v>
       </c>
       <c r="E102" t="s">
-        <v>768</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>772</v>
+        <v>519</v>
+      </c>
+      <c r="F102" t="s">
+        <v>520</v>
       </c>
       <c r="G102" t="s">
-        <v>771</v>
+        <v>521</v>
       </c>
       <c r="H102" t="s">
-        <v>773</v>
+        <v>522</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L102" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M102" t="s">
         <v>41</v>
       </c>
       <c r="N102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O102" t="s">
         <v>31</v>
       </c>
       <c r="P102" t="s">
-        <v>774</v>
+        <v>29</v>
       </c>
       <c r="Q102" t="s">
-        <v>775</v>
+        <v>29</v>
       </c>
       <c r="R102" t="s">
-        <v>775</v>
+        <v>29</v>
       </c>
       <c r="S102" t="s">
-        <v>774</v>
+        <v>29</v>
       </c>
       <c r="T102" t="s">
-        <v>774</v>
+        <v>523</v>
       </c>
       <c r="U102" t="s">
-        <v>774</v>
+        <v>29</v>
       </c>
       <c r="V102" t="s">
-        <v>774</v>
+        <v>524</v>
+      </c>
+      <c r="W102" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D103">
         <v>91286</v>
@@ -10448,13 +10460,13 @@
         <v>768</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G103" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="H103" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="I103" t="s">
         <v>38</v>
@@ -10466,7 +10478,7 @@
         <v>47</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M103" t="s">
         <v>41</v>
@@ -10478,36 +10490,36 @@
         <v>31</v>
       </c>
       <c r="P103" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
       <c r="Q103" t="s">
-        <v>843</v>
+        <v>775</v>
       </c>
       <c r="R103" t="s">
-        <v>593</v>
+        <v>775</v>
       </c>
       <c r="S103" t="s">
-        <v>29</v>
+        <v>774</v>
       </c>
       <c r="T103" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
       <c r="U103" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
       <c r="V103" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D104">
         <v>91286</v>
@@ -10516,13 +10528,13 @@
         <v>768</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="G104" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H104" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I104" t="s">
         <v>38</v>
@@ -10534,10 +10546,10 @@
         <v>47</v>
       </c>
       <c r="L104" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M104" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N104" t="s">
         <v>30</v>
@@ -10545,16 +10557,37 @@
       <c r="O104" t="s">
         <v>31</v>
       </c>
+      <c r="P104" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>843</v>
+      </c>
+      <c r="R104" t="s">
+        <v>593</v>
+      </c>
+      <c r="S104" t="s">
+        <v>29</v>
+      </c>
+      <c r="T104" t="s">
+        <v>843</v>
+      </c>
+      <c r="U104" t="s">
+        <v>843</v>
+      </c>
+      <c r="V104" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D105">
         <v>91286</v>
@@ -10563,13 +10596,13 @@
         <v>768</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G105" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H105" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I105" t="s">
         <v>38</v>
@@ -10578,13 +10611,13 @@
         <v>39</v>
       </c>
       <c r="K105" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L105" t="s">
         <v>40</v>
       </c>
       <c r="M105" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N105" t="s">
         <v>30</v>
@@ -10592,61 +10625,40 @@
       <c r="O105" t="s">
         <v>31</v>
       </c>
-      <c r="P105" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>57</v>
-      </c>
-      <c r="R105" t="s">
-        <v>29</v>
-      </c>
-      <c r="S105" t="s">
-        <v>600</v>
-      </c>
-      <c r="T105" t="s">
-        <v>57</v>
-      </c>
-      <c r="U105" t="s">
-        <v>57</v>
-      </c>
-      <c r="V105" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>525</v>
+        <v>790</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>526</v>
+        <v>787</v>
       </c>
       <c r="D106">
-        <v>91242</v>
+        <v>91286</v>
       </c>
       <c r="E106" t="s">
-        <v>527</v>
-      </c>
-      <c r="F106" t="s">
-        <v>528</v>
+        <v>768</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>789</v>
       </c>
       <c r="H106" t="s">
-        <v>529</v>
+        <v>786</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J106" t="s">
         <v>39</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L106" t="s">
         <v>40</v>
@@ -10661,39 +10673,36 @@
         <v>31</v>
       </c>
       <c r="P106" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q106" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S106" t="s">
-        <v>71</v>
+        <v>600</v>
       </c>
       <c r="T106" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="U106" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="V106" t="s">
-        <v>530</v>
-      </c>
-      <c r="W106" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D107">
         <v>91242</v>
@@ -10702,19 +10711,19 @@
         <v>527</v>
       </c>
       <c r="F107" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G107" t="s">
         <v>27</v>
       </c>
       <c r="H107" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J107" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K107" t="s">
         <v>47</v>
@@ -10732,25 +10741,25 @@
         <v>31</v>
       </c>
       <c r="P107" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="Q107" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R107" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="S107" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="T107" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="U107" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="V107" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="W107" t="s">
         <v>27</v>
@@ -10758,28 +10767,28 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>707</v>
+        <v>531</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>708</v>
+        <v>532</v>
       </c>
       <c r="D108">
-        <v>91257</v>
+        <v>91242</v>
       </c>
       <c r="E108" t="s">
-        <v>709</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>710</v>
+        <v>527</v>
+      </c>
+      <c r="F108" t="s">
+        <v>533</v>
       </c>
       <c r="G108" t="s">
-        <v>711</v>
+        <v>27</v>
       </c>
       <c r="H108" t="s">
-        <v>706</v>
+        <v>534</v>
       </c>
       <c r="I108" t="s">
         <v>38</v>
@@ -10788,7 +10797,7 @@
         <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L108" t="s">
         <v>40</v>
@@ -10803,57 +10812,60 @@
         <v>31</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>535</v>
       </c>
       <c r="Q108" t="s">
         <v>29</v>
       </c>
       <c r="R108" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="S108" t="s">
-        <v>712</v>
+        <v>535</v>
       </c>
       <c r="T108" t="s">
-        <v>712</v>
+        <v>234</v>
       </c>
       <c r="U108" t="s">
-        <v>712</v>
+        <v>234</v>
       </c>
       <c r="V108" t="s">
-        <v>712</v>
+        <v>234</v>
+      </c>
+      <c r="W108" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>536</v>
+        <v>707</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>537</v>
+        <v>708</v>
       </c>
       <c r="D109">
-        <v>91287</v>
+        <v>91257</v>
       </c>
       <c r="E109" t="s">
-        <v>538</v>
-      </c>
-      <c r="F109" t="s">
-        <v>539</v>
+        <v>709</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="G109" t="s">
-        <v>540</v>
+        <v>711</v>
       </c>
       <c r="H109" t="s">
-        <v>541</v>
+        <v>706</v>
       </c>
       <c r="I109" t="s">
         <v>38</v>
       </c>
       <c r="J109" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K109" t="s">
         <v>29</v>
@@ -10871,39 +10883,36 @@
         <v>31</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="Q109" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="R109" t="s">
         <v>29</v>
       </c>
       <c r="S109" t="s">
-        <v>292</v>
+        <v>712</v>
       </c>
       <c r="T109" t="s">
-        <v>292</v>
+        <v>712</v>
       </c>
       <c r="U109" t="s">
-        <v>292</v>
+        <v>712</v>
       </c>
       <c r="V109" t="s">
-        <v>292</v>
-      </c>
-      <c r="W109" t="s">
-        <v>27</v>
+        <v>712</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D110">
         <v>91287</v>
@@ -10912,28 +10921,28 @@
         <v>538</v>
       </c>
       <c r="F110" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G110" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="H110" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I110" t="s">
         <v>38</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K110" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L110" t="s">
         <v>40</v>
       </c>
       <c r="M110" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N110" t="s">
         <v>30</v>
@@ -10942,25 +10951,25 @@
         <v>31</v>
       </c>
       <c r="P110" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="Q110" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="R110" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="S110" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="T110" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="U110" t="s">
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="V110" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="W110" t="s">
         <v>27</v>
@@ -10968,13 +10977,13 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D111">
         <v>91287</v>
@@ -10983,19 +10992,19 @@
         <v>538</v>
       </c>
       <c r="F111" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G111" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="H111" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K111" t="s">
         <v>47</v>
@@ -11004,7 +11013,7 @@
         <v>40</v>
       </c>
       <c r="M111" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N111" t="s">
         <v>30</v>
@@ -11013,25 +11022,25 @@
         <v>31</v>
       </c>
       <c r="P111" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="Q111" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R111" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="S111" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="T111" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="U111" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="V111" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W111" t="s">
         <v>27</v>
@@ -11039,37 +11048,37 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D112">
-        <v>91224</v>
+        <v>91287</v>
       </c>
       <c r="E112" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F112" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G112" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H112" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I112" t="s">
         <v>29</v>
       </c>
       <c r="J112" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K112" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L112" t="s">
         <v>40</v>
@@ -11087,22 +11096,22 @@
         <v>29</v>
       </c>
       <c r="Q112" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R112" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S112" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="T112" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="U112" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="V112" t="s">
-        <v>42</v>
+        <v>553</v>
       </c>
       <c r="W112" t="s">
         <v>27</v>
@@ -11110,13 +11119,13 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D113">
         <v>91224</v>
@@ -11125,25 +11134,25 @@
         <v>556</v>
       </c>
       <c r="F113" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G113" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
       <c r="H113" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I113" t="s">
         <v>29</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K113" t="s">
         <v>29</v>
       </c>
       <c r="L113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M113" t="s">
         <v>41</v>
@@ -11158,22 +11167,22 @@
         <v>29</v>
       </c>
       <c r="Q113" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="R113" t="s">
         <v>29</v>
       </c>
       <c r="S113" t="s">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="T113" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="U113" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="V113" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="W113" t="s">
         <v>27</v>
@@ -11181,13 +11190,13 @@
     </row>
     <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D114">
         <v>91224</v>
@@ -11196,13 +11205,13 @@
         <v>556</v>
       </c>
       <c r="F114" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G114" t="s">
         <v>27</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I114" t="s">
         <v>29</v>
@@ -11211,10 +11220,10 @@
         <v>39</v>
       </c>
       <c r="K114" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L114" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M114" t="s">
         <v>41</v>
@@ -11229,22 +11238,22 @@
         <v>29</v>
       </c>
       <c r="Q114" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="R114" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="S114" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="T114" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="U114" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="V114" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="W114" t="s">
         <v>27</v>
@@ -11252,40 +11261,40 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>803</v>
+        <v>566</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>808</v>
+        <v>567</v>
       </c>
       <c r="D115">
-        <v>91362</v>
+        <v>91224</v>
       </c>
       <c r="E115" t="s">
-        <v>809</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>807</v>
+        <v>556</v>
+      </c>
+      <c r="F115" t="s">
+        <v>568</v>
       </c>
       <c r="G115" t="s">
-        <v>806</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
-        <v>804</v>
+        <v>569</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J115" t="s">
         <v>39</v>
       </c>
       <c r="K115" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M115" t="s">
         <v>41</v>
@@ -11297,36 +11306,39 @@
         <v>31</v>
       </c>
       <c r="P115" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="Q115" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="R115" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="S115" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="U115" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="V115" t="s">
-        <v>805</v>
+        <v>106</v>
+      </c>
+      <c r="W115" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D116">
         <v>91362</v>
@@ -11334,9 +11346,14 @@
       <c r="E116" t="s">
         <v>809</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="G116" t="s">
-        <v>817</v>
+        <v>806</v>
+      </c>
+      <c r="H116" t="s">
+        <v>804</v>
       </c>
       <c r="I116" t="s">
         <v>38</v>
@@ -11345,10 +11362,10 @@
         <v>39</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L116" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M116" t="s">
         <v>41</v>
@@ -11360,122 +11377,117 @@
         <v>31</v>
       </c>
       <c r="P116" t="s">
-        <v>585</v>
+        <v>57</v>
       </c>
       <c r="Q116" t="s">
-        <v>585</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="S116" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="T116" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="U116" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="V116" t="s">
-        <v>32</v>
-      </c>
-      <c r="W116" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>739</v>
+        <v>816</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>740</v>
+        <v>818</v>
       </c>
       <c r="D117">
-        <v>91244</v>
+        <v>91362</v>
       </c>
       <c r="E117" t="s">
-        <v>741</v>
-      </c>
-      <c r="F117" t="s">
-        <v>742</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="F117" s="2"/>
       <c r="G117" t="s">
-        <v>743</v>
-      </c>
-      <c r="H117" t="s">
-        <v>744</v>
+        <v>817</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J117" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K117" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L117" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M117" t="s">
         <v>41</v>
       </c>
       <c r="N117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P117" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="Q117" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R117" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="S117" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="T117" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="U117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V117" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="W117" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>570</v>
+        <v>739</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>571</v>
+        <v>740</v>
       </c>
       <c r="D118">
-        <v>90552</v>
+        <v>91244</v>
       </c>
       <c r="E118" t="s">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="F118" t="s">
-        <v>573</v>
+        <v>742</v>
       </c>
       <c r="G118" t="s">
-        <v>574</v>
+        <v>743</v>
       </c>
       <c r="H118" t="s">
-        <v>575</v>
+        <v>744</v>
       </c>
       <c r="I118" t="s">
         <v>29</v>
@@ -11484,19 +11496,19 @@
         <v>29</v>
       </c>
       <c r="K118" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L118" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M118" t="s">
         <v>41</v>
       </c>
       <c r="N118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P118" t="s">
         <v>29</v>
@@ -11505,33 +11517,30 @@
         <v>29</v>
       </c>
       <c r="R118" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="S118" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="T118" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="U118" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="V118" t="s">
-        <v>286</v>
-      </c>
-      <c r="W118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D119">
         <v>90552</v>
@@ -11540,13 +11549,13 @@
         <v>572</v>
       </c>
       <c r="F119" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I119" t="s">
         <v>29</v>
@@ -11576,19 +11585,19 @@
         <v>29</v>
       </c>
       <c r="R119" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S119" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="T119" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="U119" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="V119" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="W119" t="s">
         <v>27</v>
@@ -11596,13 +11605,13 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D120">
         <v>90552</v>
@@ -11611,22 +11620,22 @@
         <v>572</v>
       </c>
       <c r="F120" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G120" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="H120" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K120" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L120" t="s">
         <v>40</v>
@@ -11641,25 +11650,25 @@
         <v>31</v>
       </c>
       <c r="P120" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="Q120" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="R120" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S120" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="T120" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="U120" t="s">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="V120" t="s">
-        <v>586</v>
+        <v>42</v>
       </c>
       <c r="W120" t="s">
         <v>27</v>
@@ -11667,13 +11676,13 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="B121" t="s">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>685</v>
+        <v>581</v>
       </c>
       <c r="D121">
         <v>90552</v>
@@ -11681,17 +11690,23 @@
       <c r="E121" t="s">
         <v>572</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>686</v>
+      <c r="F121" t="s">
+        <v>582</v>
+      </c>
+      <c r="G121" t="s">
+        <v>583</v>
+      </c>
+      <c r="H121" t="s">
+        <v>584</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K121" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L121" t="s">
         <v>40</v>
@@ -11706,151 +11721,145 @@
         <v>31</v>
       </c>
       <c r="P121" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="Q121" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="R121" t="s">
-        <v>687</v>
+        <v>29</v>
       </c>
       <c r="S121" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="T121" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="U121" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="V121" t="s">
-        <v>687</v>
+        <v>586</v>
+      </c>
+      <c r="W121" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B122" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="C122" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D122">
-        <v>90607</v>
+        <v>90552</v>
       </c>
       <c r="E122" t="s">
-        <v>689</v>
-      </c>
-      <c r="F122" t="s">
-        <v>691</v>
-      </c>
-      <c r="H122" t="s">
-        <v>692</v>
+        <v>572</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I122" t="s">
+        <v>29</v>
+      </c>
+      <c r="J122" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" t="s">
+        <v>40</v>
+      </c>
+      <c r="M122" t="s">
+        <v>41</v>
+      </c>
+      <c r="N122" t="s">
+        <v>30</v>
+      </c>
+      <c r="O122" t="s">
+        <v>31</v>
       </c>
       <c r="P122" t="s">
         <v>29</v>
       </c>
       <c r="Q122" t="s">
-        <v>663</v>
+        <v>29</v>
       </c>
       <c r="R122" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="S122" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="T122" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="U122" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="V122" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>688</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>661</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>690</v>
       </c>
       <c r="D123">
-        <v>91220</v>
+        <v>90607</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
+        <v>691</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
-      </c>
-      <c r="I123" t="s">
-        <v>29</v>
-      </c>
-      <c r="J123" t="s">
-        <v>29</v>
-      </c>
-      <c r="K123" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" t="s">
-        <v>29</v>
-      </c>
-      <c r="N123" t="s">
-        <v>30</v>
-      </c>
-      <c r="O123" t="s">
-        <v>31</v>
+        <v>692</v>
       </c>
       <c r="P123" t="s">
         <v>29</v>
       </c>
       <c r="Q123" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="R123" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="S123" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="T123" t="s">
-        <v>29</v>
+        <v>663</v>
       </c>
       <c r="U123" t="s">
-        <v>32</v>
+        <v>668</v>
       </c>
       <c r="V123" t="s">
-        <v>32</v>
-      </c>
-      <c r="W123" t="s">
-        <v>27</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D124">
         <v>91220</v>
@@ -11859,28 +11868,28 @@
         <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
         <v>27</v>
       </c>
       <c r="H124" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K124" t="s">
         <v>29</v>
       </c>
       <c r="L124" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M124" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N124" t="s">
         <v>30</v>
@@ -11889,25 +11898,25 @@
         <v>31</v>
       </c>
       <c r="P124" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>29</v>
+      </c>
+      <c r="R124" t="s">
+        <v>29</v>
+      </c>
+      <c r="S124" t="s">
+        <v>29</v>
+      </c>
+      <c r="T124" t="s">
+        <v>29</v>
+      </c>
+      <c r="U124" t="s">
         <v>32</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="V124" t="s">
         <v>32</v>
-      </c>
-      <c r="R124" t="s">
-        <v>29</v>
-      </c>
-      <c r="S124" t="s">
-        <v>32</v>
-      </c>
-      <c r="T124" t="s">
-        <v>42</v>
-      </c>
-      <c r="U124" t="s">
-        <v>42</v>
-      </c>
-      <c r="V124" t="s">
-        <v>42</v>
       </c>
       <c r="W124" t="s">
         <v>27</v>
@@ -11915,13 +11924,13 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D125">
         <v>91220</v>
@@ -11930,22 +11939,22 @@
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J125" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K125" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L125" t="s">
         <v>40</v>
@@ -11960,25 +11969,25 @@
         <v>31</v>
       </c>
       <c r="P125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R125" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="S125" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="T125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="U125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W125" t="s">
         <v>27</v>
@@ -11986,13 +11995,13 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D126">
         <v>91220</v>
@@ -12001,22 +12010,22 @@
         <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H126" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J126" t="s">
         <v>29</v>
       </c>
       <c r="K126" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L126" t="s">
         <v>40</v>
@@ -12031,25 +12040,25 @@
         <v>31</v>
       </c>
       <c r="P126" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="Q126" t="s">
         <v>29</v>
       </c>
       <c r="R126" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S126" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T126" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="U126" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V126" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W126" t="s">
         <v>27</v>
@@ -12057,13 +12066,13 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D127">
         <v>91220</v>
@@ -12072,22 +12081,22 @@
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G127" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H127" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K127" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L127" t="s">
         <v>40</v>
@@ -12102,25 +12111,25 @@
         <v>31</v>
       </c>
       <c r="P127" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q127" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="R127" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="S127" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T127" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="U127" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="V127" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="W127" t="s">
         <v>27</v>
@@ -12128,13 +12137,13 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D128">
         <v>91220</v>
@@ -12143,19 +12152,19 @@
         <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H128" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J128" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K128" t="s">
         <v>47</v>
@@ -12173,25 +12182,25 @@
         <v>31</v>
       </c>
       <c r="P128" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="Q128" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="R128" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S128" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="T128" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U128" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="V128" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="W128" t="s">
         <v>27</v>
@@ -12199,13 +12208,13 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
         <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D129">
         <v>91220</v>
@@ -12214,19 +12223,19 @@
         <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H129" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I129" t="s">
         <v>38</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K129" t="s">
         <v>47</v>
@@ -12244,25 +12253,25 @@
         <v>31</v>
       </c>
       <c r="P129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q129" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="R129" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="S129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V129" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W129" t="s">
         <v>27</v>
@@ -12270,13 +12279,13 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D130">
         <v>91220</v>
@@ -12285,7 +12294,7 @@
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s">
         <v>27</v>
@@ -12312,28 +12321,28 @@
         <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P130" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Q130" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R130" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="S130" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="T130" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="U130" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="V130" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="W130" t="s">
         <v>27</v>
@@ -12341,13 +12350,13 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D131">
         <v>91220</v>
@@ -12356,16 +12365,16 @@
         <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="H131" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J131" t="s">
         <v>39</v>
@@ -12383,28 +12392,28 @@
         <v>30</v>
       </c>
       <c r="O131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q131" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R131" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="S131" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="T131" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="U131" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="V131" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="W131" t="s">
         <v>27</v>
@@ -12412,13 +12421,13 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D132">
         <v>91220</v>
@@ -12427,16 +12436,16 @@
         <v>25</v>
       </c>
       <c r="F132" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G132" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H132" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J132" t="s">
         <v>39</v>
@@ -12454,28 +12463,28 @@
         <v>30</v>
       </c>
       <c r="O132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P132" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="Q132" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="R132" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S132" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T132" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="U132" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="V132" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="W132" t="s">
         <v>27</v>
@@ -12483,13 +12492,13 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D133">
         <v>91220</v>
@@ -12498,16 +12507,16 @@
         <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="H133" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
@@ -12525,28 +12534,28 @@
         <v>30</v>
       </c>
       <c r="O133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P133" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="Q133" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R133" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="S133" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="T133" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="U133" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="V133" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="W133" t="s">
         <v>27</v>
@@ -12554,13 +12563,13 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D134">
         <v>91220</v>
@@ -12569,13 +12578,13 @@
         <v>25</v>
       </c>
       <c r="F134" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G134" t="s">
         <v>27</v>
       </c>
       <c r="H134" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I134" t="s">
         <v>29</v>
@@ -12602,22 +12611,22 @@
         <v>29</v>
       </c>
       <c r="Q134" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="R134" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="S134" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="T134" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="U134" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="V134" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="W134" t="s">
         <v>27</v>
@@ -12625,13 +12634,13 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B135" t="s">
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D135">
         <v>91220</v>
@@ -12640,19 +12649,19 @@
         <v>25</v>
       </c>
       <c r="F135" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G135" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H135" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I135" t="s">
         <v>29</v>
       </c>
       <c r="J135" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K135" t="s">
         <v>47</v>
@@ -12664,7 +12673,7 @@
         <v>41</v>
       </c>
       <c r="N135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O135" t="s">
         <v>31</v>
@@ -12673,22 +12682,22 @@
         <v>29</v>
       </c>
       <c r="Q135" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R135" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="S135" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="T135" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="U135" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="V135" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="W135" t="s">
         <v>27</v>
@@ -12696,13 +12705,13 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D136">
         <v>91220</v>
@@ -12711,16 +12720,16 @@
         <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G136" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H136" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J136" t="s">
         <v>29</v>
@@ -12735,31 +12744,31 @@
         <v>41</v>
       </c>
       <c r="N136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O136" t="s">
         <v>31</v>
       </c>
       <c r="P136" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="Q136" t="s">
         <v>29</v>
       </c>
       <c r="R136" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="S136" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="T136" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U136" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="V136" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="W136" t="s">
         <v>27</v>
@@ -12767,13 +12776,13 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D137">
         <v>91220</v>
@@ -12782,55 +12791,55 @@
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G137" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="H137" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I137" t="s">
         <v>38</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K137" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L137" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M137" t="s">
         <v>41</v>
       </c>
       <c r="N137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O137" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P137" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q137" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="R137" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="S137" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="T137" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U137" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="V137" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="W137" t="s">
         <v>27</v>
@@ -12838,13 +12847,13 @@
     </row>
     <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B138" t="s">
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D138">
         <v>91220</v>
@@ -12853,22 +12862,22 @@
         <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s">
         <v>27</v>
       </c>
       <c r="H138" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J138" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K138" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L138" t="s">
         <v>29</v>
@@ -12877,31 +12886,31 @@
         <v>41</v>
       </c>
       <c r="N138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P138" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="Q138" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="R138" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="S138" t="s">
         <v>29</v>
       </c>
       <c r="T138" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="U138" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="V138" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="W138" t="s">
         <v>27</v>
@@ -12909,31 +12918,31 @@
     </row>
     <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>587</v>
+        <v>130</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>588</v>
+        <v>131</v>
       </c>
       <c r="D139">
-        <v>91245</v>
+        <v>91220</v>
       </c>
       <c r="E139" t="s">
-        <v>589</v>
+        <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>590</v>
+        <v>132</v>
       </c>
       <c r="G139" t="s">
-        <v>591</v>
+        <v>27</v>
       </c>
       <c r="H139" t="s">
-        <v>592</v>
+        <v>133</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J139" t="s">
         <v>29</v>
@@ -12942,7 +12951,7 @@
         <v>47</v>
       </c>
       <c r="L139" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M139" t="s">
         <v>41</v>
@@ -12954,25 +12963,25 @@
         <v>31</v>
       </c>
       <c r="P139" t="s">
-        <v>593</v>
+        <v>29</v>
       </c>
       <c r="Q139" t="s">
         <v>29</v>
       </c>
       <c r="R139" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="S139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T139" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="U139" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
       <c r="V139" t="s">
-        <v>595</v>
+        <v>135</v>
       </c>
       <c r="W139" t="s">
         <v>27</v>
@@ -12980,13 +12989,13 @@
     </row>
     <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D140">
         <v>91245</v>
@@ -12995,16 +13004,16 @@
         <v>589</v>
       </c>
       <c r="F140" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G140" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="H140" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I140" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J140" t="s">
         <v>29</v>
@@ -13025,25 +13034,25 @@
         <v>31</v>
       </c>
       <c r="P140" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="Q140" t="s">
         <v>29</v>
       </c>
       <c r="R140" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S140" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="T140" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U140" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="V140" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W140" t="s">
         <v>27</v>
@@ -13051,13 +13060,13 @@
     </row>
     <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="D141">
         <v>91245</v>
@@ -13065,14 +13074,14 @@
       <c r="E141" t="s">
         <v>589</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>647</v>
+      <c r="F141" t="s">
+        <v>598</v>
       </c>
       <c r="G141" t="s">
-        <v>649</v>
+        <v>27</v>
       </c>
       <c r="H141" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="I141" t="s">
         <v>29</v>
@@ -13102,19 +13111,19 @@
         <v>29</v>
       </c>
       <c r="R141" t="s">
-        <v>650</v>
+        <v>71</v>
       </c>
       <c r="S141" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="T141" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="U141" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="V141" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="W141" t="s">
         <v>27</v>
@@ -13122,28 +13131,28 @@
     </row>
     <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="D142">
-        <v>91247</v>
+        <v>91245</v>
       </c>
       <c r="E142" t="s">
-        <v>603</v>
-      </c>
-      <c r="F142" t="s">
-        <v>604</v>
+        <v>589</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="G142" t="s">
-        <v>27</v>
+        <v>649</v>
       </c>
       <c r="H142" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="I142" t="s">
         <v>29</v>
@@ -13152,13 +13161,13 @@
         <v>29</v>
       </c>
       <c r="K142" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L142" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M142" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N142" t="s">
         <v>30</v>
@@ -13173,19 +13182,19 @@
         <v>29</v>
       </c>
       <c r="R142" t="s">
-        <v>29</v>
+        <v>650</v>
       </c>
       <c r="S142" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="T142" t="s">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="U142" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="V142" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="W142" t="s">
         <v>27</v>
@@ -13193,13 +13202,13 @@
     </row>
     <row r="143" spans="1:23">
       <c r="A143" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D143">
         <v>91247</v>
@@ -13207,29 +13216,29 @@
       <c r="E143" t="s">
         <v>603</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>609</v>
+      <c r="F143" t="s">
+        <v>604</v>
       </c>
       <c r="G143" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
       <c r="H143" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I143" t="s">
         <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K143" t="s">
         <v>29</v>
       </c>
       <c r="L143" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M143" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N143" t="s">
         <v>30</v>
@@ -13241,22 +13250,22 @@
         <v>29</v>
       </c>
       <c r="Q143" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="R143" t="s">
         <v>29</v>
       </c>
       <c r="S143" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="T143" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U143" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="V143" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="W143" t="s">
         <v>27</v>
@@ -13264,13 +13273,13 @@
     </row>
     <row r="144" spans="1:23">
       <c r="A144" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B144" t="s">
         <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D144">
         <v>91247</v>
@@ -13279,25 +13288,25 @@
         <v>603</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G144" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H144" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I144" t="s">
         <v>29</v>
       </c>
       <c r="J144" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K144" t="s">
         <v>29</v>
       </c>
       <c r="L144" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M144" t="s">
         <v>41</v>
@@ -13312,22 +13321,22 @@
         <v>29</v>
       </c>
       <c r="Q144" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="R144" t="s">
         <v>29</v>
       </c>
       <c r="S144" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="T144" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="U144" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="V144" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="W144" t="s">
         <v>27</v>
@@ -13335,28 +13344,28 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B145" t="s">
         <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D145">
-        <v>91367</v>
+        <v>91247</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G145" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H145" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I145" t="s">
         <v>29</v>
@@ -13368,7 +13377,7 @@
         <v>29</v>
       </c>
       <c r="L145" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M145" t="s">
         <v>41</v>
@@ -13389,16 +13398,16 @@
         <v>29</v>
       </c>
       <c r="S145" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T145" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="U145" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="V145" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W145" t="s">
         <v>27</v>
@@ -13406,13 +13415,13 @@
     </row>
     <row r="146" spans="1:23">
       <c r="A146" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B146" t="s">
         <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D146">
         <v>91367</v>
@@ -13421,13 +13430,13 @@
         <v>620</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G146" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H146" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I146" t="s">
         <v>29</v>
@@ -13439,7 +13448,7 @@
         <v>29</v>
       </c>
       <c r="L146" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M146" t="s">
         <v>41</v>
@@ -13460,33 +13469,104 @@
         <v>29</v>
       </c>
       <c r="S146" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="T146" t="s">
+        <v>72</v>
+      </c>
+      <c r="U146" t="s">
+        <v>72</v>
+      </c>
+      <c r="V146" t="s">
+        <v>72</v>
+      </c>
+      <c r="W146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" t="s">
+        <v>624</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>625</v>
+      </c>
+      <c r="D147">
+        <v>91367</v>
+      </c>
+      <c r="E147" t="s">
+        <v>620</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G147" t="s">
+        <v>627</v>
+      </c>
+      <c r="H147" t="s">
+        <v>628</v>
+      </c>
+      <c r="I147" t="s">
+        <v>29</v>
+      </c>
+      <c r="J147" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" t="s">
+        <v>41</v>
+      </c>
+      <c r="N147" t="s">
+        <v>30</v>
+      </c>
+      <c r="O147" t="s">
+        <v>31</v>
+      </c>
+      <c r="P147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>29</v>
+      </c>
+      <c r="R147" t="s">
+        <v>29</v>
+      </c>
+      <c r="S147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T147" t="s">
         <v>767</v>
       </c>
-      <c r="U146" t="s">
+      <c r="U147" t="s">
         <v>767</v>
       </c>
-      <c r="V146" t="s">
+      <c r="V147" t="s">
         <v>767</v>
       </c>
-      <c r="W146" t="s">
+      <c r="W147" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H96" r:id="rId1" xr:uid="{981B5560-6DAE-4DDF-89E8-965B4F428153}"/>
-    <hyperlink ref="H104" r:id="rId2" xr:uid="{EADF18B3-588E-4405-95B9-F1FF38CFE2FF}"/>
-    <hyperlink ref="H105" r:id="rId3" xr:uid="{5442E34A-4873-45A6-815F-C9DA12FAD0BB}"/>
-    <hyperlink ref="G105" r:id="rId4" display="mailto:info@treiber-trubachtal.de" xr:uid="{A8605CCA-371A-4F0F-B38F-301D8A954EEC}"/>
+    <hyperlink ref="H97" r:id="rId1" xr:uid="{981B5560-6DAE-4DDF-89E8-965B4F428153}"/>
+    <hyperlink ref="H105" r:id="rId2" xr:uid="{EADF18B3-588E-4405-95B9-F1FF38CFE2FF}"/>
+    <hyperlink ref="H106" r:id="rId3" xr:uid="{5442E34A-4873-45A6-815F-C9DA12FAD0BB}"/>
+    <hyperlink ref="G106" r:id="rId4" display="mailto:info@treiber-trubachtal.de" xr:uid="{A8605CCA-371A-4F0F-B38F-301D8A954EEC}"/>
     <hyperlink ref="G25" r:id="rId5" display="mailto:info@gasthofzurpost-egloffstein.de" xr:uid="{59D3268A-8139-41AF-93C9-8A3564842F33}"/>
     <hyperlink ref="H25" r:id="rId6" xr:uid="{ABD6C19E-78BB-453A-9B5E-26657A5E00D9}"/>
     <hyperlink ref="H26" r:id="rId7" xr:uid="{A3C602AD-9E29-4830-896C-3A931D5766AA}"/>
     <hyperlink ref="G26" r:id="rId8" display="mailto:info@backhaus-wirth.de" xr:uid="{5402AC3E-9322-4847-A4D2-B46D56B2EDF5}"/>
-    <hyperlink ref="H115" r:id="rId9" xr:uid="{B6398CCF-02EE-4F7E-8121-F9C8977EB390}"/>
-    <hyperlink ref="H65" r:id="rId10" xr:uid="{CC3AE7F7-2749-44BF-BFB2-E1636DAF0FEE}"/>
+    <hyperlink ref="H116" r:id="rId9" xr:uid="{B6398CCF-02EE-4F7E-8121-F9C8977EB390}"/>
+    <hyperlink ref="H66" r:id="rId10" xr:uid="{CC3AE7F7-2749-44BF-BFB2-E1636DAF0FEE}"/>
     <hyperlink ref="H16" r:id="rId11" xr:uid="{EDFB4660-D02F-4391-882B-B33E0B5B3D95}"/>
     <hyperlink ref="G17" r:id="rId12" display="mailto:dotterweich@schwanenbraeu.de" xr:uid="{7F70B5FC-BC29-4A95-94DE-41A0C370DC0D}"/>
     <hyperlink ref="H17" r:id="rId13" xr:uid="{EF6FA810-A349-4E13-96F6-DCBD3E1F1590}"/>
@@ -13495,15 +13575,16 @@
     <hyperlink ref="H39" r:id="rId16" xr:uid="{FF5D2CCB-F7D7-485A-A584-B17C254B20CD}"/>
     <hyperlink ref="G15" r:id="rId17" tooltip="E-Mail schreiben" display="mailto:mail@lbkbh.de" xr:uid="{D1B5D122-AB94-44F3-9A2B-E8DB5FDB287C}"/>
     <hyperlink ref="H15" r:id="rId18" xr:uid="{EF7B48D2-CA70-4063-A021-EB05A2734E38}"/>
-    <hyperlink ref="H97" r:id="rId19" xr:uid="{CB47E876-FC86-40C7-A5C5-015243833476}"/>
-    <hyperlink ref="G77" r:id="rId20" xr:uid="{08B8804C-B959-4A04-B8F6-B92A306C5AD5}"/>
-    <hyperlink ref="H77" r:id="rId21" xr:uid="{55B52E1D-4796-453B-B506-B34A9190D63C}"/>
-    <hyperlink ref="H83" r:id="rId22" xr:uid="{D972C143-2111-43B8-8407-AB8CADDF24DF}"/>
+    <hyperlink ref="H98" r:id="rId19" xr:uid="{CB47E876-FC86-40C7-A5C5-015243833476}"/>
+    <hyperlink ref="G78" r:id="rId20" xr:uid="{08B8804C-B959-4A04-B8F6-B92A306C5AD5}"/>
+    <hyperlink ref="H78" r:id="rId21" xr:uid="{55B52E1D-4796-453B-B506-B34A9190D63C}"/>
+    <hyperlink ref="H84" r:id="rId22" xr:uid="{D972C143-2111-43B8-8407-AB8CADDF24DF}"/>
+    <hyperlink ref="H59" r:id="rId23" xr:uid="{140A89BF-6CB9-4679-AA18-7CA2D32B1C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cfg/pubfinder_list_NLA.xlsx
+++ b/cfg/pubfinder_list_NLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\pubfinder_V2\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E5679-4599-43BF-8A88-FCC1FC100A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81CB50A-8F21-4D6F-8501-16E5F6A8B946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75E81789-C525-4005-96BA-B080353C5F6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="901">
   <si>
     <t>Name</t>
   </si>
@@ -2776,6 +2776,9 @@
   </si>
   <si>
     <t>11:00 - 21:30</t>
+  </si>
+  <si>
+    <t>info@grillsaloniki.de</t>
   </si>
 </sst>
 </file>
@@ -3374,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D7F2-8E23-4C59-B8E8-2949683E6C83}">
   <dimension ref="A1:W147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
-      <selection activeCell="U61" sqref="U61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7392,6 +7395,9 @@
       <c r="F59" s="2" t="s">
         <v>897</v>
       </c>
+      <c r="G59" s="5" t="s">
+        <v>900</v>
+      </c>
       <c r="H59" s="5" t="s">
         <v>898</v>
       </c>
@@ -13580,11 +13586,12 @@
     <hyperlink ref="H78" r:id="rId21" xr:uid="{55B52E1D-4796-453B-B506-B34A9190D63C}"/>
     <hyperlink ref="H84" r:id="rId22" xr:uid="{D972C143-2111-43B8-8407-AB8CADDF24DF}"/>
     <hyperlink ref="H59" r:id="rId23" xr:uid="{140A89BF-6CB9-4679-AA18-7CA2D32B1C8A}"/>
+    <hyperlink ref="G59" r:id="rId24" xr:uid="{CEA71EAA-2C78-4865-9233-A951E23256B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
